--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FB9834-00CC-4E25-B819-73D89BCE502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9E202-D5CC-4191-A8B0-3836E811D13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -541,16 +541,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -598,10 +593,10 @@
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E075E6CD-1DFD-47F5-B7CE-6A6F43BA85B6}" name="Completed"/>
-    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="1">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -910,22 +905,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -951,7 +946,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -980,7 +975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1009,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1038,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1067,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1096,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1125,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1154,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1183,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1212,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1270,7 +1265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1299,7 +1294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1328,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1341,7 +1336,7 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="3">
         <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
@@ -1352,12 +1347,12 @@
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
         <v>1</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1374,16 +1369,19 @@
         <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
       <c r="G16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1409,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1422,7 +1420,7 @@
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="3">
         <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
@@ -1430,12 +1428,12 @@
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="10">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1448,7 +1446,7 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="3">
         <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
@@ -1456,12 +1454,12 @@
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="10">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1474,7 +1472,7 @@
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="3">
         <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
@@ -1482,12 +1480,12 @@
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="10">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1513,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1539,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1565,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1591,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1617,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1643,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1669,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1695,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1721,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1747,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1773,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1799,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1825,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1851,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1877,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1903,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1929,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1955,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1981,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2007,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2033,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2059,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2085,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2111,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2137,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2163,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2189,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2215,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2241,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2267,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2293,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2319,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2345,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2371,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2397,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2423,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2449,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2475,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2501,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2527,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2553,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2579,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2605,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2631,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2657,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2683,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2735,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2761,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2787,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2813,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2839,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -2865,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -2891,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -2917,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2943,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2969,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2995,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3021,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3047,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3073,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3099,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3125,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -3151,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -3177,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -3203,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -3229,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -3255,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -3281,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -3307,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -3333,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -3359,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -3385,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -3411,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -3463,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6" t="s">
         <v>120</v>
       </c>
@@ -3479,14 +3477,14 @@
       </c>
       <c r="G98" s="4">
         <f>SUM(G2:G97)</f>
-        <v>18</v>
-      </c>
-      <c r="H98" s="14">
+        <v>20</v>
+      </c>
+      <c r="H98">
         <f>SUM(H2:H97)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="6"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3494,27 +3492,27 @@
       <c r="E99" s="5"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="11">
         <f>E98/Resources!B6</f>
         <v>46.25</v>
       </c>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B101" s="4">
         <f>(E98-H98)/Resources!B6</f>
-        <v>44</v>
+        <v>43.75</v>
       </c>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="6" t="s">
         <v>131</v>
       </c>
@@ -3524,33 +3522,33 @@
       </c>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="15">
+      <c r="B103" s="12">
         <f ca="1">TODAY()+ (E101*7)</f>
-        <v>44923</v>
-      </c>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44925</v>
+      </c>
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="11">
         <f ca="1">G98/B102</f>
-        <v>4.5</v>
-      </c>
-      <c r="G104" s="12"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B105" s="4">
         <f ca="1">H98/B102</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3570,14 +3568,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3588,7 +3586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3599,7 +3597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3610,7 +3608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3621,7 +3619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3632,7 +3630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3656,12 +3654,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -3669,7 +3667,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -3677,7 +3675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -3685,7 +3683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -3693,7 +3691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>120</v>
       </c>
@@ -3715,12 +3713,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
@@ -3728,7 +3726,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>130</v>
       </c>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9E202-D5CC-4191-A8B0-3836E811D13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F60C7F-6FCD-4E01-9207-4576A654CA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>Entity Framework Models</t>
   </si>
   <si>
-    <t>Serilog Console, File and Database Logging</t>
-  </si>
-  <si>
     <t>Setup Deployment</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Serilog Console, File Logging</t>
   </si>
 </sst>
 </file>
@@ -905,22 +905,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -937,16 +937,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -1398,16 +1398,19 @@
         <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
       <c r="G17">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -1433,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1459,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -1476,16 +1479,19 @@
         <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
       <c r="G20">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
@@ -1511,15 +1517,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -1537,15 +1543,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
@@ -1563,15 +1569,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="3">
         <v>2</v>
@@ -1589,15 +1595,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -1615,15 +1621,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
         <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -1641,15 +1647,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="3">
         <v>2</v>
@@ -1667,15 +1673,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
@@ -1693,15 +1699,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="3">
         <v>5</v>
@@ -1719,15 +1725,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="3">
         <v>5</v>
@@ -1745,15 +1751,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="3">
         <v>5</v>
@@ -1771,15 +1777,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="3">
         <v>5</v>
@@ -1797,16 +1803,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
       <c r="D33" s="3">
         <v>5</v>
       </c>
@@ -1823,15 +1829,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="3">
         <v>3</v>
@@ -1849,15 +1855,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
@@ -1875,15 +1881,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
@@ -1901,15 +1907,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="3">
         <v>2</v>
@@ -1927,15 +1933,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -1953,15 +1959,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
         <v>49</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
       </c>
       <c r="D39" s="3">
         <v>3</v>
@@ -1979,15 +1985,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="3">
         <v>5</v>
@@ -2005,15 +2011,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
@@ -2031,15 +2037,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="3">
         <v>2</v>
@@ -2057,15 +2063,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="3">
         <v>2</v>
@@ -2083,16 +2089,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
         <v>55</v>
       </c>
-      <c r="C44" t="s">
-        <v>56</v>
-      </c>
       <c r="D44" s="3">
         <v>2</v>
       </c>
@@ -2109,15 +2115,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
@@ -2135,15 +2141,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
         <v>58</v>
-      </c>
-      <c r="C46" t="s">
-        <v>59</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
@@ -2161,15 +2167,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="3">
         <v>3</v>
@@ -2187,15 +2193,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="3">
         <v>3</v>
@@ -2213,15 +2219,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="3">
         <v>5</v>
@@ -2239,15 +2245,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
@@ -2265,15 +2271,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="3">
         <v>2</v>
@@ -2291,15 +2297,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="3">
         <v>2</v>
@@ -2317,16 +2323,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
         <v>66</v>
       </c>
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
       <c r="D53" s="3">
         <v>5</v>
       </c>
@@ -2343,15 +2349,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D54" s="3">
         <v>3</v>
@@ -2369,15 +2375,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="3">
         <v>5</v>
@@ -2395,15 +2401,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" s="3">
         <v>2</v>
@@ -2421,16 +2427,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
         <v>71</v>
       </c>
-      <c r="C57" t="s">
-        <v>72</v>
-      </c>
       <c r="D57" s="3">
         <v>5</v>
       </c>
@@ -2447,15 +2453,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" s="3">
         <v>5</v>
@@ -2473,15 +2479,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D59" s="3">
         <v>5</v>
@@ -2499,15 +2505,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" s="3">
         <v>3</v>
@@ -2525,15 +2531,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" s="3">
         <v>5</v>
@@ -2551,16 +2557,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
         <v>77</v>
       </c>
-      <c r="C62" t="s">
-        <v>78</v>
-      </c>
       <c r="D62" s="3">
         <v>5</v>
       </c>
@@ -2577,15 +2583,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63" s="3">
         <v>5</v>
@@ -2603,15 +2609,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" s="3">
         <v>3</v>
@@ -2629,15 +2635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
         <v>81</v>
-      </c>
-      <c r="C65" t="s">
-        <v>82</v>
       </c>
       <c r="D65" s="3">
         <v>3</v>
@@ -2655,15 +2661,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="3">
         <v>5</v>
@@ -2681,15 +2687,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" s="3">
         <v>5</v>
@@ -2707,15 +2713,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
         <v>84</v>
-      </c>
-      <c r="C68" t="s">
-        <v>85</v>
       </c>
       <c r="D68" s="3">
         <v>3</v>
@@ -2733,15 +2739,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
@@ -2759,15 +2765,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="3">
         <v>5</v>
@@ -2785,15 +2791,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" s="3">
         <v>5</v>
@@ -2811,15 +2817,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" t="s">
         <v>90</v>
-      </c>
-      <c r="C72" t="s">
-        <v>91</v>
       </c>
       <c r="D72" s="3">
         <v>3</v>
@@ -2837,15 +2843,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="3">
         <v>3</v>
@@ -2863,15 +2869,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
@@ -2889,15 +2895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D75" s="3">
         <v>3</v>
@@ -2915,15 +2921,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
         <v>95</v>
-      </c>
-      <c r="C76" t="s">
-        <v>96</v>
       </c>
       <c r="D76" s="3">
         <v>3</v>
@@ -2941,15 +2947,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77" s="3">
         <v>3</v>
@@ -2967,15 +2973,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D78" s="3">
         <v>3</v>
@@ -2993,15 +2999,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" s="3">
         <v>3</v>
@@ -3019,15 +3025,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D80" s="3">
         <v>3</v>
@@ -3045,15 +3051,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D81" s="3">
         <v>2</v>
@@ -3071,16 +3077,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" t="s">
         <v>102</v>
       </c>
-      <c r="C82" t="s">
-        <v>103</v>
-      </c>
       <c r="D82" s="3">
         <v>2</v>
       </c>
@@ -3097,15 +3103,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D83" s="3">
         <v>2</v>
@@ -3123,15 +3129,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D84" s="3">
         <v>2</v>
@@ -3149,15 +3155,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D85" s="3">
         <v>2</v>
@@ -3175,15 +3181,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D86" s="3">
         <v>2</v>
@@ -3201,15 +3207,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D87" s="3">
         <v>2</v>
@@ -3227,15 +3233,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D88" s="3">
         <v>2</v>
@@ -3253,15 +3259,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D89" s="3">
         <v>5</v>
@@ -3279,15 +3285,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" t="s">
         <v>111</v>
-      </c>
-      <c r="C90" t="s">
-        <v>112</v>
       </c>
       <c r="D90" s="3">
         <v>3</v>
@@ -3305,15 +3311,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D91" s="3">
         <v>5</v>
@@ -3331,16 +3337,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" t="s">
         <v>114</v>
       </c>
-      <c r="C92" t="s">
-        <v>115</v>
-      </c>
       <c r="D92" s="3">
         <v>2</v>
       </c>
@@ -3357,15 +3363,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D93" s="3">
         <v>2</v>
@@ -3383,15 +3389,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D94" s="3">
         <v>5</v>
@@ -3409,15 +3415,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D95" s="3">
         <v>5</v>
@@ -3435,35 +3441,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="3">
+        <v>5</v>
+      </c>
+      <c r="E96" s="3">
+        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="G96">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D96" s="3">
-        <v>5</v>
-      </c>
-      <c r="E96" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="G96">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3477,14 +3483,14 @@
       </c>
       <c r="G98" s="4">
         <f>SUM(G2:G97)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H98">
         <f>SUM(H2:H97)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3492,9 +3498,9 @@
       <c r="E99" s="5"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="11">
         <f>E98/Resources!B6</f>
@@ -3502,53 +3508,53 @@
       </c>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" s="4">
         <f>(E98-H98)/Resources!B6</f>
-        <v>43.75</v>
+        <v>43.375</v>
       </c>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B103" s="12">
-        <f ca="1">TODAY()+ (E101*7)</f>
-        <v>44925</v>
+        <f ca="1">TODAY()+ (B101*7)</f>
+        <v>45231.625</v>
       </c>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B104" s="11">
         <f ca="1">G98/B102</f>
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G104" s="10"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B105" s="4">
         <f ca="1">H98/B102</f>
-        <v>20</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3568,74 +3574,74 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.15625" style="3"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3">
         <v>64</v>
@@ -3654,46 +3660,46 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>122</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>123</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B4)</f>
@@ -3713,22 +3719,22 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>130</v>
       </c>
       <c r="B2" s="8">
         <v>44892</v>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F60C7F-6FCD-4E01-9207-4576A654CA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A841A77-DFBF-4533-B301-873D03962B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -904,8 +904,8 @@
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,13 +1453,16 @@
         <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
       <c r="G19">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3483,11 +3486,11 @@
       </c>
       <c r="G98" s="4">
         <f>SUM(G2:G97)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H98">
         <f>SUM(H2:H97)</f>
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3514,7 +3517,7 @@
       </c>
       <c r="B101" s="4">
         <f>(E98-H98)/Resources!B6</f>
-        <v>43.375</v>
+        <v>43.25</v>
       </c>
       <c r="E101" s="7"/>
     </row>
@@ -3534,7 +3537,7 @@
       </c>
       <c r="B103" s="12">
         <f ca="1">TODAY()+ (B101*7)</f>
-        <v>45231.625</v>
+        <v>45231.75</v>
       </c>
       <c r="E103" s="9"/>
     </row>
@@ -3544,7 +3547,7 @@
       </c>
       <c r="B104" s="11">
         <f ca="1">G98/B102</f>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="G104" s="10"/>
     </row>
@@ -3554,7 +3557,7 @@
       </c>
       <c r="B105" s="4">
         <f ca="1">H98/B102</f>
-        <v>18.399999999999999</v>
+        <v>19.2</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6EE3B-7696-4CAB-AA64-344F8133804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F564163-250A-47A2-9581-E14F0D063FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="145">
   <si>
     <t>Epic</t>
   </si>
@@ -432,9 +432,6 @@
     <t>Week Number</t>
   </si>
   <si>
-    <t>Remaining Weeks of Work</t>
-  </si>
-  <si>
     <t>Estimated Completion Date</t>
   </si>
   <si>
@@ -472,6 +469,12 @@
   </si>
   <si>
     <t>Total De-prioritized</t>
+  </si>
+  <si>
+    <t>Projected Remaining Weeks of Work</t>
+  </si>
+  <si>
+    <t>Project Start Date</t>
   </si>
 </sst>
 </file>
@@ -929,11 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +967,7 @@
         <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
         <v>124</v>
@@ -1313,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1365,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -1391,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1414,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1440,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -3027,10 +3030,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" t="s">
         <v>141</v>
-      </c>
-      <c r="B89" t="s">
-        <v>142</v>
       </c>
       <c r="C89" s="3">
         <v>2</v>
@@ -3089,11 +3092,11 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B94" s="11">
-        <f>(D91-G91)/Resources!B6</f>
-        <v>100</v>
+        <f ca="1">(D91-G91)/B99</f>
+        <v>75</v>
       </c>
       <c r="D94" s="7"/>
     </row>
@@ -3109,29 +3112,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B96" s="12">
-        <f ca="1">TODAY()+ (B94*7)</f>
-        <v>45634</v>
-      </c>
-      <c r="D96" s="9"/>
+        <f>Variables!B2</f>
+        <v>44892</v>
+      </c>
+      <c r="D96" s="7"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B97" s="11">
-        <f ca="1">F91/B95</f>
-        <v>4</v>
-      </c>
-      <c r="F97" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="B97" s="12">
+        <f ca="1">TODAY()+ (B94*7)</f>
+        <v>45459</v>
+      </c>
+      <c r="D97" s="9"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" s="4">
+        <v>137</v>
+      </c>
+      <c r="B98" s="11">
+        <f ca="1">F91/B95</f>
+        <v>4</v>
+      </c>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" s="4">
         <f ca="1">G91/B95</f>
         <v>16</v>
       </c>
@@ -3181,7 +3194,7 @@
         <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
         <v>124</v>
@@ -3309,7 +3322,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11">
         <f>SUM(C2:C10)</f>
@@ -3491,7 +3504,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F564163-250A-47A2-9581-E14F0D063FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC610649-9682-4E2D-A867-35E48510554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
   <si>
     <t>Epic</t>
   </si>
@@ -402,12 +402,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Greg</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
     <t>Dedicated Development Hours Per Week</t>
   </si>
   <si>
@@ -420,9 +414,6 @@
     <t>Total Weeks</t>
   </si>
   <si>
-    <t>Anna</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -435,9 +426,6 @@
     <t>Estimated Completion Date</t>
   </si>
   <si>
-    <t>Create Theme Using Syncfusion Theme Studio for Blazor</t>
-  </si>
-  <si>
     <t>Code Quality Check Razor Pages</t>
   </si>
   <si>
@@ -475,6 +463,18 @@
   </si>
   <si>
     <t>Project Start Date</t>
+  </si>
+  <si>
+    <t>Greg Finzer</t>
+  </si>
+  <si>
+    <t>James MacIvor</t>
+  </si>
+  <si>
+    <t>Mike Chafin</t>
+  </si>
+  <si>
+    <t>Val Skordin</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -557,11 +557,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -574,10 +579,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -596,20 +597,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G89" totalsRowShown="0">
-  <autoFilter ref="A1:G89" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G96" totalsRowShown="0">
+  <autoFilter ref="A1:G96" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
     <tableColumn id="4" xr3:uid="{F83CC626-5103-462B-9E71-70FF58ECD672}" name="Points" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{32A1D275-1575-4B11-A22D-5A36CD923379}" name="Estimated Hours" dataDxfId="4">
-      <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{32A1D275-1575-4B11-A22D-5A36CD923379}" name="Estimated Hours" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E075E6CD-1DFD-47F5-B7CE-6A6F43BA85B6}" name="Completed"/>
-    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="4">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="3">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -618,15 +619,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{462FB8B6-867C-41A1-BFD9-9F5A89B19647}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{462FB8B6-867C-41A1-BFD9-9F5A89B19647}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{462FB8B6-867C-41A1-BFD9-9F5A89B19647}" name="Table2" displayName="Table2" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2" xr:uid="{462FB8B6-867C-41A1-BFD9-9F5A89B19647}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{31CB5B43-DDC0-45F7-94FE-8435C1D008DA}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{E8134CEE-EEF4-4605-A21F-CFF015B23BA2}" name="Story"/>
-    <tableColumn id="4" xr3:uid="{A8E050D4-AAEC-4516-ABB3-A0C110009E2F}" name="Points" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{AD6AC57F-E07B-42DB-850E-DEA524AE6E46}" name="Estimated Hours" dataDxfId="0">
-      <calculatedColumnFormula>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A8E050D4-AAEC-4516-ABB3-A0C110009E2F}" name="Points" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AD6AC57F-E07B-42DB-850E-DEA524AE6E46}" name="Estimated Hours" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{86F5B27A-D198-4848-ADB6-A7BEFFDB816F}" name="Completed"/>
     <tableColumn id="7" xr3:uid="{2398D599-5A1D-4B6E-8A23-79F4063944CE}" name="Completed Points"/>
     <tableColumn id="8" xr3:uid="{C13FCCDE-FC9C-48C6-AE8F-48A44BF6C3D4}" name="Completed Hours"/>
@@ -924,7 +923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -932,11 +931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,13 +963,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -984,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E2" t="b">
@@ -1010,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C3,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E3" t="b">
@@ -1036,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C4,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E4" t="b">
@@ -1062,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C5,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E5" t="b">
@@ -1088,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C6,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E6" t="b">
@@ -1114,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C7,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E7" t="b">
@@ -1140,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C8,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E8" t="b">
@@ -1166,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C9,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E9" t="b">
@@ -1192,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C10,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E10" t="b">
@@ -1218,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C11,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E11" t="b">
@@ -1244,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C12,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E12" t="b">
@@ -1270,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C13,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E13" t="b">
@@ -1296,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C14,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E14" t="b">
@@ -1316,13 +1315,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C15,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E15" t="b">
@@ -1348,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C16,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E16" t="b">
@@ -1368,13 +1367,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C17,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E17" t="b">
@@ -1394,22 +1393,25 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <f>VLOOKUP(C18,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
       </c>
       <c r="F18">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1417,13 +1419,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C19,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E19" t="b">
@@ -1443,48 +1445,51 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <f>VLOOKUP(C20,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C21,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
       <c r="F21">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1492,14 +1497,14 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <f>VLOOKUP(C22,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="F22">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -1515,13 +1520,13 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C23,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F23">
@@ -1538,13 +1543,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C24,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F24">
@@ -1558,17 +1563,17 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(C25,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="F25">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -1584,22 +1589,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <f>VLOOKUP(C26,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
       </c>
       <c r="F26">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1607,14 +1615,14 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(C27,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="F27">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -1630,14 +1638,14 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <f>VLOOKUP(C28,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="F28">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -1653,13 +1661,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3">
         <v>5</v>
       </c>
       <c r="D29" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C29,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="F29">
@@ -1676,13 +1684,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
       </c>
       <c r="D30" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C30,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="F30">
@@ -1699,13 +1707,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3">
         <v>5</v>
       </c>
       <c r="D31" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C31,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="F31">
@@ -1719,16 +1727,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
       </c>
       <c r="D32" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C32,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="F32">
@@ -1745,14 +1753,14 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <f>VLOOKUP(C33,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="F33">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -1768,14 +1776,14 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <f>VLOOKUP(C34,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="F34">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -1791,13 +1799,13 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
       </c>
       <c r="D35" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C35,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F35">
@@ -1814,13 +1822,13 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
       </c>
       <c r="D36" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C36,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F36">
@@ -1837,14 +1845,14 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(C37,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
       </c>
       <c r="F37">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -1857,17 +1865,17 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <f>VLOOKUP(C38,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="F38">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -1883,14 +1891,14 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <f>VLOOKUP(C39,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="F39">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -1906,14 +1914,14 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <f>VLOOKUP(C40,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="F40">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -1929,13 +1937,13 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="3">
         <v>2</v>
       </c>
       <c r="D41" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C41,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F41">
@@ -1952,13 +1960,13 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C42,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F42">
@@ -1972,16 +1980,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3">
         <v>2</v>
       </c>
       <c r="D43" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C43,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F43">
@@ -1998,13 +2006,13 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
       </c>
       <c r="D44" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C44,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F44">
@@ -2018,17 +2026,17 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(C45,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="F45">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2044,13 +2052,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3">
         <v>3</v>
       </c>
       <c r="D46" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C46,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F46">
@@ -2067,13 +2075,13 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" s="3">
         <v>3</v>
       </c>
       <c r="D47" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C47,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F47">
@@ -2090,14 +2098,14 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <f>VLOOKUP(C48,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="F48">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2113,14 +2121,14 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <f>VLOOKUP(C49,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="F49">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2136,13 +2144,13 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C50,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F50">
@@ -2159,13 +2167,13 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
       </c>
       <c r="D51" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C51,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F51">
@@ -2179,17 +2187,17 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(C52,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="F52">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2205,14 +2213,14 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <f>VLOOKUP(C53,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="F53">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2228,14 +2236,14 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <f>VLOOKUP(C54,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="F54">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2251,14 +2259,14 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <f>VLOOKUP(C55,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="F55">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2271,17 +2279,17 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(C56,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="F56">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2297,13 +2305,13 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3">
         <v>5</v>
       </c>
       <c r="D57" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C57,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="F57">
@@ -2320,13 +2328,13 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C58" s="3">
         <v>5</v>
       </c>
       <c r="D58" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C58,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="F58">
@@ -2343,14 +2351,14 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <f>VLOOKUP(C59,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="F59">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2366,14 +2374,14 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <f>VLOOKUP(C60,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="F60">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2386,16 +2394,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
       </c>
       <c r="D61" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C61,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="F61">
@@ -2412,13 +2420,13 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="3">
         <v>5</v>
       </c>
       <c r="D62" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C62,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="F62">
@@ -2435,14 +2443,14 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <f>VLOOKUP(C63,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="F63">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2455,16 +2463,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C64" s="3">
         <v>3</v>
       </c>
       <c r="D64" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C64,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F64">
@@ -2481,14 +2489,14 @@
         <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C65" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <f>VLOOKUP(C65,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="F65">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2501,16 +2509,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
       </c>
       <c r="D66" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C66,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="F66">
@@ -2527,14 +2535,14 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <f>VLOOKUP(C67,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="F67">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2550,13 +2558,13 @@
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
       </c>
       <c r="D68" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C68,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F68">
@@ -2573,14 +2581,14 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C69" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <f>VLOOKUP(C69,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
       </c>
       <c r="F69">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2596,13 +2604,13 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C70" s="3">
         <v>5</v>
       </c>
       <c r="D70" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C70,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="F70">
@@ -2616,17 +2624,17 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C71" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <f>VLOOKUP(C71,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="F71">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2642,13 +2650,13 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" s="3">
         <v>3</v>
       </c>
       <c r="D72" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C72,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F72">
@@ -2665,13 +2673,13 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C73" s="3">
         <v>3</v>
       </c>
       <c r="D73" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C73,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F73">
@@ -2688,13 +2696,13 @@
         <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C74" s="3">
         <v>3</v>
       </c>
       <c r="D74" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C74,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F74">
@@ -2708,16 +2716,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C75" s="3">
         <v>3</v>
       </c>
       <c r="D75" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C75,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F75">
@@ -2734,13 +2742,13 @@
         <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C76" s="3">
         <v>3</v>
       </c>
       <c r="D76" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C76,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F76">
@@ -2757,13 +2765,13 @@
         <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C77" s="3">
         <v>3</v>
       </c>
       <c r="D77" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C77,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F77">
@@ -2780,13 +2788,13 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C78" s="3">
         <v>3</v>
       </c>
       <c r="D78" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C78,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F78">
@@ -2803,13 +2811,13 @@
         <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C79" s="3">
         <v>3</v>
       </c>
       <c r="D79" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C79,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="F79">
@@ -2826,14 +2834,14 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C80" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <f>VLOOKUP(C80,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="F80">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2846,16 +2854,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C81" s="3">
         <v>2</v>
       </c>
       <c r="D81" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C81,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F81">
@@ -2872,13 +2880,13 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C82" s="3">
         <v>2</v>
       </c>
       <c r="D82" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C82,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F82">
@@ -2895,13 +2903,13 @@
         <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C83" s="3">
         <v>2</v>
       </c>
       <c r="D83" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C83,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F83">
@@ -2918,13 +2926,13 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C84" s="3">
         <v>2</v>
       </c>
       <c r="D84" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C84,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F84">
@@ -2941,13 +2949,13 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C85" s="3">
         <v>2</v>
       </c>
       <c r="D85" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C85,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F85">
@@ -2964,13 +2972,13 @@
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C86" s="3">
         <v>2</v>
       </c>
       <c r="D86" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C86,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F86">
@@ -2987,13 +2995,13 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C87" s="3">
         <v>2</v>
       </c>
       <c r="D87" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
+        <f>VLOOKUP(C87,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="F87">
@@ -3007,146 +3015,307 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C88" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F88">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G88">
+        <f>VLOOKUP(C88,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F88" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="13">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="3">
+        <v>3</v>
+      </c>
+      <c r="D89" s="3">
+        <f>VLOOKUP(C89,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F89" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="3">
+        <v>5</v>
+      </c>
+      <c r="D90" s="3">
+        <f>VLOOKUP(C90,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F90" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2</v>
+      </c>
+      <c r="D91" s="3">
+        <f>VLOOKUP(C91,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F91" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3">
+        <f>VLOOKUP(C92,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F92" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="3">
+        <v>5</v>
+      </c>
+      <c r="D93" s="3">
+        <f>VLOOKUP(C93,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F93" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="3">
+        <v>5</v>
+      </c>
+      <c r="D94" s="3">
+        <f>VLOOKUP(C94,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F94" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="3">
+        <v>5</v>
+      </c>
+      <c r="D95" s="3">
+        <f>VLOOKUP(C95,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F95" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="13">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3">
+        <f>VLOOKUP(C96,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5">
+        <f>SUM(C2:C97)</f>
+        <v>274</v>
+      </c>
+      <c r="D98" s="5">
+        <f>SUM(D2:D97)</f>
+        <v>1484</v>
+      </c>
+      <c r="F98" s="4">
+        <f>SUM(F2:F97)</f>
+        <v>32</v>
+      </c>
+      <c r="G98">
+        <f>SUM(G2:G97)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" s="11">
+        <f>D98/Resources!B7</f>
+        <v>31.574468085106382</v>
+      </c>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="11">
+        <f ca="1">(D98-G98)/B106</f>
+        <v>79.294117647058826</v>
+      </c>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="4">
+        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
+        <v>8</v>
+      </c>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B89" t="s">
-        <v>141</v>
-      </c>
-      <c r="C89" s="3">
-        <v>2</v>
-      </c>
-      <c r="D89" s="3">
-        <f>VLOOKUP(Table1[[#This Row],[Points]],Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F89">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="5">
-        <f>SUM(C2:C90)</f>
-        <v>243</v>
-      </c>
-      <c r="D91" s="5">
-        <f>SUM(D2:D90)</f>
-        <v>1296</v>
-      </c>
-      <c r="F91" s="4">
-        <f>SUM(F2:F90)</f>
-        <v>24</v>
-      </c>
-      <c r="G91">
-        <f>SUM(G2:G90)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B93" s="11">
-        <f>D91/Resources!B6</f>
-        <v>108</v>
-      </c>
-      <c r="D93" s="7"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B94" s="11">
-        <f ca="1">(D91-G91)/B99</f>
-        <v>75</v>
-      </c>
-      <c r="D94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B95" s="4">
-        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>6</v>
-      </c>
-      <c r="D95" s="7"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B96" s="12">
+      <c r="B103" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B97" s="12">
-        <f ca="1">TODAY()+ (B94*7)</f>
-        <v>45459</v>
-      </c>
-      <c r="D97" s="9"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="11">
-        <f ca="1">F91/B95</f>
-        <v>4</v>
-      </c>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B99" s="4">
-        <f ca="1">G91/B95</f>
-        <v>16</v>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="12">
+        <f ca="1">TODAY()+ (B101*7)</f>
+        <v>45504.058823529413</v>
+      </c>
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="11">
+        <f ca="1">F98/B102</f>
+        <v>4</v>
+      </c>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="4">
+        <f ca="1">G98/B102</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3160,10 +3329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686172D1-3F7C-4409-81BD-9F9C60450429}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,146 +3360,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
       <c r="C2" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
-        <f>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <f>VLOOKUP(C3,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
-        <f>VLOOKUP(C4,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <f>VLOOKUP(C5,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <f>VLOOKUP(C6,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <f>VLOOKUP(C7,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <f>VLOOKUP(C8,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <f>VLOOKUP(C9,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11">
-        <f>SUM(C2:C10)</f>
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <f>SUM(D2:D10)</f>
-        <v>192</v>
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D2:D3)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3429,14 +3486,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F621DB0-8DAE-49A3-A9ED-9FDE92100FD7}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3445,12 +3503,12 @@
         <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -3458,7 +3516,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -3466,19 +3524,27 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="4">
-        <f>SUM(B2:B4)</f>
-        <v>12</v>
+      <c r="B7" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3501,15 +3567,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8">
         <v>44892</v>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC610649-9682-4E2D-A867-35E48510554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE41FA5-BBFF-4C1C-B037-5FE608016CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -557,16 +557,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -579,6 +574,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -603,14 +602,14 @@
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
     <tableColumn id="4" xr3:uid="{F83CC626-5103-462B-9E71-70FF58ECD672}" name="Points" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{32A1D275-1575-4B11-A22D-5A36CD923379}" name="Estimated Hours" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{32A1D275-1575-4B11-A22D-5A36CD923379}" name="Estimated Hours" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E075E6CD-1DFD-47F5-B7CE-6A6F43BA85B6}" name="Completed"/>
-    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="3">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="2">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -624,8 +623,8 @@
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{31CB5B43-DDC0-45F7-94FE-8435C1D008DA}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{E8134CEE-EEF4-4605-A21F-CFF015B23BA2}" name="Story"/>
-    <tableColumn id="4" xr3:uid="{A8E050D4-AAEC-4516-ABB3-A0C110009E2F}" name="Points" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{AD6AC57F-E07B-42DB-850E-DEA524AE6E46}" name="Estimated Hours" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A8E050D4-AAEC-4516-ABB3-A0C110009E2F}" name="Points" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{AD6AC57F-E07B-42DB-850E-DEA524AE6E46}" name="Estimated Hours" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{86F5B27A-D198-4848-ADB6-A7BEFFDB816F}" name="Completed"/>
     <tableColumn id="7" xr3:uid="{2398D599-5A1D-4B6E-8A23-79F4063944CE}" name="Completed Points"/>
     <tableColumn id="8" xr3:uid="{C13FCCDE-FC9C-48C6-AE8F-48A44BF6C3D4}" name="Completed Hours"/>
@@ -923,7 +922,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -934,8 +933,8 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,13 +1551,16 @@
         <f>VLOOKUP(C24,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
       <c r="F24">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1575,13 +1577,16 @@
         <f>VLOOKUP(C25,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
       <c r="F25">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1624,13 +1629,16 @@
         <f>VLOOKUP(C27,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
       <c r="F27">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1647,13 +1655,16 @@
         <f>VLOOKUP(C28,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
       <c r="F28">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2199,13 +2210,16 @@
         <f>VLOOKUP(C52,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
       <c r="F52">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G52">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2222,13 +2236,16 @@
         <f>VLOOKUP(C53,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
       <c r="F53">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2245,13 +2262,16 @@
         <f>VLOOKUP(C54,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
       <c r="F54">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2314,13 +2334,16 @@
         <f>VLOOKUP(C57,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
       <c r="F57">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G57">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2429,13 +2452,16 @@
         <f>VLOOKUP(C62,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
       <c r="F62">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G62">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2636,13 +2662,16 @@
         <f>VLOOKUP(C71,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
       <c r="F71">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G71">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2659,13 +2688,16 @@
         <f>VLOOKUP(C72,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
       <c r="F72">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G72">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2682,13 +2714,16 @@
         <f>VLOOKUP(C73,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
       <c r="F73">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G73">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2705,13 +2740,16 @@
         <f>VLOOKUP(C74,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
       <c r="F74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3027,11 +3065,11 @@
         <f>VLOOKUP(C88,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F88" s="13">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="13">
+      <c r="F88">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G88">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -3050,11 +3088,11 @@
         <f>VLOOKUP(C89,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F89" s="13">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G89" s="13">
+      <c r="F89">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -3073,11 +3111,11 @@
         <f>VLOOKUP(C90,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F90" s="13">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="13">
+      <c r="F90">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G90">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -3096,11 +3134,11 @@
         <f>VLOOKUP(C91,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F91" s="13">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="13">
+      <c r="F91">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G91">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -3119,11 +3157,11 @@
         <f>VLOOKUP(C92,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F92" s="13">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="13">
+      <c r="F92">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G92">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -3142,11 +3180,11 @@
         <f>VLOOKUP(C93,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F93" s="13">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="13">
+      <c r="F93">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G93">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -3165,11 +3203,11 @@
         <f>VLOOKUP(C94,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F94" s="13">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="13">
+      <c r="F94">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G94">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -3188,11 +3226,11 @@
         <f>VLOOKUP(C95,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F95" s="13">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="13">
+      <c r="F95">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G95">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -3235,11 +3273,11 @@
       </c>
       <c r="F98" s="4">
         <f>SUM(F2:F97)</f>
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="G98">
         <f>SUM(G2:G97)</f>
-        <v>136</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3265,7 +3303,7 @@
       </c>
       <c r="B101" s="11">
         <f ca="1">(D98-G98)/B106</f>
-        <v>79.294117647058826</v>
+        <v>33.375</v>
       </c>
       <c r="D101" s="7"/>
     </row>
@@ -3275,7 +3313,7 @@
       </c>
       <c r="B102" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D102" s="7"/>
     </row>
@@ -3295,7 +3333,7 @@
       </c>
       <c r="B104" s="12">
         <f ca="1">TODAY()+ (B101*7)</f>
-        <v>45504.058823529413</v>
+        <v>45222.625</v>
       </c>
       <c r="D104" s="9"/>
     </row>
@@ -3305,7 +3343,7 @@
       </c>
       <c r="B105" s="11">
         <f ca="1">F98/B102</f>
-        <v>4</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="F105" s="10"/>
     </row>
@@ -3315,7 +3353,7 @@
       </c>
       <c r="B106" s="4">
         <f ca="1">G98/B102</f>
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE41FA5-BBFF-4C1C-B037-5FE608016CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D1D66F-DD07-47BB-8AD8-9DEFE1A53831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -933,8 +933,8 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,13 +1505,16 @@
         <f>VLOOKUP(C22,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
       <c r="F22">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1750,13 +1753,16 @@
         <f>VLOOKUP(C32,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
       <c r="F32">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1773,13 +1779,16 @@
         <f>VLOOKUP(C33,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
       <c r="F33">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1819,13 +1828,16 @@
         <f>VLOOKUP(C35,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
       <c r="F35">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1842,13 +1854,16 @@
         <f>VLOOKUP(C36,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
       <c r="F36">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1865,13 +1880,16 @@
         <f>VLOOKUP(C37,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
       <c r="F37">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3273,11 +3291,11 @@
       </c>
       <c r="F98" s="4">
         <f>SUM(F2:F97)</f>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G98">
         <f>SUM(G2:G97)</f>
-        <v>416</v>
+        <v>492</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3303,7 +3321,7 @@
       </c>
       <c r="B101" s="11">
         <f ca="1">(D98-G98)/B106</f>
-        <v>33.375</v>
+        <v>36.292682926829272</v>
       </c>
       <c r="D101" s="7"/>
     </row>
@@ -3313,7 +3331,7 @@
       </c>
       <c r="B102" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D102" s="7"/>
     </row>
@@ -3333,7 +3351,7 @@
       </c>
       <c r="B104" s="12">
         <f ca="1">TODAY()+ (B101*7)</f>
-        <v>45222.625</v>
+        <v>45272.048780487807</v>
       </c>
       <c r="D104" s="9"/>
     </row>
@@ -3343,7 +3361,7 @@
       </c>
       <c r="B105" s="11">
         <f ca="1">F98/B102</f>
-        <v>6.1538461538461542</v>
+        <v>5.2777777777777777</v>
       </c>
       <c r="F105" s="10"/>
     </row>
@@ -3353,7 +3371,7 @@
       </c>
       <c r="B106" s="4">
         <f ca="1">G98/B102</f>
-        <v>32</v>
+        <v>27.333333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D1D66F-DD07-47BB-8AD8-9DEFE1A53831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16E4FE3-5A76-40E7-8101-BA78217C9378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -933,8 +933,8 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,13 +1531,16 @@
         <f>VLOOKUP(C23,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
       <c r="F23">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1906,13 +1909,16 @@
         <f>VLOOKUP(C38,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
       <c r="F38">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2021,13 +2027,16 @@
         <f>VLOOKUP(C43,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
       <c r="F43">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2044,13 +2053,16 @@
         <f>VLOOKUP(C44,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
       <c r="F44">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2067,13 +2079,16 @@
         <f>VLOOKUP(C45,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
       <c r="F45">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2732,16 +2747,13 @@
         <f>VLOOKUP(C73,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
       <c r="F73">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3291,11 +3303,11 @@
       </c>
       <c r="F98" s="4">
         <f>SUM(F2:F97)</f>
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G98">
         <f>SUM(G2:G97)</f>
-        <v>492</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3321,7 +3333,7 @@
       </c>
       <c r="B101" s="11">
         <f ca="1">(D98-G98)/B106</f>
-        <v>36.292682926829272</v>
+        <v>39.368421052631575</v>
       </c>
       <c r="D101" s="7"/>
     </row>
@@ -3331,7 +3343,7 @@
       </c>
       <c r="B102" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D102" s="7"/>
     </row>
@@ -3351,7 +3363,7 @@
       </c>
       <c r="B104" s="12">
         <f ca="1">TODAY()+ (B101*7)</f>
-        <v>45272.048780487807</v>
+        <v>45327.57894736842</v>
       </c>
       <c r="D104" s="9"/>
     </row>
@@ -3361,7 +3373,7 @@
       </c>
       <c r="B105" s="11">
         <f ca="1">F98/B102</f>
-        <v>5.2777777777777777</v>
+        <v>4.7272727272727275</v>
       </c>
       <c r="F105" s="10"/>
     </row>
@@ -3371,7 +3383,7 @@
       </c>
       <c r="B106" s="4">
         <f ca="1">G98/B102</f>
-        <v>27.333333333333332</v>
+        <v>24.181818181818183</v>
       </c>
     </row>
   </sheetData>
@@ -3640,4 +3652,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f956267e-7d50-46d0-9b27-8f911a5b38ff}" enabled="1" method="Standard" siteId="{6c637512-c417-4e78-9d62-b61258e4b619}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16E4FE3-5A76-40E7-8101-BA78217C9378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BD0D84-D6B1-433D-BE1E-8260E35BBD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="146">
   <si>
     <t>Epic</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>Val Skordin</t>
+  </si>
+  <si>
+    <t>Manage Build and Delivery Schedule</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -557,6 +560,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,8 +603,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G96" totalsRowShown="0">
-  <autoFilter ref="A1:G96" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G97" totalsRowShown="0">
+  <autoFilter ref="A1:G97" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -930,11 +937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,23 +2529,23 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="C64" s="3">
-        <v>3</v>
-      </c>
-      <c r="D64" s="3">
+        <v>5</v>
+      </c>
+      <c r="D64" s="13">
         <f>VLOOKUP(C64,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="F64">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G64">
+        <v>32</v>
+      </c>
+      <c r="F64" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="14">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -2548,14 +2555,14 @@
         <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" s="3">
         <f>VLOOKUP(C65,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F65">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2568,10 +2575,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -2594,14 +2601,14 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C67" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" s="3">
         <f>VLOOKUP(C67,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F67">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2617,7 +2624,7 @@
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
@@ -2640,14 +2647,14 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" s="3">
         <f>VLOOKUP(C69,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F69">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2663,7 +2670,7 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="3">
         <v>5</v>
@@ -2683,28 +2690,25 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" s="3">
         <f>VLOOKUP(C71,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F71">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2712,7 +2716,7 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="3">
         <v>3</v>
@@ -2738,7 +2742,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="3">
         <v>3</v>
@@ -2747,13 +2751,16 @@
         <f>VLOOKUP(C73,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
       <c r="F73">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G73">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2761,7 +2768,7 @@
         <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="3">
         <v>3</v>
@@ -2770,24 +2777,21 @@
         <f>VLOOKUP(C74,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
       <c r="F74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C75" s="3">
         <v>3</v>
@@ -2796,13 +2800,16 @@
         <f>VLOOKUP(C75,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
       <c r="F75">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G75">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2810,7 +2817,7 @@
         <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="3">
         <v>3</v>
@@ -2833,7 +2840,7 @@
         <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="3">
         <v>3</v>
@@ -2856,7 +2863,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="3">
         <v>3</v>
@@ -2879,7 +2886,7 @@
         <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="3">
         <v>3</v>
@@ -2902,14 +2909,14 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" s="3">
         <f>VLOOKUP(C80,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F80">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2922,10 +2929,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C81" s="3">
         <v>2</v>
@@ -2948,7 +2955,7 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="3">
         <v>2</v>
@@ -2971,7 +2978,7 @@
         <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="3">
         <v>2</v>
@@ -2994,7 +3001,7 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="3">
         <v>2</v>
@@ -3017,7 +3024,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C85" s="3">
         <v>2</v>
@@ -3040,7 +3047,7 @@
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C86" s="3">
         <v>2</v>
@@ -3063,7 +3070,7 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C87" s="3">
         <v>2</v>
@@ -3083,17 +3090,17 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" s="3">
         <f>VLOOKUP(C88,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F88">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3109,14 +3116,14 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C89" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" s="3">
         <f>VLOOKUP(C89,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F89">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3132,14 +3139,14 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C90" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" s="3">
         <f>VLOOKUP(C90,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F90">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3152,17 +3159,17 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C91" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" s="3">
         <f>VLOOKUP(C91,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F91">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3178,7 +3185,7 @@
         <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92" s="3">
         <v>2</v>
@@ -3201,14 +3208,14 @@
         <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" s="3">
         <f>VLOOKUP(C93,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F93">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3224,7 +3231,7 @@
         <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C94" s="3">
         <v>5</v>
@@ -3247,7 +3254,7 @@
         <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C95" s="3">
         <v>5</v>
@@ -3267,17 +3274,17 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C96" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" s="3">
         <f>VLOOKUP(C96,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F96">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3288,102 +3295,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2</v>
+      </c>
+      <c r="D97" s="3">
+        <f>VLOOKUP(C97,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="5">
-        <f>SUM(C2:C97)</f>
-        <v>274</v>
-      </c>
-      <c r="D98" s="5">
-        <f>SUM(D2:D97)</f>
-        <v>1484</v>
-      </c>
-      <c r="F98" s="4">
-        <f>SUM(F2:F97)</f>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5">
+        <f>SUM(C2:C98)</f>
+        <v>279</v>
+      </c>
+      <c r="D99" s="5">
+        <f>SUM(D2:D98)</f>
+        <v>1516</v>
+      </c>
+      <c r="F99" s="4">
+        <f>SUM(F2:F98)</f>
         <v>104</v>
       </c>
-      <c r="G98">
-        <f>SUM(G2:G97)</f>
+      <c r="G99">
+        <f>SUM(G2:G98)</f>
         <v>532</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="G99" s="4"/>
-    </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B100" s="11">
-        <f>D98/Resources!B7</f>
-        <v>31.574468085106382</v>
-      </c>
-      <c r="D100" s="7"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B101" s="11">
-        <f ca="1">(D98-G98)/B106</f>
-        <v>39.368421052631575</v>
+        <f>D99/Resources!B7</f>
+        <v>32.255319148936174</v>
       </c>
       <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B102" s="4">
-        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>22</v>
+        <v>139</v>
+      </c>
+      <c r="B102" s="11">
+        <f ca="1">(D99-G99)/B107</f>
+        <v>42.541353383458649</v>
       </c>
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="4">
+        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
+        <v>23</v>
+      </c>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B104" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D103" s="7"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B104" s="12">
-        <f ca="1">TODAY()+ (B101*7)</f>
-        <v>45327.57894736842</v>
-      </c>
-      <c r="D104" s="9"/>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B105" s="11">
-        <f ca="1">F98/B102</f>
-        <v>4.7272727272727275</v>
-      </c>
-      <c r="F105" s="10"/>
+        <v>127</v>
+      </c>
+      <c r="B105" s="12">
+        <f ca="1">TODAY()+ (B102*7)</f>
+        <v>45352.789473684214</v>
+      </c>
+      <c r="D105" s="9"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="11">
+        <f ca="1">F99/B103</f>
+        <v>4.5217391304347823</v>
+      </c>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B106" s="4">
-        <f ca="1">G98/B102</f>
-        <v>24.181818181818183</v>
+      <c r="B107" s="4">
+        <f ca="1">G99/B103</f>
+        <v>23.130434782608695</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BD0D84-D6B1-433D-BE1E-8260E35BBD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15129FF5-0904-4CFD-9F10-1351C1C99451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="146">
   <si>
     <t>Epic</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Delete User</t>
   </si>
   <si>
-    <t>National News</t>
-  </si>
-  <si>
     <t>National News Sample Story</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>Delete News</t>
   </si>
   <si>
-    <t>Location Stories</t>
-  </si>
-  <si>
     <t>Grove City Sample Story</t>
   </si>
   <si>
@@ -450,12 +444,6 @@
     <t>Serilog Console, File Logging</t>
   </si>
   <si>
-    <t>Scope Added</t>
-  </si>
-  <si>
-    <t>Email Prayer Requests</t>
-  </si>
-  <si>
     <t>Total De-prioritized</t>
   </si>
   <si>
@@ -478,6 +466,18 @@
   </si>
   <si>
     <t>Manage Build and Delivery Schedule</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Manage News</t>
+  </si>
+  <si>
+    <t>Stories</t>
+  </si>
+  <si>
+    <t>Manage Stories</t>
   </si>
 </sst>
 </file>
@@ -603,8 +603,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G97" totalsRowShown="0">
-  <autoFilter ref="A1:G97" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G90" totalsRowShown="0">
+  <autoFilter ref="A1:G90" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -625,16 +625,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{462FB8B6-867C-41A1-BFD9-9F5A89B19647}" name="Table2" displayName="Table2" ref="A1:G2" totalsRowShown="0">
-  <autoFilter ref="A1:G2" xr:uid="{462FB8B6-867C-41A1-BFD9-9F5A89B19647}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{462FB8B6-867C-41A1-BFD9-9F5A89B19647}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0">
+  <autoFilter ref="A1:G9" xr:uid="{462FB8B6-867C-41A1-BFD9-9F5A89B19647}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{31CB5B43-DDC0-45F7-94FE-8435C1D008DA}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{E8134CEE-EEF4-4605-A21F-CFF015B23BA2}" name="Story"/>
     <tableColumn id="4" xr3:uid="{A8E050D4-AAEC-4516-ABB3-A0C110009E2F}" name="Points" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{AD6AC57F-E07B-42DB-850E-DEA524AE6E46}" name="Estimated Hours" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{AD6AC57F-E07B-42DB-850E-DEA524AE6E46}" name="Estimated Hours" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{86F5B27A-D198-4848-ADB6-A7BEFFDB816F}" name="Completed"/>
-    <tableColumn id="7" xr3:uid="{2398D599-5A1D-4B6E-8A23-79F4063944CE}" name="Completed Points"/>
-    <tableColumn id="8" xr3:uid="{C13FCCDE-FC9C-48C6-AE8F-48A44BF6C3D4}" name="Completed Hours"/>
+    <tableColumn id="7" xr3:uid="{2398D599-5A1D-4B6E-8A23-79F4063944CE}" name="Completed Points">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C13FCCDE-FC9C-48C6-AE8F-48A44BF6C3D4}" name="Completed Hours">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -937,11 +943,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,13 +975,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1321,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1373,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -1399,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1425,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -2532,20 +2538,20 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="3">
         <f>VLOOKUP(C64,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F64" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="14">
+      <c r="F64">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G64">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -2777,13 +2783,16 @@
         <f>VLOOKUP(C74,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
       <c r="F74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2814,10 +2823,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s">
         <v>93</v>
-      </c>
-      <c r="B76" t="s">
-        <v>94</v>
       </c>
       <c r="C76" s="3">
         <v>3</v>
@@ -2826,21 +2835,24 @@
         <f>VLOOKUP(C76,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
       <c r="F76">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G76">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="3">
         <v>3</v>
@@ -2860,10 +2872,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="3">
         <v>3</v>
@@ -2883,33 +2895,33 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C79" s="3">
         <v>3</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="13">
         <f>VLOOKUP(C79,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F79">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G79">
+      <c r="F79" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="14">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C80" s="3">
         <v>3</v>
@@ -2929,17 +2941,17 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" s="3">
         <f>VLOOKUP(C81,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F81">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2952,10 +2964,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C82" s="3">
         <v>2</v>
@@ -2975,10 +2987,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C83" s="3">
         <v>2</v>
@@ -2998,10 +3010,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
         <v>100</v>
-      </c>
-      <c r="B84" t="s">
-        <v>103</v>
       </c>
       <c r="C84" s="3">
         <v>2</v>
@@ -3021,10 +3033,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C85" s="3">
         <v>2</v>
@@ -3044,10 +3056,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C86" s="3">
         <v>2</v>
@@ -3067,33 +3079,33 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="C87" s="3">
         <v>2</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="13">
         <f>VLOOKUP(C87,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F87">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G87">
+      <c r="F87" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="14">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C88" s="3">
         <v>2</v>
@@ -3113,17 +3125,17 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C89" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" s="3">
         <f>VLOOKUP(C89,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F89">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3136,17 +3148,17 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C90" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" s="3">
         <f>VLOOKUP(C90,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F90">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3157,263 +3169,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>109</v>
-      </c>
-      <c r="B91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="3">
-        <v>5</v>
-      </c>
-      <c r="D91" s="3">
-        <f>VLOOKUP(C91,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="F91">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C92" s="3">
-        <v>2</v>
-      </c>
-      <c r="D92" s="3">
-        <f>VLOOKUP(C92,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F92">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+      <c r="A92" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5">
+        <f>SUM(C2:C91)</f>
+        <v>250</v>
+      </c>
+      <c r="D92" s="5">
+        <f>SUM(D2:D91)</f>
+        <v>1340</v>
+      </c>
+      <c r="F92" s="4">
+        <f>SUM(F2:F91)</f>
+        <v>110</v>
       </c>
       <c r="G92">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <f>SUM(G2:G91)</f>
+        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>112</v>
-      </c>
-      <c r="B93" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="3">
-        <v>2</v>
-      </c>
-      <c r="D93" s="3">
-        <f>VLOOKUP(C93,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F93">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
+      <c r="A93" s="6"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="3">
-        <v>5</v>
-      </c>
-      <c r="D94" s="3">
-        <f>VLOOKUP(C94,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="F94">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
+      <c r="A94" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="11">
+        <f>D92/Resources!B7</f>
+        <v>28.51063829787234</v>
+      </c>
+      <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="3">
-        <v>5</v>
-      </c>
-      <c r="D95" s="3">
-        <f>VLOOKUP(C95,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="F95">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
+      <c r="A95" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="11">
+        <f ca="1">(D92-G92)/B100</f>
+        <v>37.148936170212764</v>
+      </c>
+      <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="3">
-        <v>5</v>
-      </c>
-      <c r="D96" s="3">
-        <f>VLOOKUP(C96,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="F96">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A96" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="4">
+        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
+        <v>27</v>
+      </c>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B97" t="s">
-        <v>137</v>
-      </c>
-      <c r="C97" s="3">
-        <v>2</v>
-      </c>
-      <c r="D97" s="3">
-        <f>VLOOKUP(C97,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F97">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="5">
-        <f>SUM(C2:C98)</f>
-        <v>279</v>
-      </c>
-      <c r="D99" s="5">
-        <f>SUM(D2:D98)</f>
-        <v>1516</v>
-      </c>
-      <c r="F99" s="4">
-        <f>SUM(F2:F98)</f>
-        <v>104</v>
-      </c>
-      <c r="G99">
-        <f>SUM(G2:G98)</f>
-        <v>532</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B101" s="11">
-        <f>D99/Resources!B7</f>
-        <v>32.255319148936174</v>
-      </c>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B102" s="11">
-        <f ca="1">(D99-G99)/B107</f>
-        <v>42.541353383458649</v>
-      </c>
-      <c r="D102" s="7"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B103" s="4">
-        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>23</v>
-      </c>
-      <c r="D103" s="7"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B104" s="12">
+      <c r="B97" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D104" s="7"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B105" s="12">
-        <f ca="1">TODAY()+ (B102*7)</f>
-        <v>45352.789473684214</v>
-      </c>
-      <c r="D105" s="9"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B106" s="11">
-        <f ca="1">F99/B103</f>
-        <v>4.5217391304347823</v>
-      </c>
-      <c r="F106" s="10"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="12">
+        <f ca="1">TODAY()+ (B95*7)</f>
+        <v>45345.042553191488</v>
+      </c>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B107" s="4">
-        <f ca="1">G99/B103</f>
-        <v>23.130434782608695</v>
+      <c r="B99" s="11">
+        <f ca="1">F92/B96</f>
+        <v>4.0740740740740744</v>
+      </c>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="4">
+        <f ca="1">G92/B96</f>
+        <v>20.888888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -3427,21 +3278,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686172D1-3F7C-4409-81BD-9F9C60450429}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3458,34 +3309,210 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <f>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <f>VLOOKUP(C3,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4">
-        <f>SUM(C2:C3)</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>SUM(D2:D3)</f>
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <f>VLOOKUP(C4,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <f>VLOOKUP(C5,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <f>VLOOKUP(C6,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <f>VLOOKUP(C7,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <f>VLOOKUP(C8,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <f>VLOOKUP(C9,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3598,15 +3625,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -3614,7 +3641,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -3622,7 +3649,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -3630,7 +3657,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -3638,7 +3665,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B2:B5)</f>
@@ -3665,15 +3692,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="8">
         <v>44892</v>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15129FF5-0904-4CFD-9F10-1351C1C99451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64360E5A-6069-4AF1-8097-531E50AA44F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -560,10 +560,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,8 +942,8 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,13 +1719,16 @@
         <f>VLOOKUP(C30,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
       <c r="F30">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,13 +1745,16 @@
         <f>VLOOKUP(C31,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
       <c r="F31">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1821,13 +1823,16 @@
         <f>VLOOKUP(C34,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
       <c r="F34">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2164,13 +2169,16 @@
         <f>VLOOKUP(C48,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
       <c r="F48">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G48">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,16 +2843,13 @@
         <f>VLOOKUP(C76,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
       <c r="F76">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2903,15 +2908,15 @@
       <c r="C79" s="3">
         <v>3</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="3">
         <f>VLOOKUP(C79,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F79" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="14">
+      <c r="F79">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G79">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -3087,15 +3092,15 @@
       <c r="C87" s="3">
         <v>2</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="3">
         <f>VLOOKUP(C87,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F87" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="14">
+      <c r="F87">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G87">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -3184,11 +3189,11 @@
       </c>
       <c r="F92" s="4">
         <f>SUM(F2:F91)</f>
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G92">
         <f>SUM(G2:G91)</f>
-        <v>564</v>
+        <v>652</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3214,7 +3219,7 @@
       </c>
       <c r="B95" s="11">
         <f ca="1">(D92-G92)/B100</f>
-        <v>37.148936170212764</v>
+        <v>31.656441717791409</v>
       </c>
       <c r="D95" s="7"/>
     </row>
@@ -3224,7 +3229,7 @@
       </c>
       <c r="B96" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D96" s="7"/>
     </row>
@@ -3244,7 +3249,7 @@
       </c>
       <c r="B98" s="12">
         <f ca="1">TODAY()+ (B95*7)</f>
-        <v>45345.042553191488</v>
+        <v>45329.595092024538</v>
       </c>
       <c r="D98" s="9"/>
     </row>
@@ -3254,7 +3259,7 @@
       </c>
       <c r="B99" s="11">
         <f ca="1">F92/B96</f>
-        <v>4.0740740740740744</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -3264,7 +3269,7 @@
       </c>
       <c r="B100" s="4">
         <f ca="1">G92/B96</f>
-        <v>20.888888888888889</v>
+        <v>21.733333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64360E5A-6069-4AF1-8097-531E50AA44F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6155A3B-95D2-4E34-86C1-8338B5104BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="145">
   <si>
     <t>Epic</t>
   </si>
@@ -457,9 +457,6 @@
   </si>
   <si>
     <t>James MacIvor</t>
-  </si>
-  <si>
-    <t>Mike Chafin</t>
   </si>
   <si>
     <t>Val Skordin</t>
@@ -942,8 +939,8 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2543,7 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -2831,7 +2828,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
         <v>93</v>
@@ -2854,7 +2851,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
         <v>94</v>
@@ -2877,7 +2874,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
         <v>95</v>
@@ -2900,10 +2897,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
         <v>142</v>
-      </c>
-      <c r="B79" t="s">
-        <v>143</v>
       </c>
       <c r="C79" s="3">
         <v>3</v>
@@ -2923,7 +2920,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B80" t="s">
         <v>96</v>
@@ -2946,7 +2943,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81" t="s">
         <v>97</v>
@@ -2969,7 +2966,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B82" t="s">
         <v>98</v>
@@ -2992,7 +2989,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
         <v>99</v>
@@ -3015,7 +3012,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
         <v>100</v>
@@ -3038,7 +3035,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
         <v>101</v>
@@ -3061,7 +3058,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
         <v>102</v>
@@ -3084,10 +3081,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" t="s">
         <v>144</v>
-      </c>
-      <c r="B87" t="s">
-        <v>145</v>
       </c>
       <c r="C87" s="3">
         <v>2</v>
@@ -3107,7 +3104,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
         <v>103</v>
@@ -3130,7 +3127,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
         <v>104</v>
@@ -3153,7 +3150,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
         <v>105</v>
@@ -3208,8 +3205,8 @@
         <v>121</v>
       </c>
       <c r="B94" s="11">
-        <f>D92/Resources!B7</f>
-        <v>28.51063829787234</v>
+        <f ca="1">B96+B95</f>
+        <v>61.656441717791409</v>
       </c>
       <c r="D94" s="7"/>
     </row>
@@ -3616,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F621DB0-8DAE-49A3-A9ED-9FDE92100FD7}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,7 +3646,7 @@
         <v>138</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,24 +3654,16 @@
         <v>139</v>
       </c>
       <c r="B4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="4">
-        <f>SUM(B2:B5)</f>
-        <v>47</v>
+      <c r="B6" s="4">
+        <f>SUM(B2:B4)</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6155A3B-95D2-4E34-86C1-8338B5104BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D4EF7-E310-4F4C-BCBD-7E166A7270ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -940,7 +940,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,13 +1693,16 @@
         <f>VLOOKUP(C29,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
       <c r="F29">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1950,13 +1953,16 @@
         <f>VLOOKUP(C39,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
       <c r="F39">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G39">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1973,13 +1979,16 @@
         <f>VLOOKUP(C40,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
       <c r="F40">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1996,13 +2005,16 @@
         <f>VLOOKUP(C41,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
       <c r="F41">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2019,13 +2031,16 @@
         <f>VLOOKUP(C42,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
       <c r="F42">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2552,13 +2567,16 @@
         <f>VLOOKUP(C64,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
       <c r="F64">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G64">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3186,11 +3204,11 @@
       </c>
       <c r="F92" s="4">
         <f>SUM(F2:F91)</f>
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="G92">
         <f>SUM(G2:G91)</f>
-        <v>652</v>
+        <v>772</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3206,7 +3224,7 @@
       </c>
       <c r="B94" s="11">
         <f ca="1">B96+B95</f>
-        <v>61.656441717791409</v>
+        <v>62.487046632124354</v>
       </c>
       <c r="D94" s="7"/>
     </row>
@@ -3216,7 +3234,7 @@
       </c>
       <c r="B95" s="11">
         <f ca="1">(D92-G92)/B100</f>
-        <v>31.656441717791409</v>
+        <v>26.487046632124354</v>
       </c>
       <c r="D95" s="7"/>
     </row>
@@ -3226,7 +3244,7 @@
       </c>
       <c r="B96" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D96" s="7"/>
     </row>
@@ -3246,7 +3264,7 @@
       </c>
       <c r="B98" s="12">
         <f ca="1">TODAY()+ (B95*7)</f>
-        <v>45329.595092024538</v>
+        <v>45329.409326424873</v>
       </c>
       <c r="D98" s="9"/>
     </row>
@@ -3256,7 +3274,7 @@
       </c>
       <c r="B99" s="11">
         <f ca="1">F92/B96</f>
-        <v>4.1333333333333337</v>
+        <v>4.0277777777777777</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -3266,7 +3284,7 @@
       </c>
       <c r="B100" s="4">
         <f ca="1">G92/B96</f>
-        <v>21.733333333333334</v>
+        <v>21.444444444444443</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D4EF7-E310-4F4C-BCBD-7E166A7270ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94392AB6-B431-4D31-AB92-7D17C230FB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -939,8 +939,8 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,13 +2377,16 @@
         <f>VLOOKUP(C56,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
       <c r="F56">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G56">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2593,13 +2596,16 @@
         <f>VLOOKUP(C65,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
       <c r="F65">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G65">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2616,13 +2622,16 @@
         <f>VLOOKUP(C66,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
       <c r="F66">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G66">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3204,11 +3213,11 @@
       </c>
       <c r="F92" s="4">
         <f>SUM(F2:F91)</f>
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G92">
         <f>SUM(G2:G91)</f>
-        <v>772</v>
+        <v>852</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3224,7 +3233,7 @@
       </c>
       <c r="B94" s="11">
         <f ca="1">B96+B95</f>
-        <v>62.487046632124354</v>
+        <v>61.338028169014081</v>
       </c>
       <c r="D94" s="7"/>
     </row>
@@ -3234,7 +3243,7 @@
       </c>
       <c r="B95" s="11">
         <f ca="1">(D92-G92)/B100</f>
-        <v>26.487046632124354</v>
+        <v>22.338028169014084</v>
       </c>
       <c r="D95" s="7"/>
     </row>
@@ -3244,7 +3253,7 @@
       </c>
       <c r="B96" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D96" s="7"/>
     </row>
@@ -3264,7 +3273,7 @@
       </c>
       <c r="B98" s="12">
         <f ca="1">TODAY()+ (B95*7)</f>
-        <v>45329.409326424873</v>
+        <v>45324.366197183095</v>
       </c>
       <c r="D98" s="9"/>
     </row>
@@ -3274,7 +3283,7 @@
       </c>
       <c r="B99" s="11">
         <f ca="1">F92/B96</f>
-        <v>4.0277777777777777</v>
+        <v>4.0512820512820511</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -3284,7 +3293,7 @@
       </c>
       <c r="B100" s="4">
         <f ca="1">G92/B96</f>
-        <v>21.444444444444443</v>
+        <v>21.846153846153847</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94392AB6-B431-4D31-AB92-7D17C230FB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC31C618-B9F2-46F1-8C1F-5E56308AEE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -939,8 +939,8 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,13 +2498,16 @@
         <f>VLOOKUP(C61,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
       <c r="F61">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G61">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3213,11 +3216,11 @@
       </c>
       <c r="F92" s="4">
         <f>SUM(F2:F91)</f>
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G92">
         <f>SUM(G2:G91)</f>
-        <v>852</v>
+        <v>884</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3233,7 +3236,7 @@
       </c>
       <c r="B94" s="11">
         <f ca="1">B96+B95</f>
-        <v>61.338028169014081</v>
+        <v>63.665158371040725</v>
       </c>
       <c r="D94" s="7"/>
     </row>
@@ -3243,7 +3246,7 @@
       </c>
       <c r="B95" s="11">
         <f ca="1">(D92-G92)/B100</f>
-        <v>22.338028169014084</v>
+        <v>21.665158371040725</v>
       </c>
       <c r="D95" s="7"/>
     </row>
@@ -3253,7 +3256,7 @@
       </c>
       <c r="B96" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D96" s="7"/>
     </row>
@@ -3273,7 +3276,7 @@
       </c>
       <c r="B98" s="12">
         <f ca="1">TODAY()+ (B95*7)</f>
-        <v>45324.366197183095</v>
+        <v>45338.656108597286</v>
       </c>
       <c r="D98" s="9"/>
     </row>
@@ -3283,7 +3286,7 @@
       </c>
       <c r="B99" s="11">
         <f ca="1">F92/B96</f>
-        <v>4.0512820512820511</v>
+        <v>3.8809523809523809</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -3293,7 +3296,7 @@
       </c>
       <c r="B100" s="4">
         <f ca="1">G92/B96</f>
-        <v>21.846153846153847</v>
+        <v>21.047619047619047</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC31C618-B9F2-46F1-8C1F-5E56308AEE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9171BC-3501-4C0C-99E9-CF894D9F5CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="-24098" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="183">
   <si>
     <t>Epic</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Schedule Deliveries</t>
   </si>
   <si>
-    <t>Delivery Checklist</t>
-  </si>
-  <si>
     <t>Bulk Email Scheduled Deliveries</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>Week Number</t>
-  </si>
-  <si>
     <t>Estimated Completion Date</t>
   </si>
   <si>
@@ -475,6 +469,126 @@
   </si>
   <si>
     <t>Manage Stories</t>
+  </si>
+  <si>
+    <t>Elapsed Weeks</t>
+  </si>
+  <si>
+    <t>Project Delay in Weeks</t>
+  </si>
+  <si>
+    <t>Project Week Number Accounting for Delay</t>
+  </si>
+  <si>
+    <t>Design National Home Page</t>
+  </si>
+  <si>
+    <t>National Home Page</t>
+  </si>
+  <si>
+    <t>Grove City Location About Us Page</t>
+  </si>
+  <si>
+    <t>Grove City History Page</t>
+  </si>
+  <si>
+    <t>Polaris About Us Page</t>
+  </si>
+  <si>
+    <t>Manage Delivery Checklist</t>
+  </si>
+  <si>
+    <t>Scheduled Deliveries Email Checklist</t>
+  </si>
+  <si>
+    <t>Tech Debt</t>
+  </si>
+  <si>
+    <t>Upgrade to Blazor 8</t>
+  </si>
+  <si>
+    <t>Refactor Common.cs</t>
+  </si>
+  <si>
+    <t>Refactor into Files</t>
+  </si>
+  <si>
+    <t>Move Entities</t>
+  </si>
+  <si>
+    <t>Move Syncfusion Licensing</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
+    <t>Change from Azure Email to SmarterASP.NET Email</t>
+  </si>
+  <si>
+    <t>Update Diagrams</t>
+  </si>
+  <si>
+    <t>GitHub Actions for Pull Requests</t>
+  </si>
+  <si>
+    <t>Deploy to SmarterASP.NET Development</t>
+  </si>
+  <si>
+    <t>Use location query parm Bed Request</t>
+  </si>
+  <si>
+    <t>Use Location Query Parm Contact</t>
+  </si>
+  <si>
+    <t>Use Location Query Parm Volunteer</t>
+  </si>
+  <si>
+    <t>Design Shared Bed Requests</t>
+  </si>
+  <si>
+    <t>Admin Dashboard Content</t>
+  </si>
+  <si>
+    <t>Unique Volunteer Email Add Dialog</t>
+  </si>
+  <si>
+    <t>Update NuGet Packages and Change NUnit Assertions</t>
+  </si>
+  <si>
+    <t>Cache get files</t>
+  </si>
+  <si>
+    <t>Remove Unused Components and Pages</t>
+  </si>
+  <si>
+    <t>Add three image rotators to Bed Brigade Near Me</t>
+  </si>
+  <si>
+    <t>Location Latitude &amp; Longitude</t>
+  </si>
+  <si>
+    <t>FM Dependent Functionality</t>
+  </si>
+  <si>
+    <t>Verify security for all pages</t>
+  </si>
+  <si>
+    <t>Global Error Handler</t>
+  </si>
+  <si>
+    <t>Refresh Header and Footer</t>
+  </si>
+  <si>
+    <t>Minify CSS and JS</t>
+  </si>
+  <si>
+    <t>Add Page Titles</t>
+  </si>
+  <si>
+    <t>Custom Icons in Grid Toolbar</t>
+  </si>
+  <si>
+    <t>Review All Code</t>
   </si>
 </sst>
 </file>
@@ -531,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -557,6 +671,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,16 +683,16 @@
   <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -596,20 +715,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G90" totalsRowShown="0">
-  <autoFilter ref="A1:G90" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G125" totalsRowShown="0">
+  <autoFilter ref="A1:G125" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
-    <tableColumn id="4" xr3:uid="{F83CC626-5103-462B-9E71-70FF58ECD672}" name="Points" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{32A1D275-1575-4B11-A22D-5A36CD923379}" name="Estimated Hours" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{F83CC626-5103-462B-9E71-70FF58ECD672}" name="Points" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{32A1D275-1575-4B11-A22D-5A36CD923379}" name="Estimated Hours" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E075E6CD-1DFD-47F5-B7CE-6A6F43BA85B6}" name="Completed"/>
-    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="1">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -623,8 +742,8 @@
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{31CB5B43-DDC0-45F7-94FE-8435C1D008DA}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{E8134CEE-EEF4-4605-A21F-CFF015B23BA2}" name="Story"/>
-    <tableColumn id="4" xr3:uid="{A8E050D4-AAEC-4516-ABB3-A0C110009E2F}" name="Points" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{AD6AC57F-E07B-42DB-850E-DEA524AE6E46}" name="Estimated Hours" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{A8E050D4-AAEC-4516-ABB3-A0C110009E2F}" name="Points" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{AD6AC57F-E07B-42DB-850E-DEA524AE6E46}" name="Estimated Hours" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{86F5B27A-D198-4848-ADB6-A7BEFFDB816F}" name="Completed"/>
@@ -640,9 +759,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -680,7 +799,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -786,7 +905,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -928,7 +1047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -936,25 +1055,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,16 +1087,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1055,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1185,7 +1304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1263,7 +1382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1315,12 +1434,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1341,7 +1460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1367,12 +1486,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -1393,12 +1512,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1419,12 +1538,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1445,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +1590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1497,7 +1616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1523,7 +1642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1549,7 +1668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1575,7 +1694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1601,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1627,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1653,7 +1772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1679,7 +1798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1705,7 +1824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1731,7 +1850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1757,7 +1876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1783,7 +1902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1809,7 +1928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1835,7 +1954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1861,7 +1980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1887,7 +2006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1913,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1939,7 +2058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1965,7 +2084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1991,7 +2110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2017,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2043,97 +2162,88 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="C43" s="3">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3">
+        <v>5</v>
+      </c>
+      <c r="D43" s="13">
         <f>VLOOKUP(C43,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F43" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="C44" s="3">
-        <v>2</v>
-      </c>
-      <c r="D44" s="3">
+        <v>5</v>
+      </c>
+      <c r="D44" s="13">
         <f>VLOOKUP(C44,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F44" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C45" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="3">
         <f>VLOOKUP(C45,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F45">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C46" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="3">
         <f>VLOOKUP(C46,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F46">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2144,12 +2254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="3">
         <v>3</v>
@@ -2158,16 +2268,19 @@
         <f>VLOOKUP(C47,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
       <c r="F47">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G47">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2193,133 +2306,142 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C49" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="3">
         <f>VLOOKUP(C49,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
       </c>
       <c r="F49">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="13">
         <f>VLOOKUP(C50,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F50">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G50" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>56</v>
       </c>
       <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="13">
+        <f>VLOOKUP(C51,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G51" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="3">
-        <v>2</v>
-      </c>
-      <c r="D51" s="3">
-        <f>VLOOKUP(C51,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F51">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" t="s">
-        <v>65</v>
-      </c>
       <c r="C52" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" s="3">
         <f>VLOOKUP(C52,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="3">
         <f>VLOOKUP(C53,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C54" s="3">
         <v>5</v>
@@ -2328,73 +2450,67 @@
         <f>VLOOKUP(C54,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
       <c r="F54">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3">
         <v>2</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="13">
         <f>VLOOKUP(C55,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F55">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F55" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C56" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" s="3">
         <f>VLOOKUP(C56,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F56">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C57" s="3">
         <v>5</v>
@@ -2415,58 +2531,64 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C58" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" s="3">
         <f>VLOOKUP(C58,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
       </c>
       <c r="F58">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G58">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C59" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" s="3">
         <f>VLOOKUP(C59,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
       </c>
       <c r="F59">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G59">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C60" s="3">
         <v>5</v>
@@ -2484,12 +2606,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
@@ -2510,12 +2632,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C62" s="3">
         <v>5</v>
@@ -2536,19 +2658,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C63" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" s="3">
         <f>VLOOKUP(C63,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F63">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2559,12 +2681,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -2573,76 +2695,67 @@
         <f>VLOOKUP(C64,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
       <c r="F64">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C65" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" s="3">
         <f>VLOOKUP(C65,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F65">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="13">
         <f>VLOOKUP(C66,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
-      </c>
-      <c r="G66">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F66" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C67" s="3">
         <v>5</v>
@@ -2651,44 +2764,50 @@
         <f>VLOOKUP(C67,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
       <c r="F67">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C68" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" s="3">
         <f>VLOOKUP(C68,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
       </c>
       <c r="F68">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G68">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C69" s="3">
         <v>3</v>
@@ -2697,21 +2816,24 @@
         <f>VLOOKUP(C69,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
       <c r="F69">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G69">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C70" s="3">
         <v>5</v>
@@ -2720,96 +2842,99 @@
         <f>VLOOKUP(C70,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
       <c r="F70">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G70">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C71" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" s="3">
         <f>VLOOKUP(C71,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
       </c>
       <c r="F71">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G71">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C72" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" s="3">
         <f>VLOOKUP(C72,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G72">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C73" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" s="3">
         <f>VLOOKUP(C73,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F73">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C74" s="3">
         <v>3</v>
@@ -2818,24 +2943,21 @@
         <f>VLOOKUP(C74,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
       <c r="F74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C75" s="3">
         <v>3</v>
@@ -2844,54 +2966,54 @@
         <f>VLOOKUP(C75,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="E75" t="b">
-        <v>1</v>
-      </c>
       <c r="F75">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C76" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" s="3">
         <f>VLOOKUP(C76,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
       </c>
       <c r="F76">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G76">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C77" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" s="3">
         <f>VLOOKUP(C77,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F77">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2902,12 +3024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C78" s="3">
         <v>3</v>
@@ -2916,21 +3038,24 @@
         <f>VLOOKUP(C78,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
       <c r="F78">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G78">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="C79" s="3">
         <v>3</v>
@@ -2939,21 +3064,24 @@
         <f>VLOOKUP(C79,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
       <c r="F79">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G79">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C80" s="3">
         <v>3</v>
@@ -2962,21 +3090,24 @@
         <f>VLOOKUP(C80,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
       <c r="F80">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G80">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C81" s="3">
         <v>3</v>
@@ -2985,16 +3116,19 @@
         <f>VLOOKUP(C81,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
       <c r="F81">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>141</v>
       </c>
@@ -3017,9 +3151,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
         <v>99</v>
@@ -3040,19 +3174,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B84" t="s">
         <v>100</v>
       </c>
       <c r="C84" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" s="3">
         <f>VLOOKUP(C84,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F84">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3063,19 +3197,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
         <v>101</v>
       </c>
       <c r="C85" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" s="3">
         <f>VLOOKUP(C85,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F85">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3086,19 +3220,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="C86" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" s="3">
         <f>VLOOKUP(C86,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3109,19 +3243,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C87" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" s="3">
         <f>VLOOKUP(C87,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F87">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3132,19 +3266,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
         <v>103</v>
       </c>
       <c r="C88" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" s="3">
         <f>VLOOKUP(C88,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F88">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3155,19 +3289,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" s="3">
         <f>VLOOKUP(C89,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F89">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3178,19 +3312,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C90" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" s="3">
         <f>VLOOKUP(C90,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F90">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3201,102 +3335,959 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5">
-        <f>SUM(C2:C91)</f>
-        <v>250</v>
-      </c>
-      <c r="D92" s="5">
-        <f>SUM(D2:D91)</f>
-        <v>1340</v>
-      </c>
-      <c r="F92" s="4">
-        <f>SUM(F2:F91)</f>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3</v>
+      </c>
+      <c r="D91" s="3">
+        <f>VLOOKUP(C91,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F91">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3</v>
+      </c>
+      <c r="D92" s="3">
+        <f>VLOOKUP(C92,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F92">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="3">
+        <v>3</v>
+      </c>
+      <c r="D93" s="3">
+        <f>VLOOKUP(C93,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F93">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3</v>
+      </c>
+      <c r="D94" s="3">
+        <f>VLOOKUP(C94,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3">
+        <f>VLOOKUP(C95,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3">
+        <f>VLOOKUP(C96,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" s="3">
+        <v>5</v>
+      </c>
+      <c r="D97" s="13">
+        <f>VLOOKUP(C97,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>5</v>
+      </c>
+      <c r="G97" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="13">
+        <f>VLOOKUP(C98,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G98" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="13">
+        <f>VLOOKUP(C99,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G99" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="13">
+        <f>VLOOKUP(C100,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G100" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="13">
+        <f>VLOOKUP(C101,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G101" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3</v>
+      </c>
+      <c r="D102" s="13">
+        <f>VLOOKUP(C102,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G102" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
+      <c r="D103" s="13">
+        <f>VLOOKUP(C103,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G103" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1</v>
+      </c>
+      <c r="D104" s="13">
+        <f>VLOOKUP(C104,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G104" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1</v>
+      </c>
+      <c r="D105" s="13">
+        <f>VLOOKUP(C105,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G105" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" t="s">
         <v>163</v>
       </c>
-      <c r="G92">
-        <f>SUM(G2:G91)</f>
-        <v>884</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B94" s="11">
-        <f ca="1">B96+B95</f>
-        <v>63.665158371040725</v>
-      </c>
-      <c r="D94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B95" s="11">
-        <f ca="1">(D92-G92)/B100</f>
-        <v>21.665158371040725</v>
-      </c>
-      <c r="D95" s="7"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" s="4">
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="13">
+        <f>VLOOKUP(C106,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G106" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1</v>
+      </c>
+      <c r="D107" s="13">
+        <f>VLOOKUP(C107,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G107" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
+      <c r="D108" s="13">
+        <f>VLOOKUP(C108,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F108" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B109" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+      <c r="D109" s="13">
+        <f>VLOOKUP(C109,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F109" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="13">
+        <f>VLOOKUP(C110,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F110" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
+      <c r="D111" s="13">
+        <f>VLOOKUP(C111,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F111" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="13">
+        <f>VLOOKUP(C112,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F112" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" s="3">
+        <v>2</v>
+      </c>
+      <c r="D113" s="13">
+        <f>VLOOKUP(C113,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F113" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="13">
+        <f>VLOOKUP(C114,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F114" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1</v>
+      </c>
+      <c r="D115" s="13">
+        <f>VLOOKUP(C115,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F115" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>153</v>
+      </c>
+      <c r="B116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="13">
+        <f>VLOOKUP(C116,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F116" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1</v>
+      </c>
+      <c r="D117" s="13">
+        <f>VLOOKUP(C117,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F117" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" s="3">
+        <v>5</v>
+      </c>
+      <c r="D118" s="13">
+        <f>VLOOKUP(C118,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F118" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G118" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" t="s">
+        <v>176</v>
+      </c>
+      <c r="C119" s="3">
+        <v>3</v>
+      </c>
+      <c r="D119" s="13">
+        <f>VLOOKUP(C119,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F119" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" t="s">
+        <v>177</v>
+      </c>
+      <c r="C120" s="3">
+        <v>3</v>
+      </c>
+      <c r="D120" s="13">
+        <f>VLOOKUP(C120,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F120" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+      <c r="D121" s="13">
+        <f>VLOOKUP(C121,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F121" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>153</v>
+      </c>
+      <c r="B122" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" s="3">
+        <v>2</v>
+      </c>
+      <c r="D122" s="13">
+        <f>VLOOKUP(C122,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F122" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G122" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+      <c r="D123" s="13">
+        <f>VLOOKUP(C123,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F123" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>153</v>
+      </c>
+      <c r="B124" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124" s="13">
+        <f>VLOOKUP(C124,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F124" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" t="s">
+        <v>182</v>
+      </c>
+      <c r="C125" s="3">
+        <v>3</v>
+      </c>
+      <c r="D125" s="13">
+        <f>VLOOKUP(C125,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F125" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="14">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5">
+        <f>SUM(C2:C126)</f>
+        <v>324</v>
+      </c>
+      <c r="D127" s="5">
+        <f>SUM(D2:D126)</f>
+        <v>1752</v>
+      </c>
+      <c r="F127" s="4">
+        <f>SUM(F2:F126)</f>
+        <v>195</v>
+      </c>
+      <c r="G127" s="4">
+        <f>SUM(G2:G126)</f>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128" s="6"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129" s="11">
+        <f ca="1">B131+B130</f>
+        <v>128.29007633587787</v>
+      </c>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="11">
+        <f ca="1">(D127-G127)/B137</f>
+        <v>38.290076335877863</v>
+      </c>
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>42</v>
-      </c>
-      <c r="D96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B97" s="12">
+        <v>90</v>
+      </c>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="4">
+        <v>33</v>
+      </c>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="4">
+        <f ca="1">B131-B132</f>
+        <v>57</v>
+      </c>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" s="12">
-        <f ca="1">TODAY()+ (B95*7)</f>
-        <v>45338.656108597286</v>
-      </c>
-      <c r="D98" s="9"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B99" s="11">
-        <f ca="1">F92/B96</f>
-        <v>3.8809523809523809</v>
-      </c>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B135" s="12">
+        <f ca="1">TODAY()+ (B130*7)</f>
+        <v>45793.030534351143</v>
+      </c>
+      <c r="D135" s="9"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="4">
-        <f ca="1">G92/B96</f>
-        <v>21.047619047619047</v>
+      <c r="B136" s="11">
+        <f ca="1">F127/B133</f>
+        <v>3.4210526315789473</v>
+      </c>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" s="15">
+        <f ca="1">G127/B133</f>
+        <v>18.385964912280702</v>
       </c>
     </row>
   </sheetData>
@@ -3316,18 +4307,18 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3341,21 +4332,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -3373,12 +4364,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -3396,12 +4387,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3">
         <v>5</v>
@@ -3419,12 +4410,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -3442,12 +4433,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -3465,12 +4456,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
@@ -3488,12 +4479,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
@@ -3511,12 +4502,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
@@ -3534,9 +4525,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11">
         <f>SUM(C2:C10)</f>
@@ -3560,17 +4551,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3581,7 +4572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3592,7 +4583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3603,7 +4594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3614,7 +4605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3625,7 +4616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3649,47 +4640,47 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>137</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>139</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B4)</f>
@@ -3709,22 +4700,22 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>122</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>123</v>
       </c>
       <c r="B2" s="8">
         <v>44892</v>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9171BC-3501-4C0C-99E9-CF894D9F5CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0DFCF1-55C8-438A-8175-C8459DF203C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24098" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="188">
   <si>
     <t>Epic</t>
   </si>
@@ -579,9 +579,6 @@
     <t>Refresh Header and Footer</t>
   </si>
   <si>
-    <t>Minify CSS and JS</t>
-  </si>
-  <si>
     <t>Add Page Titles</t>
   </si>
   <si>
@@ -589,6 +586,24 @@
   </si>
   <si>
     <t>Review All Code</t>
+  </si>
+  <si>
+    <t>AppOffline for Development</t>
+  </si>
+  <si>
+    <t>Syncfusion Spinner</t>
+  </si>
+  <si>
+    <t>Re-add complierconfig.json</t>
+  </si>
+  <si>
+    <t>Rework Seeding</t>
+  </si>
+  <si>
+    <t>Upgrade to Blazor 9</t>
+  </si>
+  <si>
+    <t>Blazor 9 Change Render Mode</t>
   </si>
 </sst>
 </file>
@@ -671,11 +686,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,16 +698,16 @@
   <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -715,20 +730,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G125" totalsRowShown="0">
-  <autoFilter ref="A1:G125" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G130" totalsRowShown="0">
+  <autoFilter ref="A1:G130" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
-    <tableColumn id="4" xr3:uid="{F83CC626-5103-462B-9E71-70FF58ECD672}" name="Points" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{32A1D275-1575-4B11-A22D-5A36CD923379}" name="Estimated Hours" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{F83CC626-5103-462B-9E71-70FF58ECD672}" name="Points" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{32A1D275-1575-4B11-A22D-5A36CD923379}" name="Estimated Hours" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E075E6CD-1DFD-47F5-B7CE-6A6F43BA85B6}" name="Completed"/>
-    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="3">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="2">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -742,8 +757,8 @@
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{31CB5B43-DDC0-45F7-94FE-8435C1D008DA}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{E8134CEE-EEF4-4605-A21F-CFF015B23BA2}" name="Story"/>
-    <tableColumn id="4" xr3:uid="{A8E050D4-AAEC-4516-ABB3-A0C110009E2F}" name="Points" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{AD6AC57F-E07B-42DB-850E-DEA524AE6E46}" name="Estimated Hours" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{A8E050D4-AAEC-4516-ABB3-A0C110009E2F}" name="Points" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{AD6AC57F-E07B-42DB-850E-DEA524AE6E46}" name="Estimated Hours" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{86F5B27A-D198-4848-ADB6-A7BEFFDB816F}" name="Completed"/>
@@ -1055,25 +1070,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1122,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1148,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1174,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +1267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1382,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1434,7 +1449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +1501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1512,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1564,7 +1579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1616,7 +1631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1668,7 +1683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1694,7 +1709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1720,7 +1735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1746,7 +1761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1772,7 +1787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1798,7 +1813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1824,7 +1839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1850,7 +1865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1876,7 +1891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1902,7 +1917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1928,7 +1943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1954,7 +1969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1980,7 +1995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2006,7 +2021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2032,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2058,7 +2073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2084,7 +2099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2110,7 +2125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2162,7 +2177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2172,20 +2187,20 @@
       <c r="C43" s="3">
         <v>5</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="3">
         <f>VLOOKUP(C43,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F43" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F43">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2195,20 +2210,20 @@
       <c r="C44" s="3">
         <v>5</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="3">
         <f>VLOOKUP(C44,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F44" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F44">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -2231,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -2254,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2280,7 +2295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2306,7 +2321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -2332,7 +2347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2342,23 +2357,23 @@
       <c r="C50" s="3">
         <v>2</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="3">
         <f>VLOOKUP(C50,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
-      <c r="F50" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
-      </c>
-      <c r="G50" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F50">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2368,23 +2383,23 @@
       <c r="C51" s="3">
         <v>2</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="3">
         <f>VLOOKUP(C51,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
-      <c r="F51" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
-      </c>
-      <c r="G51" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F51">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2410,7 +2425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2436,7 +2451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2459,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2469,20 +2484,20 @@
       <c r="C55" s="3">
         <v>2</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="3">
         <f>VLOOKUP(C55,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F55" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F55">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2505,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2531,7 +2546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2557,7 +2572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2583,7 +2598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2632,7 +2647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -2658,7 +2673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2681,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2704,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2727,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -2737,20 +2752,20 @@
       <c r="C66" s="3">
         <v>5</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="3">
         <f>VLOOKUP(C66,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F66" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F66">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -2776,7 +2791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2802,7 +2817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -2828,7 +2843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2854,7 +2869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2880,7 +2895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2906,7 +2921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -2929,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -2952,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2975,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -3001,7 +3016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -3024,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -3050,7 +3065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -3076,7 +3091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -3102,7 +3117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3128,7 +3143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>141</v>
       </c>
@@ -3151,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -3174,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>141</v>
       </c>
@@ -3197,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>141</v>
       </c>
@@ -3220,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>141</v>
       </c>
@@ -3243,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>141</v>
       </c>
@@ -3266,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>141</v>
       </c>
@@ -3289,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>141</v>
       </c>
@@ -3312,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>139</v>
       </c>
@@ -3335,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -3358,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -3381,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>139</v>
       </c>
@@ -3404,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -3427,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -3450,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -3473,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -3483,23 +3498,23 @@
       <c r="C97" s="3">
         <v>5</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="3">
         <f>VLOOKUP(C97,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
-      <c r="F97" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
-      </c>
-      <c r="G97" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F97">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -3509,23 +3524,23 @@
       <c r="C98" s="3">
         <v>1</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="3">
         <f>VLOOKUP(C98,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
-      <c r="F98" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G98" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F98">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -3535,23 +3550,23 @@
       <c r="C99" s="3">
         <v>1</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="3">
         <f>VLOOKUP(C99,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
-      <c r="F99" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G99" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F99">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -3561,23 +3576,23 @@
       <c r="C100" s="3">
         <v>1</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="3">
         <f>VLOOKUP(C100,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
-      <c r="F100" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G100" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F100">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -3587,23 +3602,23 @@
       <c r="C101" s="3">
         <v>1</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="3">
         <f>VLOOKUP(C101,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
-      <c r="F101" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G101" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F101">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>153</v>
       </c>
@@ -3613,23 +3628,23 @@
       <c r="C102" s="3">
         <v>3</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="3">
         <f>VLOOKUP(C102,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
-      <c r="F102" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
-      </c>
-      <c r="G102" s="14">
+      <c r="F102">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G102">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>153</v>
       </c>
@@ -3639,23 +3654,23 @@
       <c r="C103" s="3">
         <v>1</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="3">
         <f>VLOOKUP(C103,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
-      <c r="F103" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G103" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F103">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -3665,23 +3680,23 @@
       <c r="C104" s="3">
         <v>1</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="3">
         <f>VLOOKUP(C104,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
-      <c r="F104" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G104" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F104">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>153</v>
       </c>
@@ -3691,23 +3706,23 @@
       <c r="C105" s="3">
         <v>1</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="3">
         <f>VLOOKUP(C105,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
-      <c r="F105" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G105" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F105">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>153</v>
       </c>
@@ -3717,23 +3732,23 @@
       <c r="C106" s="3">
         <v>1</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D106" s="3">
         <f>VLOOKUP(C106,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
-      <c r="F106" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G106" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F106">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>153</v>
       </c>
@@ -3743,23 +3758,23 @@
       <c r="C107" s="3">
         <v>1</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D107" s="3">
         <f>VLOOKUP(C107,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
-      <c r="F107" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G107" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F107">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -3769,20 +3784,23 @@
       <c r="C108" s="3">
         <v>1</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="3">
         <f>VLOOKUP(C108,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F108" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>153</v>
       </c>
@@ -3792,20 +3810,23 @@
       <c r="C109" s="3">
         <v>1</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="3">
         <f>VLOOKUP(C109,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F109" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G109" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>153</v>
       </c>
@@ -3815,20 +3836,20 @@
       <c r="C110" s="3">
         <v>1</v>
       </c>
-      <c r="D110" s="13">
+      <c r="D110" s="3">
         <f>VLOOKUP(C110,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F110" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F110">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>153</v>
       </c>
@@ -3838,20 +3859,20 @@
       <c r="C111" s="3">
         <v>1</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="3">
         <f>VLOOKUP(C111,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F111" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G111" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F111">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>153</v>
       </c>
@@ -3861,20 +3882,20 @@
       <c r="C112" s="3">
         <v>1</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="3">
         <f>VLOOKUP(C112,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F112" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G112" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F112">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>153</v>
       </c>
@@ -3884,20 +3905,20 @@
       <c r="C113" s="3">
         <v>2</v>
       </c>
-      <c r="D113" s="13">
+      <c r="D113" s="3">
         <f>VLOOKUP(C113,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F113" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F113">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>153</v>
       </c>
@@ -3907,20 +3928,20 @@
       <c r="C114" s="3">
         <v>1</v>
       </c>
-      <c r="D114" s="13">
+      <c r="D114" s="3">
         <f>VLOOKUP(C114,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F114" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G114" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F114">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>153</v>
       </c>
@@ -3930,20 +3951,20 @@
       <c r="C115" s="3">
         <v>1</v>
       </c>
-      <c r="D115" s="13">
+      <c r="D115" s="3">
         <f>VLOOKUP(C115,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F115" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G115" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F115">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>153</v>
       </c>
@@ -3953,20 +3974,20 @@
       <c r="C116" s="3">
         <v>1</v>
       </c>
-      <c r="D116" s="13">
+      <c r="D116" s="3">
         <f>VLOOKUP(C116,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F116" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G116" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F116">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>153</v>
       </c>
@@ -3976,20 +3997,20 @@
       <c r="C117" s="3">
         <v>1</v>
       </c>
-      <c r="D117" s="13">
+      <c r="D117" s="3">
         <f>VLOOKUP(C117,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F117" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G117" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F117">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>153</v>
       </c>
@@ -3999,20 +4020,20 @@
       <c r="C118" s="3">
         <v>5</v>
       </c>
-      <c r="D118" s="13">
+      <c r="D118" s="3">
         <f>VLOOKUP(C118,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F118" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G118" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F118">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>153</v>
       </c>
@@ -4022,20 +4043,20 @@
       <c r="C119" s="3">
         <v>3</v>
       </c>
-      <c r="D119" s="13">
+      <c r="D119" s="3">
         <f>VLOOKUP(C119,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F119" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G119" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F119">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -4045,20 +4066,20 @@
       <c r="C120" s="3">
         <v>3</v>
       </c>
-      <c r="D120" s="13">
+      <c r="D120" s="3">
         <f>VLOOKUP(C120,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F120" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F120">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>153</v>
       </c>
@@ -4068,20 +4089,20 @@
       <c r="C121" s="3">
         <v>1</v>
       </c>
-      <c r="D121" s="13">
+      <c r="D121" s="3">
         <f>VLOOKUP(C121,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F121" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G121" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F121">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>153</v>
       </c>
@@ -4089,22 +4110,22 @@
         <v>179</v>
       </c>
       <c r="C122" s="3">
-        <v>2</v>
-      </c>
-      <c r="D122" s="13">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3">
         <f>VLOOKUP(C122,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F122" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G122" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>153</v>
       </c>
@@ -4114,180 +4135,295 @@
       <c r="C123" s="3">
         <v>1</v>
       </c>
-      <c r="D123" s="13">
+      <c r="D123" s="3">
         <f>VLOOKUP(C123,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F123" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G123" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F123">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C124" s="3">
-        <v>1</v>
-      </c>
-      <c r="D124" s="13">
+        <v>2</v>
+      </c>
+      <c r="D124" s="14">
         <f>VLOOKUP(C124,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F124" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G124" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="F124" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>153</v>
       </c>
       <c r="B125" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C125" s="3">
-        <v>3</v>
-      </c>
-      <c r="D125" s="13">
+        <v>2</v>
+      </c>
+      <c r="D125" s="14">
         <f>VLOOKUP(C125,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F125" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
+      <c r="D126" s="14">
+        <f>VLOOKUP(C126,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F126" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127" t="s">
+        <v>185</v>
+      </c>
+      <c r="C127" s="3">
+        <v>2</v>
+      </c>
+      <c r="D127" s="14">
+        <f>VLOOKUP(C127,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F127" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2</v>
+      </c>
+      <c r="D128" s="14">
+        <f>VLOOKUP(C128,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F128" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>153</v>
+      </c>
+      <c r="B129" t="s">
+        <v>187</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2</v>
+      </c>
+      <c r="D129" s="14">
+        <f>VLOOKUP(C129,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F129" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="15">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>153</v>
+      </c>
+      <c r="B130" t="s">
+        <v>181</v>
+      </c>
+      <c r="C130" s="3">
+        <v>3</v>
+      </c>
+      <c r="D130" s="3">
+        <f>VLOOKUP(C130,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F125" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G125" s="14">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A127" s="6" t="s">
+      <c r="F130">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="5">
-        <f>SUM(C2:C126)</f>
-        <v>324</v>
-      </c>
-      <c r="D127" s="5">
-        <f>SUM(D2:D126)</f>
-        <v>1752</v>
-      </c>
-      <c r="F127" s="4">
-        <f>SUM(F2:F126)</f>
-        <v>195</v>
-      </c>
-      <c r="G127" s="4">
-        <f>SUM(G2:G126)</f>
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A128" s="6"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A129" s="6" t="s">
+      <c r="B132" s="4"/>
+      <c r="C132" s="5">
+        <f>SUM(C2:C131)</f>
+        <v>333</v>
+      </c>
+      <c r="D132" s="5">
+        <f>SUM(D2:D131)</f>
+        <v>1788</v>
+      </c>
+      <c r="F132" s="4">
+        <f>SUM(F2:F131)</f>
+        <v>197</v>
+      </c>
+      <c r="G132" s="4">
+        <f>SUM(G2:G131)</f>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B129" s="11">
-        <f ca="1">B131+B130</f>
-        <v>128.29007633587787</v>
-      </c>
-      <c r="D129" s="7"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A130" s="6" t="s">
+      <c r="B134" s="11">
+        <f ca="1">B136+B135</f>
+        <v>131.20454545454544</v>
+      </c>
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B130" s="11">
-        <f ca="1">(D127-G127)/B137</f>
-        <v>38.290076335877863</v>
-      </c>
-      <c r="D130" s="7"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A131" s="6" t="s">
+      <c r="B135" s="11">
+        <f ca="1">(D132-G132)/B142</f>
+        <v>40.204545454545453</v>
+      </c>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B136" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>90</v>
-      </c>
-      <c r="D131" s="7"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A132" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B137" s="4">
         <v>33</v>
       </c>
-      <c r="D132" s="7"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A133" s="6" t="s">
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B133" s="4">
-        <f ca="1">B131-B132</f>
-        <v>57</v>
-      </c>
-      <c r="D133" s="7"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A134" s="6" t="s">
+      <c r="B138" s="4">
+        <f ca="1">B136-B137</f>
+        <v>58</v>
+      </c>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="12">
+      <c r="B139" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D134" s="7"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A135" s="6" t="s">
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B135" s="12">
-        <f ca="1">TODAY()+ (B130*7)</f>
-        <v>45793.030534351143</v>
-      </c>
-      <c r="D135" s="9"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A136" s="6" t="s">
+      <c r="B140" s="12">
+        <f ca="1">TODAY()+ (B135*7)</f>
+        <v>45811.431818181816</v>
+      </c>
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B136" s="11">
-        <f ca="1">F127/B133</f>
-        <v>3.4210526315789473</v>
-      </c>
-      <c r="F136" s="10"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A137" s="6" t="s">
+      <c r="B141" s="11">
+        <f ca="1">F132/B138</f>
+        <v>3.396551724137931</v>
+      </c>
+      <c r="F141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B137" s="15">
-        <f ca="1">G127/B133</f>
-        <v>18.385964912280702</v>
+      <c r="B142" s="13">
+        <f ca="1">G132/B138</f>
+        <v>18.206896551724139</v>
       </c>
     </row>
   </sheetData>
@@ -4307,18 +4443,18 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4341,7 +4477,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -4364,7 +4500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -4387,7 +4523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -4410,7 +4546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -4433,7 +4569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -4456,7 +4592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -4479,7 +4615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -4502,7 +4638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -4525,7 +4661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -4554,14 +4690,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="3"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4572,7 +4708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4583,7 +4719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4594,7 +4730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4605,7 +4741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4616,7 +4752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -4640,13 +4776,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -4654,7 +4790,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -4662,7 +4798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -4670,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -4678,7 +4814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>115</v>
       </c>
@@ -4700,12 +4836,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -4713,7 +4849,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0DFCF1-55C8-438A-8175-C8459DF203C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B779A938-9CB7-4C37-9BA0-34CFE43F3B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="190">
   <si>
     <t>Epic</t>
   </si>
@@ -604,13 +604,19 @@
   </si>
   <si>
     <t>Blazor 9 Change Render Mode</t>
+  </si>
+  <si>
+    <t>Project Percent Complete</t>
+  </si>
+  <si>
+    <t>Remaining Hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +635,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -657,10 +670,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -687,13 +701,11 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1070,16 +1082,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="3" bestFit="1" customWidth="1"/>
@@ -4158,15 +4170,15 @@
       <c r="C124" s="3">
         <v>2</v>
       </c>
-      <c r="D124" s="14">
+      <c r="D124" s="3">
         <f>VLOOKUP(C124,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F124" s="15">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G124" s="15">
+      <c r="F124">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G124">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -4181,15 +4193,15 @@
       <c r="C125" s="3">
         <v>2</v>
       </c>
-      <c r="D125" s="14">
+      <c r="D125" s="3">
         <f>VLOOKUP(C125,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F125" s="15">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G125" s="15">
+      <c r="F125">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G125">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -4204,15 +4216,15 @@
       <c r="C126" s="3">
         <v>1</v>
       </c>
-      <c r="D126" s="14">
+      <c r="D126" s="3">
         <f>VLOOKUP(C126,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F126" s="15">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G126" s="15">
+      <c r="F126">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G126">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -4227,15 +4239,15 @@
       <c r="C127" s="3">
         <v>2</v>
       </c>
-      <c r="D127" s="14">
+      <c r="D127" s="3">
         <f>VLOOKUP(C127,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F127" s="15">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G127" s="15">
+      <c r="F127">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G127">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -4250,15 +4262,15 @@
       <c r="C128" s="3">
         <v>2</v>
       </c>
-      <c r="D128" s="14">
+      <c r="D128" s="3">
         <f>VLOOKUP(C128,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F128" s="15">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G128" s="15">
+      <c r="F128">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G128">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -4273,15 +4285,15 @@
       <c r="C129" s="3">
         <v>2</v>
       </c>
-      <c r="D129" s="14">
+      <c r="D129" s="3">
         <f>VLOOKUP(C129,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F129" s="15">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G129" s="15">
+      <c r="F129">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G129">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -4403,7 +4415,7 @@
       </c>
       <c r="B140" s="12">
         <f ca="1">TODAY()+ (B135*7)</f>
-        <v>45811.431818181816</v>
+        <v>45812.431818181816</v>
       </c>
       <c r="D140" s="9"/>
     </row>
@@ -4424,6 +4436,24 @@
       <c r="B142" s="13">
         <f ca="1">G132/B138</f>
         <v>18.206896551724139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" s="11">
+        <f>D132-G132</f>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B144" s="14">
+        <f>G132/D132</f>
+        <v>0.59060402684563762</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B779A938-9CB7-4C37-9BA0-34CFE43F3B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F610CF5-1E6D-4097-AB64-F0BEC40982B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="202">
   <si>
     <t>Epic</t>
   </si>
@@ -594,9 +594,6 @@
     <t>Syncfusion Spinner</t>
   </si>
   <si>
-    <t>Re-add complierconfig.json</t>
-  </si>
-  <si>
     <t>Rework Seeding</t>
   </si>
   <si>
@@ -610,6 +607,45 @@
   </si>
   <si>
     <t>Remaining Hours</t>
+  </si>
+  <si>
+    <t>Re-add compilerconfig.json</t>
+  </si>
+  <si>
+    <t>Add Notification Code to Sorry Page</t>
+  </si>
+  <si>
+    <t>Metro Areas</t>
+  </si>
+  <si>
+    <t>Polaris Donations Page</t>
+  </si>
+  <si>
+    <t>New Stories</t>
+  </si>
+  <si>
+    <t>Send confirmation email for Bed Request</t>
+  </si>
+  <si>
+    <t>Make seeding environment specific</t>
+  </si>
+  <si>
+    <t>Import Bed Requests</t>
+  </si>
+  <si>
+    <t>Add Database Indexes</t>
+  </si>
+  <si>
+    <t>Verify Mobile for all pages</t>
+  </si>
+  <si>
+    <t>Refactor Grid Persistence</t>
+  </si>
+  <si>
+    <t>Add try catch and alert</t>
+  </si>
+  <si>
+    <t>National Donations Page</t>
   </si>
 </sst>
 </file>
@@ -674,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -702,6 +738,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,8 +782,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G130" totalsRowShown="0">
-  <autoFilter ref="A1:G130" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G142" totalsRowShown="0">
+  <autoFilter ref="A1:G142" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -1082,11 +1122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,13 +3010,16 @@
         <f>VLOOKUP(C74,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
       <c r="F74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3852,13 +3895,16 @@
         <f>VLOOKUP(C110,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
       <c r="F110">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3875,13 +3921,16 @@
         <f>VLOOKUP(C111,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
       <c r="F111">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3898,13 +3947,16 @@
         <f>VLOOKUP(C112,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
       <c r="F112">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3921,13 +3973,16 @@
         <f>VLOOKUP(C113,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
       <c r="F113">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G113">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3944,13 +3999,16 @@
         <f>VLOOKUP(C114,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
       <c r="F114">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4082,13 +4140,16 @@
         <f>VLOOKUP(C120,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
       <c r="F120">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G120">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,13 +4235,16 @@
         <f>VLOOKUP(C124,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
       <c r="F124">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G124">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4197,13 +4261,16 @@
         <f>VLOOKUP(C125,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
       <c r="F125">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G125">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4211,7 +4278,7 @@
         <v>153</v>
       </c>
       <c r="B126" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -4220,13 +4287,16 @@
         <f>VLOOKUP(C126,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
       <c r="F126">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4234,7 +4304,7 @@
         <v>153</v>
       </c>
       <c r="B127" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C127" s="3">
         <v>2</v>
@@ -4243,13 +4313,16 @@
         <f>VLOOKUP(C127,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
       <c r="F127">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G127">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4257,7 +4330,7 @@
         <v>153</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C128" s="3">
         <v>2</v>
@@ -4280,7 +4353,7 @@
         <v>153</v>
       </c>
       <c r="B129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C129" s="3">
         <v>2</v>
@@ -4321,139 +4394,421 @@
         <v>0</v>
       </c>
     </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1</v>
+      </c>
+      <c r="D131" s="15">
+        <f>VLOOKUP(C131,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G131" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
+      <c r="A132" t="s">
+        <v>64</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1</v>
+      </c>
+      <c r="D132" s="15">
+        <f>VLOOKUP(C132,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G132" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133" t="s">
+        <v>192</v>
+      </c>
+      <c r="C133" s="3">
+        <v>3</v>
+      </c>
+      <c r="D133" s="15">
+        <f>VLOOKUP(C133,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F133" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G133" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>193</v>
+      </c>
+      <c r="B134" t="s">
+        <v>194</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+      <c r="D134" s="15">
+        <f>VLOOKUP(C134,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F134" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G134" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" t="s">
+        <v>195</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1</v>
+      </c>
+      <c r="D135" s="15">
+        <f>VLOOKUP(C135,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F135" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G135" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>153</v>
+      </c>
+      <c r="B136" t="s">
+        <v>196</v>
+      </c>
+      <c r="C136" s="3">
+        <v>3</v>
+      </c>
+      <c r="D136" s="15">
+        <f>VLOOKUP(C136,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F136" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G136" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1</v>
+      </c>
+      <c r="D137" s="15">
+        <f>VLOOKUP(C137,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F137" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G137" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>153</v>
+      </c>
+      <c r="B138" t="s">
+        <v>198</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
+      <c r="D138" s="15">
+        <f>VLOOKUP(C138,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F138" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G138" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139" t="s">
+        <v>199</v>
+      </c>
+      <c r="C139" s="3">
+        <v>2</v>
+      </c>
+      <c r="D139" s="15">
+        <f>VLOOKUP(C139,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F139" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G139" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" t="s">
+        <v>200</v>
+      </c>
+      <c r="C140" s="3">
+        <v>3</v>
+      </c>
+      <c r="D140" s="15">
+        <f>VLOOKUP(C140,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F140" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G140" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1</v>
+      </c>
+      <c r="D141" s="15">
+        <f>VLOOKUP(C141,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F141" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G141" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" t="s">
+        <v>201</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1</v>
+      </c>
+      <c r="D142" s="15">
+        <f>VLOOKUP(C142,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F142" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G142" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B132" s="4"/>
-      <c r="C132" s="5">
-        <f>SUM(C2:C131)</f>
-        <v>333</v>
-      </c>
-      <c r="D132" s="5">
-        <f>SUM(D2:D131)</f>
-        <v>1788</v>
-      </c>
-      <c r="F132" s="4">
-        <f>SUM(F2:F131)</f>
-        <v>197</v>
-      </c>
-      <c r="G132" s="4">
-        <f>SUM(G2:G131)</f>
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="6"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
+      <c r="B144" s="4"/>
+      <c r="C144" s="5">
+        <f>SUM(C2:C143)</f>
+        <v>352</v>
+      </c>
+      <c r="D144" s="5">
+        <f>SUM(D2:D143)</f>
+        <v>1876</v>
+      </c>
+      <c r="F144" s="4">
+        <f>SUM(F2:F143)</f>
+        <v>218</v>
+      </c>
+      <c r="G144" s="4">
+        <f>SUM(G2:G143)</f>
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B134" s="11">
-        <f ca="1">B136+B135</f>
-        <v>131.20454545454544</v>
-      </c>
-      <c r="D134" s="7"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
+      <c r="B146" s="11">
+        <f ca="1">B148+B147</f>
+        <v>129.41463414634146</v>
+      </c>
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B135" s="11">
-        <f ca="1">(D132-G132)/B142</f>
-        <v>40.204545454545453</v>
-      </c>
-      <c r="D135" s="7"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
+      <c r="B147" s="11">
+        <f ca="1">(D144-G144)/B154</f>
+        <v>37.414634146341463</v>
+      </c>
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B148" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>91</v>
-      </c>
-      <c r="D136" s="7"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B149" s="4">
         <v>33</v>
       </c>
-      <c r="D137" s="7"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B138" s="4">
-        <f ca="1">B136-B137</f>
-        <v>58</v>
-      </c>
-      <c r="D138" s="7"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
+      <c r="B150" s="4">
+        <f ca="1">B148-B149</f>
+        <v>59</v>
+      </c>
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="12">
+      <c r="B151" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D139" s="7"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B140" s="12">
-        <f ca="1">TODAY()+ (B135*7)</f>
-        <v>45812.431818181816</v>
-      </c>
-      <c r="D140" s="9"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
+      <c r="B152" s="12">
+        <f ca="1">TODAY()+ (B147*7)</f>
+        <v>45799.902439024387</v>
+      </c>
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B141" s="11">
-        <f ca="1">F132/B138</f>
-        <v>3.396551724137931</v>
-      </c>
-      <c r="F141" s="10"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
+      <c r="B153" s="11">
+        <f ca="1">F144/B150</f>
+        <v>3.6949152542372881</v>
+      </c>
+      <c r="F153" s="10"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B142" s="13">
-        <f ca="1">G132/B138</f>
-        <v>18.206896551724139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B143" s="11">
-        <f>D132-G132</f>
-        <v>732</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
+      <c r="B154" s="13">
+        <f ca="1">G144/B150</f>
+        <v>19.457627118644069</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B144" s="14">
-        <f>G132/D132</f>
-        <v>0.59060402684563762</v>
+      <c r="B155" s="11">
+        <f>D144-G144</f>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B156" s="14">
+        <f>G144/D144</f>
+        <v>0.61194029850746268</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F610CF5-1E6D-4097-AB64-F0BEC40982B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B4C65F-7057-4816-B4AA-5DADA762BD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
-    <sheet name="Deprioritized" sheetId="5" r:id="rId2"/>
+    <sheet name="Burn Down" sheetId="6" r:id="rId2"/>
     <sheet name="Points" sheetId="2" r:id="rId3"/>
     <sheet name="Resources" sheetId="3" r:id="rId4"/>
     <sheet name="Variables" sheetId="4" r:id="rId5"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="198">
   <si>
     <t>Epic</t>
   </si>
@@ -258,12 +258,6 @@
     <t>Manage Bed Requests</t>
   </si>
   <si>
-    <t>Schedule Deliveries</t>
-  </si>
-  <si>
-    <t>Bulk Email Scheduled Deliveries</t>
-  </si>
-  <si>
     <t>Location Volunteer</t>
   </si>
   <si>
@@ -357,36 +351,6 @@
     <t>Delete Story</t>
   </si>
   <si>
-    <t>Search Indexing</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Search Bar</t>
-  </si>
-  <si>
-    <t>Search Results</t>
-  </si>
-  <si>
-    <t>Advanced Features</t>
-  </si>
-  <si>
-    <t>Remove Image Geolocation</t>
-  </si>
-  <si>
-    <t>Convert Image to WebP</t>
-  </si>
-  <si>
-    <t>Page Versioning</t>
-  </si>
-  <si>
-    <t>Page History</t>
-  </si>
-  <si>
-    <t>Restore Version</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -438,9 +402,6 @@
     <t>Serilog Console, File Logging</t>
   </si>
   <si>
-    <t>Total De-prioritized</t>
-  </si>
-  <si>
     <t>Projected Remaining Weeks of Work</t>
   </si>
   <si>
@@ -585,9 +546,6 @@
     <t>Custom Icons in Grid Toolbar</t>
   </si>
   <si>
-    <t>Review All Code</t>
-  </si>
-  <si>
     <t>AppOffline for Development</t>
   </si>
   <si>
@@ -646,6 +604,36 @@
   </si>
   <si>
     <t>National Donations Page</t>
+  </si>
+  <si>
+    <t>Location Timezone</t>
+  </si>
+  <si>
+    <t>Redo Manage Bed Request Form</t>
+  </si>
+  <si>
+    <t>Delivery Sheet Sort By Team Then By Distance</t>
+  </si>
+  <si>
+    <t>Add Delivery Checklist to the Delivery Sheet</t>
+  </si>
+  <si>
+    <t>Download Delivery Sheet</t>
+  </si>
+  <si>
+    <t>Manage Sign Ups</t>
+  </si>
+  <si>
+    <t>Seed Only Grove City and Rock City</t>
+  </si>
+  <si>
+    <t>Bed Request Added to List and Team #</t>
+  </si>
+  <si>
+    <t>Week Number</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -747,14 +735,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -781,43 +762,1053 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burn Down of Remaining Hours</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn Down'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remaining Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn Down'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn Down'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CABD-4246-A5F6-E05A758B2414}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1040907855"/>
+        <c:axId val="1040909295"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1040907855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Week</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040909295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1040909295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040907855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38364222-C01C-453A-E171-951DAAC1CB4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G142" totalsRowShown="0">
-  <autoFilter ref="A1:G142" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G147" totalsRowShown="0">
+  <autoFilter ref="A1:G147" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
-    <tableColumn id="4" xr3:uid="{F83CC626-5103-462B-9E71-70FF58ECD672}" name="Points" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{32A1D275-1575-4B11-A22D-5A36CD923379}" name="Estimated Hours" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{F83CC626-5103-462B-9E71-70FF58ECD672}" name="Points" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{32A1D275-1575-4B11-A22D-5A36CD923379}" name="Estimated Hours" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E075E6CD-1DFD-47F5-B7CE-6A6F43BA85B6}" name="Completed"/>
-    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{775079EE-6981-4E34-B3C6-3629C5635AE6}" name="Completed Points" dataDxfId="1">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="2">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{462FB8B6-867C-41A1-BFD9-9F5A89B19647}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{462FB8B6-867C-41A1-BFD9-9F5A89B19647}"/>
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{31CB5B43-DDC0-45F7-94FE-8435C1D008DA}" name="Epic"/>
-    <tableColumn id="3" xr3:uid="{E8134CEE-EEF4-4605-A21F-CFF015B23BA2}" name="Story"/>
-    <tableColumn id="4" xr3:uid="{A8E050D4-AAEC-4516-ABB3-A0C110009E2F}" name="Points" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{AD6AC57F-E07B-42DB-850E-DEA524AE6E46}" name="Estimated Hours" dataDxfId="0">
-      <calculatedColumnFormula>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{86F5B27A-D198-4848-ADB6-A7BEFFDB816F}" name="Completed"/>
-    <tableColumn id="7" xr3:uid="{2398D599-5A1D-4B6E-8A23-79F4063944CE}" name="Completed Points">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{C13FCCDE-FC9C-48C6-AE8F-48A44BF6C3D4}" name="Completed Hours">
+    <tableColumn id="7" xr3:uid="{B8125C06-D59F-4CA7-817D-1DFF5C288455}" name="Completed Hours" dataDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1122,11 +2113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,13 +2145,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1506,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1558,7 +2549,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -1584,7 +2575,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1610,7 +2601,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -2234,7 +3225,7 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C43" s="3">
         <v>5</v>
@@ -2257,7 +3248,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C44" s="3">
         <v>5</v>
@@ -2404,7 +3395,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
@@ -2430,7 +3421,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
@@ -2531,7 +3522,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C55" s="3">
         <v>2</v>
@@ -2730,7 +3721,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -2753,7 +3744,7 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -2773,7 +3764,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
         <v>73</v>
@@ -2785,21 +3776,24 @@
         <f>VLOOKUP(C65,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
       <c r="F65">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G65">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -2808,47 +3802,50 @@
         <f>VLOOKUP(C66,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
       <c r="F66">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G66">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" s="3">
         <f>VLOOKUP(C67,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G67">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C68" s="3">
         <v>5</v>
@@ -2871,7 +3868,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
@@ -2897,10 +3894,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C70" s="3">
         <v>5</v>
@@ -2923,69 +3920,66 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C71" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" s="3">
         <f>VLOOKUP(C71,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F71">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
         <v>80</v>
       </c>
       <c r="C72" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" s="3">
         <f>VLOOKUP(C72,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G72">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" s="3">
         <f>VLOOKUP(C73,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F73">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -2998,43 +3992,43 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C74" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" s="3">
         <f>VLOOKUP(C74,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" s="3">
         <f>VLOOKUP(C75,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F75">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3047,56 +4041,59 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" s="3">
         <f>VLOOKUP(C76,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G76">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C77" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" s="3">
         <f>VLOOKUP(C77,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
       </c>
       <c r="F77">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G77">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
@@ -3122,7 +4119,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
         <v>89</v>
@@ -3148,69 +4145,63 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C80" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" s="3">
         <f>VLOOKUP(C80,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E80" t="b">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F80">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C81" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" s="3">
         <f>VLOOKUP(C81,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E81" t="b">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F81">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B82" t="s">
         <v>98</v>
       </c>
       <c r="C82" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" s="3">
         <f>VLOOKUP(C82,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F82">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3223,17 +4214,17 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
         <v>99</v>
       </c>
       <c r="C83" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" s="3">
         <f>VLOOKUP(C83,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F83">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3246,10 +4237,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C84" s="3">
         <v>3</v>
@@ -3269,10 +4260,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" s="3">
         <v>3</v>
@@ -3292,17 +4283,17 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="C86" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86" s="3">
         <f>VLOOKUP(C86,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F86">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3315,17 +4306,17 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B87" t="s">
         <v>102</v>
       </c>
       <c r="C87" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87" s="3">
         <f>VLOOKUP(C87,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F87">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3338,17 +4329,17 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C88" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" s="3">
         <f>VLOOKUP(C88,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F88">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3361,17 +4352,17 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C89" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" s="3">
         <f>VLOOKUP(C89,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F89">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3384,7 +4375,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
@@ -3407,10 +4398,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C91" s="3">
         <v>3</v>
@@ -3430,10 +4421,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="3">
         <v>3</v>
@@ -3453,17 +4444,17 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C93" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93" s="3">
         <f>VLOOKUP(C93,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F93">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3476,17 +4467,17 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94" s="3">
         <f>VLOOKUP(C94,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F94">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3499,33 +4490,36 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C95" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95" s="3">
         <f>VLOOKUP(C95,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
       </c>
       <c r="F95">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G95">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -3534,47 +4528,50 @@
         <f>VLOOKUP(C96,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
       <c r="F96">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C97" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" s="3">
         <f>VLOOKUP(C97,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B98" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -3597,10 +4594,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
@@ -3623,36 +4620,36 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C100" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" s="3">
         <f>VLOOKUP(C100,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G100">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
@@ -3675,36 +4672,36 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C102" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" s="3">
         <f>VLOOKUP(C102,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
@@ -3727,10 +4724,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B104" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
@@ -3753,10 +4750,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
@@ -3779,10 +4776,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -3805,10 +4802,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" t="s">
         <v>153</v>
-      </c>
-      <c r="B107" t="s">
-        <v>164</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
@@ -3831,10 +4828,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -3857,10 +4854,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
@@ -3883,10 +4880,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -3909,36 +4906,36 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C111" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" s="3">
         <f>VLOOKUP(C111,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -3961,36 +4958,33 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B113" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C113" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" s="3">
         <f>VLOOKUP(C113,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="E113" t="b">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F113">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B114" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -3999,24 +4993,21 @@
         <f>VLOOKUP(C114,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E114" t="b">
-        <v>1</v>
-      </c>
       <c r="F114">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
@@ -4036,17 +5027,17 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B116" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C116" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D116" s="3">
         <f>VLOOKUP(C116,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F116">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -4059,17 +5050,17 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C117" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D117" s="3">
         <f>VLOOKUP(C117,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F117">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -4082,82 +5073,85 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C118" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D118" s="3">
         <f>VLOOKUP(C118,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
       </c>
       <c r="F118">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G118">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B119" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C119" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119" s="3">
         <f>VLOOKUP(C119,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
       </c>
       <c r="F119">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C120" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120" s="3">
         <f>VLOOKUP(C120,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E120" t="b">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F120">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B121" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
@@ -4177,82 +5171,88 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B122" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C122" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122" s="3">
         <f>VLOOKUP(C122,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
       </c>
       <c r="F122">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G122">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C123" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" s="3">
         <f>VLOOKUP(C123,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
       </c>
       <c r="F123">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G123">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C124" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124" s="3">
         <f>VLOOKUP(C124,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C125" s="3">
         <v>2</v>
@@ -4275,36 +5275,33 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C126" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" s="3">
         <f>VLOOKUP(C126,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E126" t="b">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F126">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B127" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C127" s="3">
         <v>2</v>
@@ -4313,70 +5310,73 @@
         <f>VLOOKUP(C127,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="E127" t="b">
-        <v>1</v>
-      </c>
       <c r="F127">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B128" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C128" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" s="3">
         <f>VLOOKUP(C128,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
       </c>
       <c r="F128">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="B129" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C129" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" s="3">
         <f>VLOOKUP(C129,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
       </c>
       <c r="F129">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="B130" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C130" s="3">
         <v>3</v>
@@ -4396,269 +5396,272 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B131" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
-      <c r="D131" s="15">
+      <c r="D131" s="3">
         <f>VLOOKUP(C131,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E131" t="b">
-        <v>1</v>
-      </c>
-      <c r="F131" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G131" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+      <c r="F131">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
-      <c r="D132" s="15">
+      <c r="D132" s="3">
         <f>VLOOKUP(C132,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E132" t="b">
-        <v>1</v>
-      </c>
-      <c r="F132" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G132" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+      <c r="F132">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C133" s="3">
         <v>3</v>
       </c>
-      <c r="D133" s="15">
+      <c r="D133" s="3">
         <f>VLOOKUP(C133,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F133" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G133" s="16">
+      <c r="F133">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G133">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
-      <c r="D134" s="15">
+      <c r="D134" s="3">
         <f>VLOOKUP(C134,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F134" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G134" s="16">
+      <c r="F134">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G134">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
-      <c r="D135" s="15">
+      <c r="D135" s="3">
         <f>VLOOKUP(C135,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F135" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G135" s="16">
+      <c r="F135">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G135">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B136" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C136" s="3">
-        <v>3</v>
-      </c>
-      <c r="D136" s="15">
+        <v>2</v>
+      </c>
+      <c r="D136" s="3">
         <f>VLOOKUP(C136,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="F136" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G136" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C137" s="3">
-        <v>1</v>
-      </c>
-      <c r="D137" s="15">
+        <v>3</v>
+      </c>
+      <c r="D137" s="3">
         <f>VLOOKUP(C137,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F137" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G137" s="16">
+        <v>16</v>
+      </c>
+      <c r="F137">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G137">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="B138" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
-      <c r="D138" s="15">
+      <c r="D138" s="3">
         <f>VLOOKUP(C138,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F138" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G138" s="16">
+      <c r="F138">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G138">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C139" s="3">
-        <v>2</v>
-      </c>
-      <c r="D139" s="15">
+        <v>1</v>
+      </c>
+      <c r="D139" s="3">
         <f>VLOOKUP(C139,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F139" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G139" s="16">
+        <v>4</v>
+      </c>
+      <c r="F139">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G139">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="B140" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C140" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D140" s="15">
         <f>VLOOKUP(C140,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
       </c>
       <c r="F140" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G140" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B141" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="C141" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D141" s="15">
         <f>VLOOKUP(C141,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
       </c>
       <c r="F141" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G141" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -4667,148 +5670,269 @@
         <f>VLOOKUP(C142,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
       <c r="F142" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1</v>
+      </c>
+      <c r="D143" s="15">
+        <f>VLOOKUP(C143,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G143" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B144" s="4"/>
-      <c r="C144" s="5">
-        <f>SUM(C2:C143)</f>
-        <v>352</v>
-      </c>
-      <c r="D144" s="5">
-        <f>SUM(D2:D143)</f>
-        <v>1876</v>
-      </c>
-      <c r="F144" s="4">
-        <f>SUM(F2:F143)</f>
-        <v>218</v>
-      </c>
-      <c r="G144" s="4">
-        <f>SUM(G2:G143)</f>
-        <v>1148</v>
+      <c r="A144" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144" t="s">
+        <v>188</v>
+      </c>
+      <c r="C144" s="3">
+        <v>3</v>
+      </c>
+      <c r="D144" s="15">
+        <f>VLOOKUP(C144,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F144" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G144" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="G145" s="4"/>
+      <c r="A145" t="s">
+        <v>140</v>
+      </c>
+      <c r="B145" t="s">
+        <v>189</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1</v>
+      </c>
+      <c r="D145" s="15">
+        <f>VLOOKUP(C145,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F145" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G145" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B146" s="11">
-        <f ca="1">B148+B147</f>
-        <v>129.41463414634146</v>
-      </c>
-      <c r="D146" s="7"/>
+      <c r="A146" t="s">
+        <v>140</v>
+      </c>
+      <c r="B146" t="s">
+        <v>190</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1</v>
+      </c>
+      <c r="D146" s="15">
+        <f>VLOOKUP(C146,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F146" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G146" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B147" s="11">
-        <f ca="1">(D144-G144)/B154</f>
-        <v>37.414634146341463</v>
-      </c>
-      <c r="D147" s="7"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B148" s="4">
-        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>92</v>
-      </c>
-      <c r="D148" s="7"/>
+      <c r="A147" t="s">
+        <v>140</v>
+      </c>
+      <c r="B147" t="s">
+        <v>191</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
+      <c r="D147" s="15">
+        <f>VLOOKUP(C147,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F147" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G147" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B149" s="4">
-        <v>33</v>
-      </c>
-      <c r="D149" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5">
+        <f>SUM(C2:C148)</f>
+        <v>357</v>
+      </c>
+      <c r="D149" s="5">
+        <f>SUM(D2:D148)</f>
+        <v>1896</v>
+      </c>
+      <c r="F149" s="4">
+        <f>SUM(F2:F148)</f>
+        <v>233</v>
+      </c>
+      <c r="G149" s="4">
+        <f>SUM(G2:G148)</f>
+        <v>1232</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B150" s="4">
-        <f ca="1">B148-B149</f>
-        <v>59</v>
-      </c>
-      <c r="D150" s="7"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B151" s="12">
+        <v>108</v>
+      </c>
+      <c r="B151" s="11">
+        <f ca="1">B153+B152</f>
+        <v>125.33766233766234</v>
+      </c>
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B152" s="11">
+        <f ca="1">(D149-G149)/B159</f>
+        <v>32.337662337662337</v>
+      </c>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B153" s="4">
+        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
+        <v>93</v>
+      </c>
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B154" s="4">
+        <v>33</v>
+      </c>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B155" s="4">
+        <f ca="1">B153-B154</f>
+        <v>60</v>
+      </c>
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B156" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D151" s="7"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B152" s="12">
-        <f ca="1">TODAY()+ (B147*7)</f>
-        <v>45799.902439024387</v>
-      </c>
-      <c r="D152" s="9"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B153" s="11">
-        <f ca="1">F144/B150</f>
-        <v>3.6949152542372881</v>
-      </c>
-      <c r="F153" s="10"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B154" s="13">
-        <f ca="1">G144/B150</f>
-        <v>19.457627118644069</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B155" s="11">
-        <f>D144-G144</f>
-        <v>728</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B156" s="14">
-        <f>G144/D144</f>
-        <v>0.61194029850746268</v>
+      <c r="D156" s="7"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B157" s="12">
+        <f ca="1">TODAY()+ (B152*7)</f>
+        <v>45770.36363636364</v>
+      </c>
+      <c r="D157" s="9"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B158" s="11">
+        <f ca="1">F149/B155</f>
+        <v>3.8833333333333333</v>
+      </c>
+      <c r="F158" s="10"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B159" s="13">
+        <f ca="1">G149/B155</f>
+        <v>20.533333333333335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" s="11">
+        <f>D149-G149</f>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="14">
+        <f>G149/D149</f>
+        <v>0.64978902953586493</v>
       </c>
     </row>
   </sheetData>
@@ -4821,249 +5945,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686172D1-3F7C-4409-81BD-9F9C60450429}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77214E7E-2154-4807-A446-0B02AF797AAE}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <f>VLOOKUP(C2,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="F2">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <f>VLOOKUP(C3,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
-        <f>VLOOKUP(C4,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <f>VLOOKUP(C5,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <f>VLOOKUP(C6,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <f>VLOOKUP(C7,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <f>VLOOKUP(C8,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <f>VLOOKUP(C9,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11">
-        <f>SUM(C2:C10)</f>
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <f>SUM(D2:D10)</f>
-        <v>192</v>
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>45516</v>
+      </c>
+      <c r="B2">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>45523</v>
+      </c>
+      <c r="B3">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>45530</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>45537</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>45544</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5169,15 +6133,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -5185,7 +6149,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5193,7 +6157,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -5201,7 +6165,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B4)</f>
@@ -5228,15 +6192,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B2" s="8">
         <v>44892</v>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B4C65F-7057-4816-B4AA-5DADA762BD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723037DE-83E5-4B56-B2EE-1D601E6CABB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="208">
   <si>
     <t>Epic</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Grove City Donate</t>
   </si>
   <si>
-    <t>Setup Paypal IPN</t>
-  </si>
-  <si>
     <t>Polaris Donate</t>
   </si>
   <si>
@@ -459,9 +456,6 @@
     <t>Manage Delivery Checklist</t>
   </si>
   <si>
-    <t>Scheduled Deliveries Email Checklist</t>
-  </si>
-  <si>
     <t>Tech Debt</t>
   </si>
   <si>
@@ -634,6 +628,42 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Use Animate.css and Wow.js</t>
+  </si>
+  <si>
+    <t>Migration Deployment Setup Database and Preload</t>
+  </si>
+  <si>
+    <t>Improve Performance</t>
+  </si>
+  <si>
+    <t>Edit EmailTaxForm</t>
+  </si>
+  <si>
+    <t>Create Custom Authentication</t>
+  </si>
+  <si>
+    <t>Create Server Information Page</t>
+  </si>
+  <si>
+    <t>Mobile Bed Brigade Near Me</t>
+  </si>
+  <si>
+    <t>Mobile After Submit Bed Request</t>
+  </si>
+  <si>
+    <t>Mobile after Contact Us</t>
+  </si>
+  <si>
+    <t>Mobile after Submit Volunteer</t>
+  </si>
+  <si>
+    <t>Admin Mobile Margin and Padding</t>
+  </si>
+  <si>
+    <t>Manage Users Unusable in Mobile</t>
   </si>
 </sst>
 </file>
@@ -865,10 +895,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn Down'!$B$2:$B$6</c:f>
+              <c:f>'Burn Down'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>56</c:v>
                 </c:pt>
@@ -884,15 +914,18 @@
                 <c:pt idx="4">
                   <c:v>60</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down'!$C$2:$C$6</c:f>
+              <c:f>'Burn Down'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>568</c:v>
                 </c:pt>
@@ -907,6 +940,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,8 +1831,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G147" totalsRowShown="0">
-  <autoFilter ref="A1:G147" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G161" totalsRowShown="0">
+  <autoFilter ref="A1:G161" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -2113,11 +2149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B155" sqref="B155"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,13 +2181,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2497,7 +2533,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -2549,7 +2585,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -2575,7 +2611,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2601,7 +2637,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -3225,7 +3261,7 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="3">
         <v>5</v>
@@ -3234,13 +3270,16 @@
         <f>VLOOKUP(C43,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
       <c r="F43">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3248,7 +3287,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="3">
         <v>5</v>
@@ -3257,13 +3296,16 @@
         <f>VLOOKUP(C44,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
       <c r="F44">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G44">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3280,13 +3322,16 @@
         <f>VLOOKUP(C45,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
       <c r="F45">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3395,7 +3440,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
@@ -3421,7 +3466,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
@@ -3522,7 +3567,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" s="3">
         <v>2</v>
@@ -3721,7 +3766,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -3730,21 +3775,24 @@
         <f>VLOOKUP(C63,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
       <c r="F63">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G63">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -3753,13 +3801,16 @@
         <f>VLOOKUP(C64,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
       <c r="F64">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G64">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3767,7 +3818,7 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" s="3">
         <v>5</v>
@@ -3793,25 +3844,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" s="3">
         <f>VLOOKUP(C66,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G66">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3819,51 +3870,51 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C67" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" s="3">
         <f>VLOOKUP(C67,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G67">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C68" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" s="3">
         <f>VLOOKUP(C68,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G68">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3871,51 +3922,51 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C69" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" s="3">
         <f>VLOOKUP(C69,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G69">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C70" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" s="3">
         <f>VLOOKUP(C70,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G70">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3926,11 +3977,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" s="3">
         <f>VLOOKUP(C71,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F71">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -3946,25 +3997,25 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C72" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" s="3">
         <f>VLOOKUP(C72,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G72">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3972,79 +4023,85 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C73" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" s="3">
         <f>VLOOKUP(C73,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
       </c>
       <c r="F73">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G73">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C74" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" s="3">
         <f>VLOOKUP(C74,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G74">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C75" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" s="3">
         <f>VLOOKUP(C75,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
       </c>
       <c r="F75">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G75">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C76" s="3">
         <v>3</v>
@@ -4067,10 +4124,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C77" s="3">
         <v>3</v>
@@ -4093,69 +4150,63 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C78" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" s="3">
         <f>VLOOKUP(C78,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E78" t="b">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F78">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C79" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" s="3">
         <f>VLOOKUP(C79,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E79" t="b">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F79">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C80" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" s="3">
         <f>VLOOKUP(C80,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F80">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -4168,17 +4219,17 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" s="3">
         <f>VLOOKUP(C81,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F81">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -4191,10 +4242,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" t="s">
         <v>128</v>
-      </c>
-      <c r="B82" t="s">
-        <v>98</v>
       </c>
       <c r="C82" s="3">
         <v>3</v>
@@ -4214,7 +4265,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
         <v>99</v>
@@ -4237,17 +4288,17 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C84" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84" s="3">
         <f>VLOOKUP(C84,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F84">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -4260,17 +4311,17 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C85" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" s="3">
         <f>VLOOKUP(C85,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F85">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -4283,17 +4334,17 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C86" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" s="3">
         <f>VLOOKUP(C86,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -4306,17 +4357,17 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C87" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87" s="3">
         <f>VLOOKUP(C87,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F87">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -4329,10 +4380,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" s="3">
         <v>3</v>
@@ -4352,10 +4403,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" t="s">
         <v>126</v>
-      </c>
-      <c r="B89" t="s">
-        <v>91</v>
       </c>
       <c r="C89" s="3">
         <v>3</v>
@@ -4375,7 +4426,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
@@ -4398,17 +4449,17 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C91" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91" s="3">
         <f>VLOOKUP(C91,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F91">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -4421,17 +4472,17 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92" s="3">
         <f>VLOOKUP(C92,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F92">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -4444,33 +4495,36 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C93" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" s="3">
         <f>VLOOKUP(C93,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
       </c>
       <c r="F93">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G93">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -4479,44 +4533,47 @@
         <f>VLOOKUP(C94,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
       <c r="F94">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B95" t="s">
         <v>141</v>
       </c>
       <c r="C95" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D95" s="3">
         <f>VLOOKUP(C95,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B96" t="s">
         <v>142</v>
@@ -4542,7 +4599,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
         <v>143</v>
@@ -4568,33 +4625,33 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B98" t="s">
         <v>144</v>
       </c>
       <c r="C98" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" s="3">
         <f>VLOOKUP(C98,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G98">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B99" t="s">
         <v>145</v>
@@ -4620,33 +4677,33 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B100" t="s">
         <v>146</v>
       </c>
       <c r="C100" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D100" s="3">
         <f>VLOOKUP(C100,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
         <v>147</v>
@@ -4672,7 +4729,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B102" t="s">
         <v>148</v>
@@ -4698,7 +4755,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B103" t="s">
         <v>149</v>
@@ -4724,7 +4781,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B104" t="s">
         <v>150</v>
@@ -4750,7 +4807,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B105" t="s">
         <v>151</v>
@@ -4776,7 +4833,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B106" t="s">
         <v>152</v>
@@ -4802,7 +4859,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B107" t="s">
         <v>153</v>
@@ -4828,7 +4885,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B108" t="s">
         <v>154</v>
@@ -4854,33 +4911,33 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B109" t="s">
         <v>155</v>
       </c>
       <c r="C109" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" s="3">
         <f>VLOOKUP(C109,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B110" t="s">
         <v>156</v>
@@ -4906,33 +4963,30 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B111" t="s">
         <v>157</v>
       </c>
       <c r="C111" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" s="3">
         <f>VLOOKUP(C111,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="E111" t="b">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F111">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B112" t="s">
         <v>158</v>
@@ -4944,21 +4998,18 @@
         <f>VLOOKUP(C112,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E112" t="b">
-        <v>1</v>
-      </c>
       <c r="F112">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B113" t="s">
         <v>159</v>
@@ -4981,17 +5032,17 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B114" t="s">
         <v>160</v>
       </c>
       <c r="C114" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D114" s="3">
         <f>VLOOKUP(C114,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F114">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -5004,17 +5055,17 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B115" t="s">
         <v>161</v>
       </c>
       <c r="C115" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D115" s="3">
         <f>VLOOKUP(C115,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F115">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -5027,79 +5078,82 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B116" t="s">
         <v>162</v>
       </c>
       <c r="C116" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D116" s="3">
         <f>VLOOKUP(C116,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
       </c>
       <c r="F116">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G116">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B117" t="s">
         <v>163</v>
       </c>
       <c r="C117" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D117" s="3">
         <f>VLOOKUP(C117,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
       </c>
       <c r="F117">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B118" t="s">
         <v>164</v>
       </c>
       <c r="C118" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118" s="3">
         <f>VLOOKUP(C118,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="E118" t="b">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F118">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B119" t="s">
         <v>165</v>
@@ -5111,96 +5165,99 @@
         <f>VLOOKUP(C119,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E119" t="b">
-        <v>1</v>
-      </c>
       <c r="F119">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B120" t="s">
         <v>166</v>
       </c>
       <c r="C120" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" s="3">
         <f>VLOOKUP(C120,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
       </c>
       <c r="F120">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G120">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B121" t="s">
         <v>167</v>
       </c>
       <c r="C121" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" s="3">
         <f>VLOOKUP(C121,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
       </c>
       <c r="F121">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G121">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C122" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" s="3">
         <f>VLOOKUP(C122,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C123" s="3">
         <v>2</v>
@@ -5223,33 +5280,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C124" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" s="3">
         <f>VLOOKUP(C124,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E124" t="b">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F124">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B125" t="s">
         <v>170</v>
@@ -5261,96 +5315,96 @@
         <f>VLOOKUP(C125,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="E125" t="b">
-        <v>1</v>
-      </c>
       <c r="F125">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C126" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" s="3">
         <f>VLOOKUP(C126,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
       </c>
       <c r="F126">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="B127" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C127" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127" s="3">
         <f>VLOOKUP(C127,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
       </c>
       <c r="F127">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="B128" t="s">
         <v>176</v>
       </c>
       <c r="C128" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128" s="3">
         <f>VLOOKUP(C128,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E128" t="b">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F128">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
@@ -5359,54 +5413,54 @@
         <f>VLOOKUP(C129,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E129" t="b">
-        <v>1</v>
-      </c>
       <c r="F129">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C130" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130" s="3">
         <f>VLOOKUP(C130,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
       </c>
       <c r="F130">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="B131" t="s">
         <v>180</v>
       </c>
       <c r="C131" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131" s="3">
         <f>VLOOKUP(C131,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F131">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -5419,7 +5473,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
         <v>181</v>
@@ -5442,63 +5496,69 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B133" t="s">
         <v>182</v>
       </c>
       <c r="C133" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133" s="3">
         <f>VLOOKUP(C133,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
       </c>
       <c r="F133">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B134" t="s">
         <v>183</v>
       </c>
       <c r="C134" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" s="3">
         <f>VLOOKUP(C134,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
       </c>
       <c r="F134">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G134">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
         <v>184</v>
       </c>
       <c r="C135" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D135" s="3">
         <f>VLOOKUP(C135,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F135">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -5511,43 +5571,40 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="B136" t="s">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="C136" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" s="3">
         <f>VLOOKUP(C136,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="E136" t="b">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F136">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C137" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137" s="3">
         <f>VLOOKUP(C137,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F137">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -5560,180 +5617,183 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B138" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="C138" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D138" s="3">
         <f>VLOOKUP(C138,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
       </c>
       <c r="F138">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G138">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B139" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C139" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D139" s="3">
         <f>VLOOKUP(C139,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
       </c>
       <c r="F139">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G139">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>192</v>
       </c>
       <c r="C140" s="3">
-        <v>5</v>
-      </c>
-      <c r="D140" s="15">
+        <v>1</v>
+      </c>
+      <c r="D140" s="3">
         <f>VLOOKUP(C140,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
-      <c r="F140" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
-      </c>
-      <c r="G140" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+      <c r="F140">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
         <v>193</v>
       </c>
       <c r="C141" s="3">
-        <v>5</v>
-      </c>
-      <c r="D141" s="15">
+        <v>1</v>
+      </c>
+      <c r="D141" s="3">
         <f>VLOOKUP(C141,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
-      <c r="F141" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
-      </c>
-      <c r="G141" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+      <c r="F141">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C142" s="3">
-        <v>1</v>
-      </c>
-      <c r="D142" s="15">
+        <v>3</v>
+      </c>
+      <c r="D142" s="3">
         <f>VLOOKUP(C142,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E142" t="b">
-        <v>1</v>
-      </c>
-      <c r="F142" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G142" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="F142">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
-      <c r="D143" s="15">
+      <c r="D143" s="3">
         <f>VLOOKUP(C143,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E143" t="b">
-        <v>1</v>
-      </c>
-      <c r="F143" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G143" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+      <c r="F143">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B144" t="s">
         <v>188</v>
       </c>
       <c r="C144" s="3">
-        <v>3</v>
-      </c>
-      <c r="D144" s="15">
+        <v>1</v>
+      </c>
+      <c r="D144" s="3">
         <f>VLOOKUP(C144,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="F144" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G144" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B145" t="s">
         <v>189</v>
@@ -5741,25 +5801,28 @@
       <c r="C145" s="3">
         <v>1</v>
       </c>
-      <c r="D145" s="15">
+      <c r="D145" s="3">
         <f>VLOOKUP(C145,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F145" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G145" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B146" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
@@ -5768,21 +5831,24 @@
         <f>VLOOKUP(C146,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
       <c r="F146" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B147" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
@@ -5791,148 +5857,497 @@
         <f>VLOOKUP(C147,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
       <c r="F147" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" t="s">
+        <v>198</v>
+      </c>
+      <c r="C148" s="3">
+        <v>3</v>
+      </c>
+      <c r="D148" s="15">
+        <f>VLOOKUP(C148,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G148" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="5">
-        <f>SUM(C2:C148)</f>
-        <v>357</v>
-      </c>
-      <c r="D149" s="5">
-        <f>SUM(D2:D148)</f>
-        <v>1896</v>
-      </c>
-      <c r="F149" s="4">
-        <f>SUM(F2:F148)</f>
-        <v>233</v>
-      </c>
-      <c r="G149" s="4">
-        <f>SUM(G2:G148)</f>
-        <v>1232</v>
+      <c r="A149" t="s">
+        <v>138</v>
+      </c>
+      <c r="B149" t="s">
+        <v>199</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+      <c r="D149" s="15">
+        <f>VLOOKUP(C149,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+      <c r="F149" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G149" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="G150" s="4"/>
+      <c r="A150" t="s">
+        <v>138</v>
+      </c>
+      <c r="B150" t="s">
+        <v>200</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+      <c r="D150" s="15">
+        <f>VLOOKUP(C150,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G150" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B151" s="11">
-        <f ca="1">B153+B152</f>
-        <v>125.33766233766234</v>
-      </c>
-      <c r="D151" s="7"/>
+      <c r="A151" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" t="s">
+        <v>201</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1</v>
+      </c>
+      <c r="D151" s="15">
+        <f>VLOOKUP(C151,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+      <c r="F151" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G151" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
+      <c r="A152" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="15">
+        <f>VLOOKUP(C152,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+      <c r="F152" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G152" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" t="s">
+        <v>183</v>
+      </c>
+      <c r="C153" s="3">
+        <v>2</v>
+      </c>
+      <c r="D153" s="15">
+        <f>VLOOKUP(C153,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G153" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>138</v>
+      </c>
+      <c r="B154" t="s">
+        <v>192</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
+      <c r="D154" s="15">
+        <f>VLOOKUP(C154,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G154" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>138</v>
+      </c>
+      <c r="B155" t="s">
+        <v>190</v>
+      </c>
+      <c r="C155" s="3">
+        <v>5</v>
+      </c>
+      <c r="D155" s="15">
+        <f>VLOOKUP(C155,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>5</v>
+      </c>
+      <c r="G155" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>138</v>
+      </c>
+      <c r="B156" t="s">
+        <v>202</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="15">
+        <f>VLOOKUP(C156,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F156" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G156" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>138</v>
+      </c>
+      <c r="B157" t="s">
+        <v>203</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="15">
+        <f>VLOOKUP(C157,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F157" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G157" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>138</v>
+      </c>
+      <c r="B158" t="s">
+        <v>204</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="15">
+        <f>VLOOKUP(C158,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F158" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G158" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>138</v>
+      </c>
+      <c r="B159" t="s">
+        <v>205</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="15">
+        <f>VLOOKUP(C159,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F159" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G159" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" t="s">
+        <v>206</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="15">
+        <f>VLOOKUP(C160,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F160" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G160" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161" t="s">
+        <v>207</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="15">
+        <f>VLOOKUP(C161,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F161" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G161" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5">
+        <f>SUM(C2:C162)</f>
+        <v>370</v>
+      </c>
+      <c r="D163" s="5">
+        <f>SUM(D2:D162)</f>
+        <v>1940</v>
+      </c>
+      <c r="F163" s="4">
+        <f>SUM(F2:F162)</f>
+        <v>276</v>
+      </c>
+      <c r="G163" s="4">
+        <f>SUM(G2:G162)</f>
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="6"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165" s="11">
+        <f ca="1">B167+B166</f>
+        <v>114.93460490463215</v>
+      </c>
+      <c r="D165" s="7"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B166" s="11">
+        <f ca="1">(D163-G163)/B173</f>
+        <v>19.934604904632153</v>
+      </c>
+      <c r="D166" s="7"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B167" s="4">
+        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
+        <v>95</v>
+      </c>
+      <c r="D167" s="7"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B168" s="4">
+        <v>33</v>
+      </c>
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B169" s="4">
+        <f ca="1">B167-B168</f>
+        <v>62</v>
+      </c>
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B152" s="11">
-        <f ca="1">(D149-G149)/B159</f>
-        <v>32.337662337662337</v>
-      </c>
-      <c r="D152" s="7"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B153" s="4">
-        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>93</v>
-      </c>
-      <c r="D153" s="7"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B154" s="4">
-        <v>33</v>
-      </c>
-      <c r="D154" s="7"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B155" s="4">
-        <f ca="1">B153-B154</f>
-        <v>60</v>
-      </c>
-      <c r="D155" s="7"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B156" s="12">
+      <c r="B170" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D156" s="7"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B157" s="12">
-        <f ca="1">TODAY()+ (B152*7)</f>
-        <v>45770.36363636364</v>
-      </c>
-      <c r="D157" s="9"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B158" s="11">
-        <f ca="1">F149/B155</f>
-        <v>3.8833333333333333</v>
-      </c>
-      <c r="F158" s="10"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B159" s="13">
-        <f ca="1">G149/B155</f>
-        <v>20.533333333333335</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B160" s="11">
-        <f>D149-G149</f>
-        <v>664</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B161" s="14">
-        <f>G149/D149</f>
-        <v>0.64978902953586493</v>
+      <c r="D170" s="7"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B171" s="12">
+        <f ca="1">TODAY()+ (B166*7)</f>
+        <v>45697.542234332424</v>
+      </c>
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B172" s="11">
+        <f ca="1">F163/B169</f>
+        <v>4.4516129032258061</v>
+      </c>
+      <c r="F172" s="10"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B173" s="13">
+        <f ca="1">G163/B169</f>
+        <v>23.677419354838708</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" s="11">
+        <f>D163-G163</f>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B175" s="14">
+        <f>G163/D163</f>
+        <v>0.75670103092783503</v>
       </c>
     </row>
   </sheetData>
@@ -5946,10 +6361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77214E7E-2154-4807-A446-0B02AF797AAE}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5961,13 +6376,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6023,6 +6438,17 @@
       </c>
       <c r="C6">
         <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>45558</v>
+      </c>
+      <c r="B7">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -6133,15 +6559,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -6149,7 +6575,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6157,7 +6583,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -6165,7 +6591,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B4)</f>
@@ -6192,15 +6618,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="8">
         <v>44892</v>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723037DE-83E5-4B56-B2EE-1D601E6CABB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6AC574-014A-4CB6-85ED-32F5273A7F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="220">
   <si>
     <t>Epic</t>
   </si>
@@ -664,6 +664,42 @@
   </si>
   <si>
     <t>Manage Users Unusable in Mobile</t>
+  </si>
+  <si>
+    <t>Design Spanish Translation</t>
+  </si>
+  <si>
+    <t>Address Autocomplete Design</t>
+  </si>
+  <si>
+    <t>Design Bulk Email Mailing List</t>
+  </si>
+  <si>
+    <t>Donations Design</t>
+  </si>
+  <si>
+    <t>SMS Design</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>Upcoming Events</t>
+  </si>
+  <si>
+    <t>Add new Schedule Fields</t>
+  </si>
+  <si>
+    <t>New Manage Volunteer Fields</t>
+  </si>
+  <si>
+    <t>Volunteer Sign Up New Fields</t>
+  </si>
+  <si>
+    <t>New Manage Bed Request Fields</t>
+  </si>
+  <si>
+    <t>New Bed Request Form Fields</t>
   </si>
 </sst>
 </file>
@@ -1831,8 +1867,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G161" totalsRowShown="0">
-  <autoFilter ref="A1:G161" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G173" totalsRowShown="0">
+  <autoFilter ref="A1:G173" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -2149,11 +2185,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,18 +5863,18 @@
       <c r="C146" s="3">
         <v>1</v>
       </c>
-      <c r="D146" s="15">
+      <c r="D146" s="3">
         <f>VLOOKUP(C146,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
-      <c r="F146" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G146" s="16">
+      <c r="F146">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G146">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -5853,18 +5889,18 @@
       <c r="C147" s="3">
         <v>1</v>
       </c>
-      <c r="D147" s="15">
+      <c r="D147" s="3">
         <f>VLOOKUP(C147,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
-      <c r="F147" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G147" s="16">
+      <c r="F147">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G147">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -5879,18 +5915,18 @@
       <c r="C148" s="3">
         <v>3</v>
       </c>
-      <c r="D148" s="15">
+      <c r="D148" s="3">
         <f>VLOOKUP(C148,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
-      <c r="F148" s="16">
+      <c r="F148">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
         <v>3</v>
       </c>
-      <c r="G148" s="16">
+      <c r="G148">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>16</v>
       </c>
@@ -5905,18 +5941,18 @@
       <c r="C149" s="3">
         <v>1</v>
       </c>
-      <c r="D149" s="15">
+      <c r="D149" s="3">
         <f>VLOOKUP(C149,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
-      <c r="F149" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G149" s="16">
+      <c r="F149">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G149">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -5931,18 +5967,18 @@
       <c r="C150" s="3">
         <v>1</v>
       </c>
-      <c r="D150" s="15">
+      <c r="D150" s="3">
         <f>VLOOKUP(C150,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
-      <c r="F150" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G150" s="16">
+      <c r="F150">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G150">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -5957,18 +5993,18 @@
       <c r="C151" s="3">
         <v>1</v>
       </c>
-      <c r="D151" s="15">
+      <c r="D151" s="3">
         <f>VLOOKUP(C151,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
-      <c r="F151" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G151" s="16">
+      <c r="F151">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G151">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -5983,18 +6019,18 @@
       <c r="C152" s="3">
         <v>1</v>
       </c>
-      <c r="D152" s="15">
+      <c r="D152" s="3">
         <f>VLOOKUP(C152,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
-      <c r="F152" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G152" s="16">
+      <c r="F152">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G152">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -6009,18 +6045,18 @@
       <c r="C153" s="3">
         <v>2</v>
       </c>
-      <c r="D153" s="15">
+      <c r="D153" s="3">
         <f>VLOOKUP(C153,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
-      <c r="F153" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
-      </c>
-      <c r="G153" s="16">
+      <c r="F153">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G153">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>8</v>
       </c>
@@ -6035,18 +6071,18 @@
       <c r="C154" s="3">
         <v>1</v>
       </c>
-      <c r="D154" s="15">
+      <c r="D154" s="3">
         <f>VLOOKUP(C154,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
-      <c r="F154" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G154" s="16">
+      <c r="F154">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G154">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -6061,18 +6097,18 @@
       <c r="C155" s="3">
         <v>5</v>
       </c>
-      <c r="D155" s="15">
+      <c r="D155" s="3">
         <f>VLOOKUP(C155,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
-      <c r="F155" s="16">
+      <c r="F155">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
         <v>5</v>
       </c>
-      <c r="G155" s="16">
+      <c r="G155">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>32</v>
       </c>
@@ -6087,15 +6123,15 @@
       <c r="C156" s="3">
         <v>1</v>
       </c>
-      <c r="D156" s="15">
+      <c r="D156" s="3">
         <f>VLOOKUP(C156,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F156" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G156" s="16">
+      <c r="F156">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G156">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -6110,15 +6146,15 @@
       <c r="C157" s="3">
         <v>1</v>
       </c>
-      <c r="D157" s="15">
+      <c r="D157" s="3">
         <f>VLOOKUP(C157,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F157" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G157" s="16">
+      <c r="F157">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G157">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -6133,15 +6169,15 @@
       <c r="C158" s="3">
         <v>1</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D158" s="3">
         <f>VLOOKUP(C158,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F158" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G158" s="16">
+      <c r="F158">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G158">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -6156,15 +6192,15 @@
       <c r="C159" s="3">
         <v>1</v>
       </c>
-      <c r="D159" s="15">
+      <c r="D159" s="3">
         <f>VLOOKUP(C159,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F159" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G159" s="16">
+      <c r="F159">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G159">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -6179,15 +6215,15 @@
       <c r="C160" s="3">
         <v>1</v>
       </c>
-      <c r="D160" s="15">
+      <c r="D160" s="3">
         <f>VLOOKUP(C160,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F160" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G160" s="16">
+      <c r="F160">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G160">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
@@ -6202,152 +6238,428 @@
       <c r="C161" s="3">
         <v>1</v>
       </c>
-      <c r="D161" s="15">
+      <c r="D161" s="3">
         <f>VLOOKUP(C161,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F161" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G161" s="16">
+      <c r="F161">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" t="s">
+        <v>208</v>
+      </c>
+      <c r="C162" s="3">
+        <v>2</v>
+      </c>
+      <c r="D162" s="15">
+        <f>VLOOKUP(C162,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F162" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G162" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
+      <c r="A163" t="s">
+        <v>138</v>
+      </c>
+      <c r="B163" t="s">
+        <v>209</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="15">
+        <f>VLOOKUP(C163,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F163" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G163" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>138</v>
+      </c>
+      <c r="B164" t="s">
+        <v>210</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="15">
+        <f>VLOOKUP(C164,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F164" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G164" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>138</v>
+      </c>
+      <c r="B165" t="s">
+        <v>211</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="15">
+        <f>VLOOKUP(C165,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F165" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G165" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>138</v>
+      </c>
+      <c r="B166" t="s">
+        <v>212</v>
+      </c>
+      <c r="C166" s="3">
+        <v>2</v>
+      </c>
+      <c r="D166" s="15">
+        <f>VLOOKUP(C166,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F166" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G166" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>177</v>
+      </c>
+      <c r="B167" t="s">
+        <v>213</v>
+      </c>
+      <c r="C167" s="3">
+        <v>2</v>
+      </c>
+      <c r="D167" s="15">
+        <f>VLOOKUP(C167,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F167" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G167" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" t="s">
+        <v>214</v>
+      </c>
+      <c r="C168" s="3">
+        <v>5</v>
+      </c>
+      <c r="D168" s="15">
+        <f>VLOOKUP(C168,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F168" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G168" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" t="s">
+        <v>215</v>
+      </c>
+      <c r="C169" s="3">
+        <v>2</v>
+      </c>
+      <c r="D169" s="15">
+        <f>VLOOKUP(C169,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F169" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G169" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" t="s">
+        <v>216</v>
+      </c>
+      <c r="C170" s="3">
+        <v>2</v>
+      </c>
+      <c r="D170" s="15">
+        <f>VLOOKUP(C170,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F170" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G170" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" t="s">
+        <v>217</v>
+      </c>
+      <c r="C171" s="3">
+        <v>2</v>
+      </c>
+      <c r="D171" s="15">
+        <f>VLOOKUP(C171,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F171" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G171" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" t="s">
+        <v>218</v>
+      </c>
+      <c r="C172" s="3">
+        <v>2</v>
+      </c>
+      <c r="D172" s="15">
+        <f>VLOOKUP(C172,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F172" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G172" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" t="s">
+        <v>219</v>
+      </c>
+      <c r="C173" s="3">
+        <v>2</v>
+      </c>
+      <c r="D173" s="15">
+        <f>VLOOKUP(C173,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F173" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G173" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B163" s="4"/>
-      <c r="C163" s="5">
-        <f>SUM(C2:C162)</f>
-        <v>370</v>
-      </c>
-      <c r="D163" s="5">
-        <f>SUM(D2:D162)</f>
-        <v>1940</v>
-      </c>
-      <c r="F163" s="4">
-        <f>SUM(F2:F162)</f>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5">
+        <f>SUM(C2:C176)</f>
+        <v>394</v>
+      </c>
+      <c r="D177" s="5">
+        <f>SUM(D2:D176)</f>
+        <v>2048</v>
+      </c>
+      <c r="F177" s="4">
+        <f>SUM(F2:F176)</f>
         <v>276</v>
       </c>
-      <c r="G163" s="4">
-        <f>SUM(G2:G162)</f>
+      <c r="G177" s="4">
+        <f>SUM(G2:G176)</f>
         <v>1468</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="6"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="G164" s="4"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="6"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B165" s="11">
-        <f ca="1">B167+B166</f>
-        <v>114.93460490463215</v>
-      </c>
-      <c r="D165" s="7"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
+      <c r="B179" s="11">
+        <f ca="1">B181+B180</f>
+        <v>119.49591280653951</v>
+      </c>
+      <c r="D179" s="7"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B166" s="11">
-        <f ca="1">(D163-G163)/B173</f>
-        <v>19.934604904632153</v>
-      </c>
-      <c r="D166" s="7"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
+      <c r="B180" s="11">
+        <f ca="1">(D177-G177)/B187</f>
+        <v>24.495912806539511</v>
+      </c>
+      <c r="D180" s="7"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B181" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
         <v>95</v>
       </c>
-      <c r="D167" s="7"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
+      <c r="D181" s="7"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B182" s="4">
         <v>33</v>
       </c>
-      <c r="D168" s="7"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
+      <c r="D182" s="7"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B169" s="4">
-        <f ca="1">B167-B168</f>
+      <c r="B183" s="4">
+        <f ca="1">B181-B182</f>
         <v>62</v>
       </c>
-      <c r="D169" s="7"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
+      <c r="D183" s="7"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B170" s="12">
+      <c r="B184" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D170" s="7"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
+      <c r="D184" s="7"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B171" s="12">
-        <f ca="1">TODAY()+ (B166*7)</f>
-        <v>45697.542234332424</v>
-      </c>
-      <c r="D171" s="9"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
+      <c r="B185" s="12">
+        <f ca="1">TODAY()+ (B180*7)</f>
+        <v>45731.471389645776</v>
+      </c>
+      <c r="D185" s="9"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B172" s="11">
-        <f ca="1">F163/B169</f>
+      <c r="B186" s="11">
+        <f ca="1">F177/B183</f>
         <v>4.4516129032258061</v>
       </c>
-      <c r="F172" s="10"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
+      <c r="F186" s="10"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B173" s="13">
-        <f ca="1">G163/B169</f>
+      <c r="B187" s="13">
+        <f ca="1">G177/B183</f>
         <v>23.677419354838708</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B174" s="11">
-        <f>D163-G163</f>
-        <v>472</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
+      <c r="B188" s="11">
+        <f>D177-G177</f>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B175" s="14">
-        <f>G163/D163</f>
-        <v>0.75670103092783503</v>
+      <c r="B189" s="14">
+        <f>G177/D177</f>
+        <v>0.716796875</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6AC574-014A-4CB6-85ED-32F5273A7F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E87900-C781-4600-BD37-2F6876828EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="227">
   <si>
     <t>Epic</t>
   </si>
@@ -519,9 +519,6 @@
     <t>Add three image rotators to Bed Brigade Near Me</t>
   </si>
   <si>
-    <t>Location Latitude &amp; Longitude</t>
-  </si>
-  <si>
     <t>FM Dependent Functionality</t>
   </si>
   <si>
@@ -537,9 +534,6 @@
     <t>Add Page Titles</t>
   </si>
   <si>
-    <t>Custom Icons in Grid Toolbar</t>
-  </si>
-  <si>
     <t>AppOffline for Development</t>
   </si>
   <si>
@@ -549,12 +543,6 @@
     <t>Rework Seeding</t>
   </si>
   <si>
-    <t>Upgrade to Blazor 9</t>
-  </si>
-  <si>
-    <t>Blazor 9 Change Render Mode</t>
-  </si>
-  <si>
     <t>Project Percent Complete</t>
   </si>
   <si>
@@ -700,6 +688,39 @@
   </si>
   <si>
     <t>New Bed Request Form Fields</t>
+  </si>
+  <si>
+    <t>Bust Browser Cache for New Version</t>
+  </si>
+  <si>
+    <t>Localizable String Parsing</t>
+  </si>
+  <si>
+    <t>Localize Strings</t>
+  </si>
+  <si>
+    <t>Test Non-Localized Strings</t>
+  </si>
+  <si>
+    <t>Localize Validation Messages</t>
+  </si>
+  <si>
+    <t>Localize Drop Downs</t>
+  </si>
+  <si>
+    <t>Save Messages Localization</t>
+  </si>
+  <si>
+    <t>Delivery Sheet Slow</t>
+  </si>
+  <si>
+    <t>Update Documentation for Localization</t>
+  </si>
+  <si>
+    <t>Send Confirmation Email for Volunteer Sign Up</t>
+  </si>
+  <si>
+    <t>Localize Dynamic Content</t>
   </si>
 </sst>
 </file>
@@ -764,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -792,10 +813,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,10 +948,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn Down'!$B$2:$B$7</c:f>
+              <c:f>'Burn Down'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>56</c:v>
                 </c:pt>
@@ -953,15 +970,21 @@
                 <c:pt idx="5">
                   <c:v>62</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down'!$C$2:$C$7</c:f>
+              <c:f>'Burn Down'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>568</c:v>
                 </c:pt>
@@ -979,6 +1002,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,8 +1896,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G173" totalsRowShown="0">
-  <autoFilter ref="A1:G173" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G180" totalsRowShown="0">
+  <autoFilter ref="A1:G180" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -2185,11 +2214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159:B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,13 +3765,16 @@
         <f>VLOOKUP(C60,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
       <c r="F60">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G60">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5051,11 +5083,11 @@
         <v>159</v>
       </c>
       <c r="C113" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D113" s="3">
         <f>VLOOKUP(C113,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F113">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -5074,11 +5106,11 @@
         <v>160</v>
       </c>
       <c r="C114" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D114" s="3">
         <f>VLOOKUP(C114,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F114">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -5103,13 +5135,16 @@
         <f>VLOOKUP(C115,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
       <c r="F115">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G115">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5120,22 +5155,22 @@
         <v>162</v>
       </c>
       <c r="C116" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D116" s="3">
         <f>VLOOKUP(C116,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G116">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5152,16 +5187,13 @@
         <f>VLOOKUP(C117,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E117" t="b">
-        <v>1</v>
-      </c>
       <c r="F117">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5172,19 +5204,22 @@
         <v>164</v>
       </c>
       <c r="C118" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" s="3">
         <f>VLOOKUP(C118,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
       </c>
       <c r="F118">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G118">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5195,19 +5230,22 @@
         <v>165</v>
       </c>
       <c r="C119" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" s="3">
         <f>VLOOKUP(C119,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
       </c>
       <c r="F119">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G119">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5215,25 +5253,25 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C120" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" s="3">
         <f>VLOOKUP(C120,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5241,7 +5279,7 @@
         <v>138</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C121" s="3">
         <v>2</v>
@@ -5267,7 +5305,7 @@
         <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -5290,43 +5328,43 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="B123" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C123" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" s="3">
         <f>VLOOKUP(C123,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="B124" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C124" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124" s="3">
         <f>VLOOKUP(C124,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F124">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -5339,17 +5377,17 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C125" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" s="3">
         <f>VLOOKUP(C125,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F125">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -5365,7 +5403,7 @@
         <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -5388,43 +5426,40 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C127" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D127" s="3">
         <f>VLOOKUP(C127,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E127" t="b">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F127">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C128" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D128" s="3">
         <f>VLOOKUP(C128,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F128">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
@@ -5437,7 +5472,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="B129" t="s">
         <v>178</v>
@@ -5449,13 +5484,16 @@
         <f>VLOOKUP(C129,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
       <c r="F129">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5466,22 +5504,22 @@
         <v>179</v>
       </c>
       <c r="C130" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" s="3">
         <f>VLOOKUP(C130,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
       <c r="F130">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5509,10 +5547,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="B132" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
@@ -5532,10 +5570,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="B133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
@@ -5558,59 +5596,62 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B134" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C134" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D134" s="3">
         <f>VLOOKUP(C134,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G134">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="B135" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C135" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D135" s="3">
         <f>VLOOKUP(C135,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
       </c>
       <c r="F135">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G135">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -5619,21 +5660,24 @@
         <f>VLOOKUP(C136,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
       <c r="F136">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
@@ -5642,65 +5686,62 @@
         <f>VLOOKUP(C137,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
       <c r="F137">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C138" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D138" s="3">
         <f>VLOOKUP(C138,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="E138" t="b">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F138">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G138">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C139" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D139" s="3">
         <f>VLOOKUP(C139,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="E139" t="b">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F139">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G139">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5708,7 +5749,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -5734,7 +5775,7 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
@@ -5760,22 +5801,25 @@
         <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C142" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142" s="3">
         <f>VLOOKUP(C142,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
       </c>
       <c r="F142">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5783,7 +5827,7 @@
         <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
@@ -5792,13 +5836,16 @@
         <f>VLOOKUP(C143,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
       <c r="F143">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5806,25 +5853,25 @@
         <v>138</v>
       </c>
       <c r="B144" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C144" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D144" s="3">
         <f>VLOOKUP(C144,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G144">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5832,7 +5879,7 @@
         <v>138</v>
       </c>
       <c r="B145" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
@@ -5910,25 +5957,25 @@
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="C148" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D148" s="3">
         <f>VLOOKUP(C148,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G148">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5936,25 +5983,25 @@
         <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C149" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" s="3">
         <f>VLOOKUP(C149,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5962,7 +6009,7 @@
         <v>138</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
@@ -5988,25 +6035,25 @@
         <v>138</v>
       </c>
       <c r="B151" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C151" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D151" s="3">
         <f>VLOOKUP(C151,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G151">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6014,7 +6061,7 @@
         <v>138</v>
       </c>
       <c r="B152" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
@@ -6023,16 +6070,13 @@
         <f>VLOOKUP(C152,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E152" t="b">
-        <v>1</v>
-      </c>
       <c r="F152">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6040,25 +6084,22 @@
         <v>138</v>
       </c>
       <c r="B153" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C153" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" s="3">
         <f>VLOOKUP(C153,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="E153" t="b">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F153">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6066,7 +6107,7 @@
         <v>138</v>
       </c>
       <c r="B154" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
@@ -6075,16 +6116,13 @@
         <f>VLOOKUP(C154,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E154" t="b">
-        <v>1</v>
-      </c>
       <c r="F154">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6092,25 +6130,22 @@
         <v>138</v>
       </c>
       <c r="B155" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C155" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D155" s="3">
         <f>VLOOKUP(C155,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="E155" t="b">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F155">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G155">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6167,19 +6202,22 @@
         <v>204</v>
       </c>
       <c r="C158" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" s="3">
         <f>VLOOKUP(C158,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
       </c>
       <c r="F158">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G158">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6261,91 +6299,91 @@
       <c r="C162" s="3">
         <v>2</v>
       </c>
-      <c r="D162" s="15">
+      <c r="D162" s="3">
         <f>VLOOKUP(C162,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F162" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G162" s="16">
+      <c r="F162">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G162">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B163" t="s">
         <v>209</v>
       </c>
       <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="15">
+        <v>2</v>
+      </c>
+      <c r="D163" s="3">
         <f>VLOOKUP(C163,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F163" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G163" s="16">
+        <v>8</v>
+      </c>
+      <c r="F163">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G163">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B164" t="s">
         <v>210</v>
       </c>
       <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="15">
+        <v>5</v>
+      </c>
+      <c r="D164" s="3">
         <f>VLOOKUP(C164,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F164" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G164" s="16">
+        <v>32</v>
+      </c>
+      <c r="F164">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G164">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B165" t="s">
         <v>211</v>
       </c>
       <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="15">
+        <v>2</v>
+      </c>
+      <c r="D165" s="3">
         <f>VLOOKUP(C165,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F165" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G165" s="16">
+        <v>8</v>
+      </c>
+      <c r="F165">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G165">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B166" t="s">
         <v>212</v>
@@ -6353,22 +6391,22 @@
       <c r="C166" s="3">
         <v>2</v>
       </c>
-      <c r="D166" s="15">
+      <c r="D166" s="3">
         <f>VLOOKUP(C166,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F166" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G166" s="16">
+      <c r="F166">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G166">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
         <v>213</v>
@@ -6376,45 +6414,45 @@
       <c r="C167" s="3">
         <v>2</v>
       </c>
-      <c r="D167" s="15">
+      <c r="D167" s="3">
         <f>VLOOKUP(C167,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F167" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G167" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
         <v>214</v>
       </c>
       <c r="C168" s="3">
-        <v>5</v>
-      </c>
-      <c r="D168" s="15">
+        <v>2</v>
+      </c>
+      <c r="D168" s="3">
         <f>VLOOKUP(C168,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="F168" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G168" s="16">
+        <v>8</v>
+      </c>
+      <c r="F168">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G168">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B169" t="s">
         <v>215</v>
@@ -6422,68 +6460,74 @@
       <c r="C169" s="3">
         <v>2</v>
       </c>
-      <c r="D169" s="15">
+      <c r="D169" s="3">
         <f>VLOOKUP(C169,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F169" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G169" s="16">
+      <c r="F169">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G169">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="B170" t="s">
         <v>216</v>
       </c>
       <c r="C170" s="3">
-        <v>2</v>
-      </c>
-      <c r="D170" s="15">
+        <v>1</v>
+      </c>
+      <c r="D170" s="3">
         <f>VLOOKUP(C170,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F170" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G170" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
         <v>217</v>
       </c>
       <c r="C171" s="3">
-        <v>2</v>
-      </c>
-      <c r="D171" s="15">
+        <v>3</v>
+      </c>
+      <c r="D171" s="3">
         <f>VLOOKUP(C171,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F171" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G171" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="E171" t="b">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G171">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B172" t="s">
         <v>218</v>
@@ -6491,175 +6535,351 @@
       <c r="C172" s="3">
         <v>2</v>
       </c>
-      <c r="D172" s="15">
+      <c r="D172" s="3">
         <f>VLOOKUP(C172,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F172" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G172" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G172">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
         <v>219</v>
       </c>
       <c r="C173" s="3">
-        <v>2</v>
-      </c>
-      <c r="D173" s="15">
+        <v>1</v>
+      </c>
+      <c r="D173" s="3">
         <f>VLOOKUP(C173,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="F173" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G173" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>220</v>
+      </c>
+      <c r="C174" s="3">
+        <v>3</v>
+      </c>
+      <c r="D174" s="3">
+        <f>VLOOKUP(C174,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G174">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>221</v>
+      </c>
+      <c r="C175" s="3">
+        <v>3</v>
+      </c>
+      <c r="D175" s="3">
+        <f>VLOOKUP(C175,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G175">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176" t="s">
+        <v>222</v>
+      </c>
+      <c r="C176" s="3">
+        <v>2</v>
+      </c>
+      <c r="D176" s="3">
+        <f>VLOOKUP(C176,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G176">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="5">
-        <f>SUM(C2:C176)</f>
-        <v>394</v>
-      </c>
-      <c r="D177" s="5">
-        <f>SUM(D2:D176)</f>
-        <v>2048</v>
-      </c>
-      <c r="F177" s="4">
-        <f>SUM(F2:F176)</f>
-        <v>276</v>
-      </c>
-      <c r="G177" s="4">
-        <f>SUM(G2:G176)</f>
-        <v>1468</v>
+      <c r="A177" t="s">
+        <v>138</v>
+      </c>
+      <c r="B177" t="s">
+        <v>223</v>
+      </c>
+      <c r="C177" s="3">
+        <v>2</v>
+      </c>
+      <c r="D177" s="3">
+        <f>VLOOKUP(C177,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F177">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="6"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="G178" s="4"/>
+      <c r="A178" t="s">
+        <v>138</v>
+      </c>
+      <c r="B178" t="s">
+        <v>224</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="3">
+        <f>VLOOKUP(C178,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F178">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B179" s="11">
-        <f ca="1">B181+B180</f>
-        <v>119.49591280653951</v>
-      </c>
-      <c r="D179" s="7"/>
+      <c r="A179" t="s">
+        <v>173</v>
+      </c>
+      <c r="B179" t="s">
+        <v>225</v>
+      </c>
+      <c r="C179" s="3">
+        <v>2</v>
+      </c>
+      <c r="D179" s="3">
+        <f>VLOOKUP(C179,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F179">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B180" s="11">
-        <f ca="1">(D177-G177)/B187</f>
-        <v>24.495912806539511</v>
-      </c>
-      <c r="D180" s="7"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B181" s="4">
-        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>95</v>
-      </c>
-      <c r="D181" s="7"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B182" s="4">
-        <v>33</v>
-      </c>
-      <c r="D182" s="7"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B183" s="4">
-        <f ca="1">B181-B182</f>
-        <v>62</v>
-      </c>
-      <c r="D183" s="7"/>
+      <c r="A180" t="s">
+        <v>173</v>
+      </c>
+      <c r="B180" t="s">
+        <v>226</v>
+      </c>
+      <c r="C180" s="3">
+        <v>3</v>
+      </c>
+      <c r="D180" s="3">
+        <f>VLOOKUP(C180,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F180">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B184" s="4"/>
+      <c r="C184" s="5">
+        <f>SUM(C2:C183)</f>
+        <v>411</v>
+      </c>
+      <c r="D184" s="5">
+        <f>SUM(D2:D183)</f>
+        <v>2132</v>
+      </c>
+      <c r="F184" s="4">
+        <f>SUM(F2:F183)</f>
+        <v>299</v>
+      </c>
+      <c r="G184" s="4">
+        <f>SUM(G2:G183)</f>
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="6"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B186" s="11">
+        <f ca="1">B188+B187</f>
+        <v>119.14141414141415</v>
+      </c>
+      <c r="D186" s="7"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B187" s="11">
+        <f ca="1">(D184-G184)/B194</f>
+        <v>22.141414141414142</v>
+      </c>
+      <c r="D187" s="7"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B188" s="4">
+        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
+        <v>97</v>
+      </c>
+      <c r="D188" s="7"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B189" s="4">
+        <v>33</v>
+      </c>
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B190" s="4">
+        <f ca="1">B188-B189</f>
+        <v>64</v>
+      </c>
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B184" s="12">
+      <c r="B191" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D184" s="7"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B185" s="12">
-        <f ca="1">TODAY()+ (B180*7)</f>
-        <v>45731.471389645776</v>
-      </c>
-      <c r="D185" s="9"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
+      <c r="B192" s="12">
+        <f ca="1">TODAY()+ (B187*7)</f>
+        <v>45726.989898989901</v>
+      </c>
+      <c r="D192" s="9"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B186" s="11">
-        <f ca="1">F177/B183</f>
-        <v>4.4516129032258061</v>
-      </c>
-      <c r="F186" s="10"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
+      <c r="B193" s="11">
+        <f ca="1">F184/B190</f>
+        <v>4.671875</v>
+      </c>
+      <c r="F193" s="10"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B187" s="13">
-        <f ca="1">G177/B183</f>
-        <v>23.677419354838708</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B188" s="11">
-        <f>D177-G177</f>
-        <v>580</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B189" s="14">
-        <f>G177/D177</f>
-        <v>0.716796875</v>
+      <c r="B194" s="13">
+        <f ca="1">G184/B190</f>
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B195" s="11">
+        <f>D184-G184</f>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B196" s="14">
+        <f>G184/D184</f>
+        <v>0.74296435272045025</v>
       </c>
     </row>
   </sheetData>
@@ -6673,10 +6893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77214E7E-2154-4807-A446-0B02AF797AAE}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6688,13 +6908,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6761,6 +6981,28 @@
       </c>
       <c r="C7">
         <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>45565</v>
+      </c>
+      <c r="B8">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>45572</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E87900-C781-4600-BD37-2F6876828EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C16D39-7FFC-47CF-9947-C27F3891235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="229">
   <si>
     <t>Epic</t>
   </si>
@@ -721,6 +721,12 @@
   </si>
   <si>
     <t>Localize Dynamic Content</t>
+  </si>
+  <si>
+    <t>Make EmailQueue into a Background Service</t>
+  </si>
+  <si>
+    <t>Apply String Localization</t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -813,6 +819,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,10 +958,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn Down'!$B$2:$B$9</c:f>
+              <c:f>'Burn Down'!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>56</c:v>
                 </c:pt>
@@ -976,15 +986,18 @@
                 <c:pt idx="7">
                   <c:v>64</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down'!$C$2:$C$9</c:f>
+              <c:f>'Burn Down'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>568</c:v>
                 </c:pt>
@@ -1008,6 +1021,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1896,8 +1912,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G180" totalsRowShown="0">
-  <autoFilter ref="A1:G180" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G182" totalsRowShown="0">
+  <autoFilter ref="A1:G182" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -2214,11 +2230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B159" sqref="B159:B169"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5735,13 +5751,16 @@
         <f>VLOOKUP(C139,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
       <c r="F139">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -6070,13 +6089,16 @@
         <f>VLOOKUP(C152,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
       <c r="F152">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6738,148 +6760,203 @@
         <f>VLOOKUP(C180,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
       <c r="F180">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G180">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B184" s="4"/>
-      <c r="C184" s="5">
-        <f>SUM(C2:C183)</f>
-        <v>411</v>
-      </c>
-      <c r="D184" s="5">
-        <f>SUM(D2:D183)</f>
-        <v>2132</v>
-      </c>
-      <c r="F184" s="4">
-        <f>SUM(F2:F183)</f>
-        <v>299</v>
-      </c>
-      <c r="G184" s="4">
-        <f>SUM(G2:G183)</f>
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="6"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="G185" s="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>138</v>
+      </c>
+      <c r="B181" t="s">
+        <v>227</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1</v>
+      </c>
+      <c r="D181" s="15">
+        <f>VLOOKUP(C181,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+      <c r="F181" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G181" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>173</v>
+      </c>
+      <c r="B182" t="s">
+        <v>228</v>
+      </c>
+      <c r="C182" s="3">
+        <v>3</v>
+      </c>
+      <c r="D182" s="15">
+        <f>VLOOKUP(C182,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G182" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B186" s="11">
-        <f ca="1">B188+B187</f>
-        <v>119.14141414141415</v>
-      </c>
-      <c r="D186" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5">
+        <f>SUM(C2:C185)</f>
+        <v>415</v>
+      </c>
+      <c r="D186" s="5">
+        <f>SUM(D2:D185)</f>
+        <v>2152</v>
+      </c>
+      <c r="F186" s="4">
+        <f>SUM(F2:F185)</f>
+        <v>308</v>
+      </c>
+      <c r="G186" s="4">
+        <f>SUM(G2:G185)</f>
+        <v>1628</v>
+      </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B187" s="11">
-        <f ca="1">(D184-G184)/B194</f>
-        <v>22.141414141414142</v>
-      </c>
-      <c r="D187" s="7"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="G187" s="4"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B188" s="4">
-        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="B188" s="11">
+        <f ca="1">B190+B189</f>
+        <v>118.92137592137593</v>
       </c>
       <c r="D188" s="7"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B189" s="4">
-        <v>33</v>
+        <v>119</v>
+      </c>
+      <c r="B189" s="11">
+        <f ca="1">(D186-G186)/B196</f>
+        <v>20.921375921375923</v>
       </c>
       <c r="D189" s="7"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B190" s="4">
-        <f ca="1">B188-B189</f>
-        <v>64</v>
+        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
+        <v>98</v>
       </c>
       <c r="D190" s="7"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B191" s="4">
+        <v>33</v>
+      </c>
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B192" s="4">
+        <f ca="1">B190-B191</f>
+        <v>65</v>
+      </c>
+      <c r="D192" s="7"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B191" s="12">
+      <c r="B193" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D191" s="7"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B192" s="12">
-        <f ca="1">TODAY()+ (B187*7)</f>
-        <v>45726.989898989901</v>
-      </c>
-      <c r="D192" s="9"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B193" s="11">
-        <f ca="1">F184/B190</f>
-        <v>4.671875</v>
-      </c>
-      <c r="F193" s="10"/>
+      <c r="D193" s="7"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B194" s="13">
-        <f ca="1">G184/B190</f>
-        <v>24.75</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B194" s="12">
+        <f ca="1">TODAY()+ (B189*7)</f>
+        <v>45725.449631449628</v>
+      </c>
+      <c r="D194" s="9"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B195" s="11">
-        <f>D184-G184</f>
-        <v>548</v>
-      </c>
+        <f ca="1">F186/B192</f>
+        <v>4.7384615384615385</v>
+      </c>
+      <c r="F195" s="10"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B196" s="13">
+        <f ca="1">G186/B192</f>
+        <v>25.046153846153846</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B197" s="11">
+        <f>D186-G186</f>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B196" s="14">
-        <f>G184/D184</f>
-        <v>0.74296435272045025</v>
+      <c r="B198" s="14">
+        <f>G186/D186</f>
+        <v>0.75650557620817849</v>
       </c>
     </row>
   </sheetData>
@@ -6893,15 +6970,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77214E7E-2154-4807-A446-0B02AF797AAE}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7003,6 +7080,19 @@
       </c>
       <c r="C9">
         <v>548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>A9+7</f>
+        <v>45579</v>
+      </c>
+      <c r="B10">
+        <f>B9+1</f>
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C16D39-7FFC-47CF-9947-C27F3891235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5352A7-D3E5-4AF1-9198-EADCD5017A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="230">
   <si>
     <t>Epic</t>
   </si>
@@ -727,6 +727,9 @@
   </si>
   <si>
     <t>Apply String Localization</t>
+  </si>
+  <si>
+    <t>Menu not wide enough when translated to Spanish</t>
   </si>
 </sst>
 </file>
@@ -1912,8 +1915,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G182" totalsRowShown="0">
-  <autoFilter ref="A1:G182" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G183" totalsRowShown="0">
+  <autoFilter ref="A1:G183" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -2230,11 +2233,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,13 +5206,16 @@
         <f>VLOOKUP(C117,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
       <c r="F117">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5405,13 +5411,16 @@
         <f>VLOOKUP(C125,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
       <c r="F125">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -6115,13 +6124,16 @@
         <f>VLOOKUP(C153,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
       <c r="F153">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6138,13 +6150,16 @@
         <f>VLOOKUP(C154,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
       <c r="F154">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6161,13 +6176,16 @@
         <f>VLOOKUP(C155,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
       <c r="F155">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6184,13 +6202,16 @@
         <f>VLOOKUP(C156,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
       <c r="F156">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6207,13 +6228,16 @@
         <f>VLOOKUP(C157,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
       <c r="F157">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6714,13 +6738,16 @@
         <f>VLOOKUP(C178,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
       <c r="F178">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6782,181 +6809,207 @@
       <c r="C181" s="3">
         <v>1</v>
       </c>
-      <c r="D181" s="15">
+      <c r="D181" s="3">
         <f>VLOOKUP(C181,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
-      <c r="F181" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G181" s="16">
+      <c r="F181">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G181">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B182" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C182" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D182" s="15">
         <f>VLOOKUP(C182,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G182" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>173</v>
+      </c>
+      <c r="B183" t="s">
+        <v>228</v>
+      </c>
+      <c r="C183" s="3">
+        <v>3</v>
+      </c>
+      <c r="D183" s="3">
+        <f>VLOOKUP(C183,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="E182" t="b">
-        <v>1</v>
-      </c>
-      <c r="F182" s="16">
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+      <c r="F183">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
         <v>3</v>
       </c>
-      <c r="G182" s="16">
+      <c r="G183">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B186" s="4"/>
-      <c r="C186" s="5">
-        <f>SUM(C2:C185)</f>
-        <v>415</v>
-      </c>
-      <c r="D186" s="5">
-        <f>SUM(D2:D185)</f>
-        <v>2152</v>
-      </c>
-      <c r="F186" s="4">
-        <f>SUM(F2:F185)</f>
-        <v>308</v>
-      </c>
-      <c r="G186" s="4">
-        <f>SUM(G2:G185)</f>
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="6"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="G187" s="4"/>
+      <c r="C187" s="5">
+        <f>SUM(C2:C186)</f>
+        <v>416</v>
+      </c>
+      <c r="D187" s="5">
+        <f>SUM(D2:D186)</f>
+        <v>2156</v>
+      </c>
+      <c r="F187" s="4">
+        <f>SUM(F2:F186)</f>
+        <v>317</v>
+      </c>
+      <c r="G187" s="4">
+        <f>SUM(G2:G186)</f>
+        <v>1664</v>
+      </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B188" s="11">
-        <f ca="1">B190+B189</f>
-        <v>118.92137592137593</v>
-      </c>
-      <c r="D188" s="7"/>
+      <c r="A188" s="6"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="G188" s="4"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B189" s="11">
-        <f ca="1">(D186-G186)/B196</f>
-        <v>20.921375921375923</v>
+        <f ca="1">B191+B190</f>
+        <v>118.51442307692308</v>
       </c>
       <c r="D189" s="7"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B190" s="4">
-        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>98</v>
+        <v>119</v>
+      </c>
+      <c r="B190" s="11">
+        <f ca="1">(D187-G187)/B197</f>
+        <v>19.514423076923077</v>
       </c>
       <c r="D190" s="7"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B191" s="4">
-        <v>33</v>
+        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
+        <v>99</v>
       </c>
       <c r="D191" s="7"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B192" s="4">
-        <f ca="1">B190-B191</f>
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D192" s="7"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B193" s="4">
+        <f ca="1">B191-B192</f>
+        <v>66</v>
+      </c>
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B193" s="12">
+      <c r="B194" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D193" s="7"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B194" s="12">
-        <f ca="1">TODAY()+ (B189*7)</f>
-        <v>45725.449631449628</v>
-      </c>
-      <c r="D194" s="9"/>
+      <c r="D194" s="7"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B195" s="11">
-        <f ca="1">F186/B192</f>
-        <v>4.7384615384615385</v>
-      </c>
-      <c r="F195" s="10"/>
+        <v>110</v>
+      </c>
+      <c r="B195" s="12">
+        <f ca="1">TODAY()+ (B190*7)</f>
+        <v>45722.600961538461</v>
+      </c>
+      <c r="D195" s="9"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B196" s="13">
-        <f ca="1">G186/B192</f>
-        <v>25.046153846153846</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B196" s="11">
+        <f ca="1">F187/B193</f>
+        <v>4.8030303030303028</v>
+      </c>
+      <c r="F196" s="10"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B197" s="11">
-        <f>D186-G186</f>
-        <v>524</v>
+        <v>114</v>
+      </c>
+      <c r="B197" s="13">
+        <f ca="1">G187/B193</f>
+        <v>25.212121212121211</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B198" s="11">
+        <f>D187-G187</f>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B198" s="14">
-        <f>G186/D186</f>
-        <v>0.75650557620817849</v>
+      <c r="B199" s="14">
+        <f>G187/D187</f>
+        <v>0.7717996289424861</v>
       </c>
     </row>
   </sheetData>
@@ -6970,10 +7023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77214E7E-2154-4807-A446-0B02AF797AAE}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7093,6 +7146,19 @@
       </c>
       <c r="C10">
         <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>A10+7</f>
+        <v>45586</v>
+      </c>
+      <c r="B11">
+        <f>B10+1</f>
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5352A7-D3E5-4AF1-9198-EADCD5017A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C056828A-B65F-424B-8CC3-A5394B625362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="257">
   <si>
     <t>Epic</t>
   </si>
@@ -730,6 +730,87 @@
   </si>
   <si>
     <t>Menu not wide enough when translated to Spanish</t>
+  </si>
+  <si>
+    <t>Going to Events loads National Header and Footer</t>
+  </si>
+  <si>
+    <t>Data Attribute Validation</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Location Latitude &amp; Longitude</t>
+  </si>
+  <si>
+    <t>Autocomplete Address</t>
+  </si>
+  <si>
+    <t>Geolocation Routing</t>
+  </si>
+  <si>
+    <t>Donations</t>
+  </si>
+  <si>
+    <t>New Donation Fields</t>
+  </si>
+  <si>
+    <t>Donation Campaign Table</t>
+  </si>
+  <si>
+    <t>Seed Donation Campaign</t>
+  </si>
+  <si>
+    <t>Stripe Seed Configuration</t>
+  </si>
+  <si>
+    <t>Stripe Processing Code</t>
+  </si>
+  <si>
+    <t>Paypal IPN Handler</t>
+  </si>
+  <si>
+    <t>Donations Sum By Campaign Name</t>
+  </si>
+  <si>
+    <t>Edit Donations Page</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>Create Newsletter Tables</t>
+  </si>
+  <si>
+    <t>Manage Newsletters</t>
+  </si>
+  <si>
+    <t>Volunteer Subscribe to Newsletter</t>
+  </si>
+  <si>
+    <t>Subscribe/Unsubscribe to Newsletter Page</t>
+  </si>
+  <si>
+    <t>Ability to Send Newsletters</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Add LocationId to Configuration with a default of National</t>
+  </si>
+  <si>
+    <t>Create Code for SMS Queue</t>
+  </si>
+  <si>
+    <t>Create UI to send and receive SMS Messages and Reply</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>New Donations, SMS, Address, Newsletter</t>
   </si>
 </sst>
 </file>
@@ -961,10 +1042,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn Down'!$B$2:$B$10</c:f>
+              <c:f>'Burn Down'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>56</c:v>
                 </c:pt>
@@ -992,15 +1073,24 @@
                 <c:pt idx="8">
                   <c:v>65</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down'!$C$2:$C$10</c:f>
+              <c:f>'Burn Down'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>568</c:v>
                 </c:pt>
@@ -1027,6 +1117,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,16 +1976,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1915,8 +2014,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G183" totalsRowShown="0">
-  <autoFilter ref="A1:G183" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G204" totalsRowShown="0">
+  <autoFilter ref="A1:G204" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -2233,11 +2332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F190" sqref="F190"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6280,13 +6379,16 @@
         <f>VLOOKUP(C159,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
       <c r="F159">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6303,13 +6405,16 @@
         <f>VLOOKUP(C160,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
       <c r="F160">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -6326,13 +6431,16 @@
         <f>VLOOKUP(C161,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
       <c r="F161">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -6349,13 +6457,16 @@
         <f>VLOOKUP(C162,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
       <c r="F162">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G162">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6395,13 +6506,16 @@
         <f>VLOOKUP(C164,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
       <c r="F164">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G164">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -6418,13 +6532,16 @@
         <f>VLOOKUP(C165,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
       <c r="F165">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G165">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6441,13 +6558,16 @@
         <f>VLOOKUP(C166,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
       <c r="F166">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G166">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6835,18 +6955,18 @@
       <c r="C182" s="3">
         <v>1</v>
       </c>
-      <c r="D182" s="15">
+      <c r="D182" s="3">
         <f>VLOOKUP(C182,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
-      <c r="F182" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G182" s="16">
+      <c r="F182">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G182">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -6877,139 +6997,628 @@
         <v>16</v>
       </c>
     </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>138</v>
+      </c>
+      <c r="B184" t="s">
+        <v>230</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1</v>
+      </c>
+      <c r="D184" s="15">
+        <f>VLOOKUP(C184,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+      <c r="F184" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G184" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>138</v>
+      </c>
+      <c r="B185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1</v>
+      </c>
+      <c r="D185" s="15">
+        <f>VLOOKUP(C185,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G185" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>232</v>
+      </c>
+      <c r="B186" t="s">
+        <v>233</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+      <c r="D186" s="15">
+        <f>VLOOKUP(C186,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F186" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G186" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
+      <c r="A187" t="s">
+        <v>232</v>
+      </c>
+      <c r="B187" t="s">
+        <v>234</v>
+      </c>
+      <c r="C187" s="3">
+        <v>3</v>
+      </c>
+      <c r="D187" s="15">
+        <f>VLOOKUP(C187,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F187" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G187" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>232</v>
+      </c>
+      <c r="B188" t="s">
+        <v>235</v>
+      </c>
+      <c r="C188" s="3">
+        <v>2</v>
+      </c>
+      <c r="D188" s="15">
+        <f>VLOOKUP(C188,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F188" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G188" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>236</v>
+      </c>
+      <c r="B189" t="s">
+        <v>237</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="15">
+        <f>VLOOKUP(C189,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F189" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G189" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>236</v>
+      </c>
+      <c r="B190" t="s">
+        <v>238</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="15">
+        <f>VLOOKUP(C190,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F190" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G190" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>236</v>
+      </c>
+      <c r="B191" t="s">
+        <v>239</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="15">
+        <f>VLOOKUP(C191,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F191" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G191" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>236</v>
+      </c>
+      <c r="B192" t="s">
+        <v>240</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="15">
+        <f>VLOOKUP(C192,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F192" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G192" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>236</v>
+      </c>
+      <c r="B193" t="s">
+        <v>241</v>
+      </c>
+      <c r="C193" s="3">
+        <v>5</v>
+      </c>
+      <c r="D193" s="15">
+        <f>VLOOKUP(C193,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F193" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G193" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>236</v>
+      </c>
+      <c r="B194" t="s">
+        <v>242</v>
+      </c>
+      <c r="C194" s="3">
+        <v>5</v>
+      </c>
+      <c r="D194" s="15">
+        <f>VLOOKUP(C194,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="F194" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G194" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>236</v>
+      </c>
+      <c r="B195" t="s">
+        <v>243</v>
+      </c>
+      <c r="C195" s="3">
+        <v>2</v>
+      </c>
+      <c r="D195" s="15">
+        <f>VLOOKUP(C195,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F195" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G195" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>236</v>
+      </c>
+      <c r="B196" t="s">
+        <v>244</v>
+      </c>
+      <c r="C196" s="3">
+        <v>3</v>
+      </c>
+      <c r="D196" s="15">
+        <f>VLOOKUP(C196,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F196" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G196" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>245</v>
+      </c>
+      <c r="B197" t="s">
+        <v>246</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="15">
+        <f>VLOOKUP(C197,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F197" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G197" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>245</v>
+      </c>
+      <c r="B198" t="s">
+        <v>247</v>
+      </c>
+      <c r="C198" s="3">
+        <v>2</v>
+      </c>
+      <c r="D198" s="15">
+        <f>VLOOKUP(C198,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F198" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G198" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>245</v>
+      </c>
+      <c r="B199" t="s">
+        <v>248</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="15">
+        <f>VLOOKUP(C199,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F199" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G199" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>245</v>
+      </c>
+      <c r="B200" t="s">
+        <v>249</v>
+      </c>
+      <c r="C200" s="3">
+        <v>3</v>
+      </c>
+      <c r="D200" s="15">
+        <f>VLOOKUP(C200,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F200" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G200" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>245</v>
+      </c>
+      <c r="B201" t="s">
+        <v>250</v>
+      </c>
+      <c r="C201" s="3">
+        <v>3</v>
+      </c>
+      <c r="D201" s="15">
+        <f>VLOOKUP(C201,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F201" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G201" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>251</v>
+      </c>
+      <c r="B202" t="s">
+        <v>252</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="15">
+        <f>VLOOKUP(C202,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F202" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G202" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>251</v>
+      </c>
+      <c r="B203" t="s">
+        <v>253</v>
+      </c>
+      <c r="C203" s="3">
+        <v>2</v>
+      </c>
+      <c r="D203" s="15">
+        <f>VLOOKUP(C203,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="F203" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G203" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>251</v>
+      </c>
+      <c r="B204" t="s">
+        <v>254</v>
+      </c>
+      <c r="C204" s="3">
+        <v>3</v>
+      </c>
+      <c r="D204" s="15">
+        <f>VLOOKUP(C204,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F204" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G204" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="5">
-        <f>SUM(C2:C186)</f>
-        <v>416</v>
-      </c>
-      <c r="D187" s="5">
-        <f>SUM(D2:D186)</f>
-        <v>2156</v>
-      </c>
-      <c r="F187" s="4">
-        <f>SUM(F2:F186)</f>
-        <v>317</v>
-      </c>
-      <c r="G187" s="4">
-        <f>SUM(G2:G186)</f>
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="6"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="G188" s="4"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
+      <c r="B208" s="4"/>
+      <c r="C208" s="5">
+        <f>SUM(C2:C207)</f>
+        <v>459</v>
+      </c>
+      <c r="D208" s="5">
+        <f>SUM(D2:D207)</f>
+        <v>2372</v>
+      </c>
+      <c r="F208" s="4">
+        <f>SUM(F2:F207)</f>
+        <v>333</v>
+      </c>
+      <c r="G208" s="4">
+        <f>SUM(G2:G207)</f>
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="6"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B189" s="11">
-        <f ca="1">B191+B190</f>
-        <v>118.51442307692308</v>
-      </c>
-      <c r="D189" s="7"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
+      <c r="B210" s="11">
+        <f ca="1">B212+B211</f>
+        <v>125.69885057471265</v>
+      </c>
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B190" s="11">
-        <f ca="1">(D187-G187)/B197</f>
-        <v>19.514423076923077</v>
-      </c>
-      <c r="D190" s="7"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
+      <c r="B211" s="11">
+        <f ca="1">(D208-G208)/B218</f>
+        <v>24.698850574712644</v>
+      </c>
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B212" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>99</v>
-      </c>
-      <c r="D191" s="7"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B213" s="4">
         <v>33</v>
       </c>
-      <c r="D192" s="7"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B193" s="4">
-        <f ca="1">B191-B192</f>
-        <v>66</v>
-      </c>
-      <c r="D193" s="7"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
+      <c r="B214" s="4">
+        <f ca="1">B212-B213</f>
+        <v>68</v>
+      </c>
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B194" s="12">
+      <c r="B215" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D194" s="7"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="s">
+      <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B195" s="12">
-        <f ca="1">TODAY()+ (B190*7)</f>
-        <v>45722.600961538461</v>
-      </c>
-      <c r="D195" s="9"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="s">
+      <c r="B216" s="12">
+        <f ca="1">TODAY()+ (B211*7)</f>
+        <v>45772.891954022991</v>
+      </c>
+      <c r="D216" s="9"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B196" s="11">
-        <f ca="1">F187/B193</f>
-        <v>4.8030303030303028</v>
-      </c>
-      <c r="F196" s="10"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
+      <c r="B217" s="11">
+        <f ca="1">F208/B214</f>
+        <v>4.8970588235294121</v>
+      </c>
+      <c r="F217" s="10"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B197" s="13">
-        <f ca="1">G187/B193</f>
-        <v>25.212121212121211</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="s">
+      <c r="B218" s="13">
+        <f ca="1">G208/B214</f>
+        <v>25.588235294117649</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B198" s="11">
-        <f>D187-G187</f>
-        <v>492</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
+      <c r="B219" s="11">
+        <f>D208-G208</f>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B199" s="14">
-        <f>G187/D187</f>
-        <v>0.7717996289424861</v>
+      <c r="B220" s="14">
+        <f>G208/D208</f>
+        <v>0.73355817875210794</v>
       </c>
     </row>
   </sheetData>
@@ -7023,10 +7632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77214E7E-2154-4807-A446-0B02AF797AAE}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7034,9 +7643,10 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -7046,8 +7656,11 @@
       <c r="C1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>45516</v>
       </c>
@@ -7058,7 +7671,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45523</v>
       </c>
@@ -7069,7 +7682,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45530</v>
       </c>
@@ -7080,7 +7693,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45537</v>
       </c>
@@ -7091,7 +7704,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45544</v>
       </c>
@@ -7102,7 +7715,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45558</v>
       </c>
@@ -7113,7 +7726,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>45565</v>
       </c>
@@ -7124,7 +7737,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45572</v>
       </c>
@@ -7135,7 +7748,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>A9+7</f>
         <v>45579</v>
@@ -7148,7 +7761,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>A10+7</f>
         <v>45586</v>
@@ -7159,6 +7772,32 @@
       </c>
       <c r="C11">
         <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>45593</v>
+      </c>
+      <c r="B12">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <f>C11-48</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>45600</v>
+      </c>
+      <c r="B13">
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <v>632</v>
+      </c>
+      <c r="D13" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C056828A-B65F-424B-8CC3-A5394B625362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74562C79-ED96-4C60-837C-A3F0BDFA405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="260">
   <si>
     <t>Epic</t>
   </si>
@@ -744,9 +744,6 @@
     <t>Location Latitude &amp; Longitude</t>
   </si>
   <si>
-    <t>Autocomplete Address</t>
-  </si>
-  <si>
     <t>Geolocation Routing</t>
   </si>
   <si>
@@ -811,6 +808,18 @@
   </si>
   <si>
     <t>New Donations, SMS, Address, Newsletter</t>
+  </si>
+  <si>
+    <t>Geolocation of Address</t>
+  </si>
+  <si>
+    <t>Admin Clear Cache</t>
+  </si>
+  <si>
+    <t>Manage Configuration Location</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -1042,10 +1051,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn Down'!$B$2:$B$13</c:f>
+              <c:f>'Burn Down'!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>56</c:v>
                 </c:pt>
@@ -1082,15 +1091,21 @@
                 <c:pt idx="11">
                   <c:v>68</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down'!$C$2:$C$13</c:f>
+              <c:f>'Burn Down'!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>568</c:v>
                 </c:pt>
@@ -1126,6 +1141,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,13 +1997,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
@@ -2014,8 +2035,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G204" totalsRowShown="0">
-  <autoFilter ref="A1:G204" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G206" totalsRowShown="0">
+  <autoFilter ref="A1:G206" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -2332,11 +2353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B219" sqref="B219"/>
+      <selection pane="bottomLeft" activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5184,13 +5205,16 @@
         <f>VLOOKUP(C112,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
       <c r="F112">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -6483,13 +6507,16 @@
         <f>VLOOKUP(C163,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
       <c r="F163">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G163">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -6584,13 +6611,16 @@
         <f>VLOOKUP(C167,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
       <c r="F167">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G167">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7007,18 +7037,18 @@
       <c r="C184" s="3">
         <v>1</v>
       </c>
-      <c r="D184" s="15">
+      <c r="D184" s="3">
         <f>VLOOKUP(C184,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
-      <c r="F184" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G184" s="16">
+      <c r="F184">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G184">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -7033,18 +7063,18 @@
       <c r="C185" s="3">
         <v>1</v>
       </c>
-      <c r="D185" s="15">
+      <c r="D185" s="3">
         <f>VLOOKUP(C185,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E185" t="b">
         <v>1</v>
       </c>
-      <c r="F185" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G185" s="16">
+      <c r="F185">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G185">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -7059,17 +7089,20 @@
       <c r="C186" s="3">
         <v>1</v>
       </c>
-      <c r="D186" s="15">
+      <c r="D186" s="3">
         <f>VLOOKUP(C186,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F186" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G186" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7077,22 +7110,25 @@
         <v>232</v>
       </c>
       <c r="B187" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="C187" s="3">
         <v>3</v>
       </c>
-      <c r="D187" s="15">
+      <c r="D187" s="3">
         <f>VLOOKUP(C187,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F187" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G187" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+      <c r="E187" t="b">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G187">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -7100,525 +7136,580 @@
         <v>232</v>
       </c>
       <c r="B188" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C188" s="3">
         <v>2</v>
       </c>
-      <c r="D188" s="15">
+      <c r="D188" s="3">
         <f>VLOOKUP(C188,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F188" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G188" s="16">
+      <c r="F188">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G188">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>235</v>
+      </c>
+      <c r="B189" t="s">
         <v>236</v>
       </c>
-      <c r="B189" t="s">
-        <v>237</v>
-      </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
-      <c r="D189" s="15">
+      <c r="D189" s="3">
         <f>VLOOKUP(C189,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F189" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G189" s="16">
+      <c r="F189">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G189">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B190" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
-      <c r="D190" s="15">
+      <c r="D190" s="3">
         <f>VLOOKUP(C190,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F190" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G190" s="16">
+      <c r="F190">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G190">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B191" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
-      <c r="D191" s="15">
+      <c r="D191" s="3">
         <f>VLOOKUP(C191,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F191" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G191" s="16">
+      <c r="F191">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G191">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B192" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
       </c>
-      <c r="D192" s="15">
+      <c r="D192" s="3">
         <f>VLOOKUP(C192,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F192" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G192" s="16">
+      <c r="F192">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G192">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B193" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C193" s="3">
         <v>5</v>
       </c>
-      <c r="D193" s="15">
+      <c r="D193" s="3">
         <f>VLOOKUP(C193,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F193" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G193" s="16">
+      <c r="F193">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G193">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B194" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C194" s="3">
         <v>5</v>
       </c>
-      <c r="D194" s="15">
+      <c r="D194" s="3">
         <f>VLOOKUP(C194,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F194" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G194" s="16">
+      <c r="F194">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G194">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B195" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C195" s="3">
         <v>2</v>
       </c>
-      <c r="D195" s="15">
+      <c r="D195" s="3">
         <f>VLOOKUP(C195,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F195" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G195" s="16">
+      <c r="F195">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G195">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B196" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C196" s="3">
         <v>3</v>
       </c>
-      <c r="D196" s="15">
+      <c r="D196" s="3">
         <f>VLOOKUP(C196,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F196" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G196" s="16">
+      <c r="F196">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G196">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>244</v>
+      </c>
+      <c r="B197" t="s">
         <v>245</v>
       </c>
-      <c r="B197" t="s">
-        <v>246</v>
-      </c>
       <c r="C197" s="3">
         <v>1</v>
       </c>
-      <c r="D197" s="15">
+      <c r="D197" s="3">
         <f>VLOOKUP(C197,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F197" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G197" s="16">
+      <c r="F197">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G197">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B198" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C198" s="3">
         <v>2</v>
       </c>
-      <c r="D198" s="15">
+      <c r="D198" s="3">
         <f>VLOOKUP(C198,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F198" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G198" s="16">
+      <c r="F198">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G198">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B199" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C199" s="3">
         <v>1</v>
       </c>
-      <c r="D199" s="15">
+      <c r="D199" s="3">
         <f>VLOOKUP(C199,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F199" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G199" s="16">
+      <c r="F199">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G199">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B200" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C200" s="3">
         <v>3</v>
       </c>
-      <c r="D200" s="15">
+      <c r="D200" s="3">
         <f>VLOOKUP(C200,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F200" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G200" s="16">
+      <c r="F200">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G200">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B201" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C201" s="3">
         <v>3</v>
       </c>
-      <c r="D201" s="15">
+      <c r="D201" s="3">
         <f>VLOOKUP(C201,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F201" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G201" s="16">
+      <c r="F201">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G201">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>250</v>
+      </c>
+      <c r="B202" t="s">
         <v>251</v>
       </c>
-      <c r="B202" t="s">
-        <v>252</v>
-      </c>
       <c r="C202" s="3">
         <v>1</v>
       </c>
-      <c r="D202" s="15">
+      <c r="D202" s="3">
         <f>VLOOKUP(C202,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="F202" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G202" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+      <c r="E202" t="b">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B203" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C203" s="3">
         <v>2</v>
       </c>
-      <c r="D203" s="15">
+      <c r="D203" s="3">
         <f>VLOOKUP(C203,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F203" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G203" s="16">
+      <c r="F203">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G203">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B204" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C204" s="3">
         <v>3</v>
       </c>
-      <c r="D204" s="15">
+      <c r="D204" s="3">
         <f>VLOOKUP(C204,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="F204" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="G204" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B208" s="4"/>
-      <c r="C208" s="5">
-        <f>SUM(C2:C207)</f>
-        <v>459</v>
-      </c>
-      <c r="D208" s="5">
-        <f>SUM(D2:D207)</f>
-        <v>2372</v>
-      </c>
-      <c r="F208" s="4">
-        <f>SUM(F2:F207)</f>
-        <v>333</v>
-      </c>
-      <c r="G208" s="4">
-        <f>SUM(G2:G207)</f>
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="6"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="G209" s="4"/>
+      <c r="F204">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>138</v>
+      </c>
+      <c r="B205" t="s">
+        <v>257</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1</v>
+      </c>
+      <c r="D205" s="15">
+        <f>VLOOKUP(C205,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
+      </c>
+      <c r="F205" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G205" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>138</v>
+      </c>
+      <c r="B206" t="s">
+        <v>258</v>
+      </c>
+      <c r="C206" s="3">
+        <v>1</v>
+      </c>
+      <c r="D206" s="15">
+        <f>VLOOKUP(C206,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
+      <c r="F206" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G206" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B210" s="11">
-        <f ca="1">B212+B211</f>
-        <v>125.69885057471265</v>
-      </c>
-      <c r="D210" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="B210" s="4"/>
+      <c r="C210" s="5">
+        <f>SUM(C2:C209)</f>
+        <v>461</v>
+      </c>
+      <c r="D210" s="5">
+        <f>SUM(D2:D209)</f>
+        <v>2380</v>
+      </c>
+      <c r="F210" s="4">
+        <f>SUM(F2:F209)</f>
+        <v>345</v>
+      </c>
+      <c r="G210" s="4">
+        <f>SUM(G2:G209)</f>
+        <v>1792</v>
+      </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B211" s="11">
-        <f ca="1">(D208-G208)/B218</f>
-        <v>24.698850574712644</v>
-      </c>
-      <c r="D211" s="7"/>
+      <c r="A211" s="6"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="G211" s="4"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B212" s="4">
-        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="B212" s="11">
+        <f ca="1">B214+B213</f>
+        <v>125.96875</v>
       </c>
       <c r="D212" s="7"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B213" s="4">
-        <v>33</v>
+        <v>119</v>
+      </c>
+      <c r="B213" s="11">
+        <f ca="1">(D210-G210)/B220</f>
+        <v>22.96875</v>
       </c>
       <c r="D213" s="7"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B214" s="4">
-        <f ca="1">B212-B213</f>
-        <v>68</v>
+        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
+        <v>103</v>
       </c>
       <c r="D214" s="7"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B215" s="4">
+        <v>33</v>
+      </c>
+      <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B216" s="4">
+        <f ca="1">B214-B215</f>
+        <v>70</v>
+      </c>
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B215" s="12">
+      <c r="B217" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D215" s="7"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B216" s="12">
-        <f ca="1">TODAY()+ (B211*7)</f>
-        <v>45772.891954022991</v>
-      </c>
-      <c r="D216" s="9"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B217" s="11">
-        <f ca="1">F208/B214</f>
-        <v>4.8970588235294121</v>
-      </c>
-      <c r="F217" s="10"/>
+      <c r="D217" s="7"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B218" s="13">
-        <f ca="1">G208/B214</f>
-        <v>25.588235294117649</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B218" s="12">
+        <f ca="1">TODAY()+ (B213*7)</f>
+        <v>45774.78125</v>
+      </c>
+      <c r="D218" s="9"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B219" s="11">
-        <f>D208-G208</f>
-        <v>632</v>
-      </c>
+        <f ca="1">F210/B216</f>
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="F219" s="10"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B220" s="13">
+        <f ca="1">G210/B216</f>
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B221" s="11">
+        <f>D210-G210</f>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B220" s="14">
-        <f>G208/D208</f>
-        <v>0.73355817875210794</v>
+      <c r="B222" s="14">
+        <f>G210/D210</f>
+        <v>0.75294117647058822</v>
       </c>
     </row>
   </sheetData>
@@ -7632,172 +7723,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77214E7E-2154-4807-A446-0B02AF797AAE}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>191</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>45516</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>56</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>568</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45523</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>57</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>704</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <f>(C2-C3)*-1</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45530</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>58</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>732</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D15" si="0">(C3-C4)*-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45537</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>59</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>728</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45544</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>60</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>664</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45558</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>62</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>472</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>45565</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>63</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>472</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45572</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>64</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>548</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>A9+7</f>
         <v>45579</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <f>B9+1</f>
         <v>65</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>524</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>A10+7</f>
         <v>45586</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <f>B10+1</f>
         <v>66</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>492</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>45593</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>67</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <f>C11-48</f>
         <v>444</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>45600</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>68</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>632</v>
       </c>
-      <c r="D13" t="s">
-        <v>256</v>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="E13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>45607</v>
+      </c>
+      <c r="B14" s="3">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3">
+        <v>612</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>45614</v>
+      </c>
+      <c r="B15" s="3">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3">
+        <v>588</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>-24</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74562C79-ED96-4C60-837C-A3F0BDFA405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E108157-6DCB-4D97-8B4D-ECE1A88DA716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -519,9 +519,6 @@
     <t>Add three image rotators to Bed Brigade Near Me</t>
   </si>
   <si>
-    <t>FM Dependent Functionality</t>
-  </si>
-  <si>
     <t>Verify security for all pages</t>
   </si>
   <si>
@@ -820,6 +817,9 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>Protected Directories</t>
   </si>
 </sst>
 </file>
@@ -884,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -912,10 +912,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2355,9 +2351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5222,7 +5218,7 @@
         <v>138</v>
       </c>
       <c r="B113" t="s">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="C113" s="3">
         <v>5</v>
@@ -5245,7 +5241,7 @@
         <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C114" s="3">
         <v>3</v>
@@ -5268,7 +5264,7 @@
         <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C115" s="3">
         <v>3</v>
@@ -5294,7 +5290,7 @@
         <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
@@ -5320,7 +5316,7 @@
         <v>138</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
@@ -5346,7 +5342,7 @@
         <v>138</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C118" s="3">
         <v>2</v>
@@ -5372,7 +5368,7 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C119" s="3">
         <v>2</v>
@@ -5398,7 +5394,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -5424,7 +5420,7 @@
         <v>138</v>
       </c>
       <c r="B121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C121" s="3">
         <v>2</v>
@@ -5450,7 +5446,7 @@
         <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -5476,7 +5472,7 @@
         <v>64</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
@@ -5502,7 +5498,7 @@
         <v>56</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C124" s="3">
         <v>3</v>
@@ -5522,10 +5518,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>172</v>
+      </c>
+      <c r="B125" t="s">
         <v>173</v>
-      </c>
-      <c r="B125" t="s">
-        <v>174</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
@@ -5551,7 +5547,7 @@
         <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -5577,7 +5573,7 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C127" s="3">
         <v>3</v>
@@ -5600,7 +5596,7 @@
         <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -5623,7 +5619,7 @@
         <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
@@ -5649,7 +5645,7 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C130" s="3">
         <v>2</v>
@@ -5675,7 +5671,7 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C131" s="3">
         <v>3</v>
@@ -5721,7 +5717,7 @@
         <v>53</v>
       </c>
       <c r="B133" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
@@ -5747,7 +5743,7 @@
         <v>69</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C134" s="3">
         <v>5</v>
@@ -5773,7 +5769,7 @@
         <v>72</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C135" s="3">
         <v>5</v>
@@ -5799,7 +5795,7 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -5825,7 +5821,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
@@ -5851,7 +5847,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C138" s="3">
         <v>3</v>
@@ -5874,7 +5870,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
@@ -5900,7 +5896,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -5926,7 +5922,7 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
@@ -5952,7 +5948,7 @@
         <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -5978,7 +5974,7 @@
         <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
@@ -6004,7 +6000,7 @@
         <v>138</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C144" s="3">
         <v>3</v>
@@ -6030,7 +6026,7 @@
         <v>138</v>
       </c>
       <c r="B145" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
@@ -6056,7 +6052,7 @@
         <v>138</v>
       </c>
       <c r="B146" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
@@ -6082,7 +6078,7 @@
         <v>138</v>
       </c>
       <c r="B147" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
@@ -6108,7 +6104,7 @@
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -6134,7 +6130,7 @@
         <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C149" s="3">
         <v>2</v>
@@ -6160,7 +6156,7 @@
         <v>138</v>
       </c>
       <c r="B150" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
@@ -6186,7 +6182,7 @@
         <v>138</v>
       </c>
       <c r="B151" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C151" s="3">
         <v>5</v>
@@ -6212,7 +6208,7 @@
         <v>138</v>
       </c>
       <c r="B152" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
@@ -6238,7 +6234,7 @@
         <v>138</v>
       </c>
       <c r="B153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
@@ -6264,7 +6260,7 @@
         <v>138</v>
       </c>
       <c r="B154" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
@@ -6290,7 +6286,7 @@
         <v>138</v>
       </c>
       <c r="B155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C155" s="3">
         <v>1</v>
@@ -6316,7 +6312,7 @@
         <v>138</v>
       </c>
       <c r="B156" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C156" s="3">
         <v>1</v>
@@ -6342,7 +6338,7 @@
         <v>138</v>
       </c>
       <c r="B157" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C157" s="3">
         <v>1</v>
@@ -6368,7 +6364,7 @@
         <v>138</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C158" s="3">
         <v>2</v>
@@ -6394,7 +6390,7 @@
         <v>138</v>
       </c>
       <c r="B159" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C159" s="3">
         <v>1</v>
@@ -6420,7 +6416,7 @@
         <v>138</v>
       </c>
       <c r="B160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C160" s="3">
         <v>1</v>
@@ -6446,7 +6442,7 @@
         <v>138</v>
       </c>
       <c r="B161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C161" s="3">
         <v>1</v>
@@ -6472,7 +6468,7 @@
         <v>138</v>
       </c>
       <c r="B162" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C162" s="3">
         <v>2</v>
@@ -6495,10 +6491,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B163" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C163" s="3">
         <v>2</v>
@@ -6521,10 +6517,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C164" s="3">
         <v>5</v>
@@ -6547,10 +6543,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B165" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C165" s="3">
         <v>2</v>
@@ -6573,10 +6569,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C166" s="3">
         <v>2</v>
@@ -6599,10 +6595,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C167" s="3">
         <v>2</v>
@@ -6625,10 +6621,10 @@
     </row>
     <row r="168" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C168" s="3">
         <v>2</v>
@@ -6648,10 +6644,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C169" s="3">
         <v>2</v>
@@ -6674,7 +6670,7 @@
         <v>138</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C170" s="3">
         <v>1</v>
@@ -6697,10 +6693,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C171" s="3">
         <v>3</v>
@@ -6723,10 +6719,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C172" s="3">
         <v>2</v>
@@ -6749,10 +6745,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C173" s="3">
         <v>1</v>
@@ -6775,10 +6771,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C174" s="3">
         <v>3</v>
@@ -6801,10 +6797,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C175" s="3">
         <v>3</v>
@@ -6827,10 +6823,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C176" s="3">
         <v>2</v>
@@ -6856,7 +6852,7 @@
         <v>138</v>
       </c>
       <c r="B177" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C177" s="3">
         <v>2</v>
@@ -6879,7 +6875,7 @@
         <v>138</v>
       </c>
       <c r="B178" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C178" s="3">
         <v>1</v>
@@ -6902,10 +6898,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B179" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C179" s="3">
         <v>2</v>
@@ -6925,10 +6921,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B180" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C180" s="3">
         <v>3</v>
@@ -6954,7 +6950,7 @@
         <v>138</v>
       </c>
       <c r="B181" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C181" s="3">
         <v>1</v>
@@ -6980,7 +6976,7 @@
         <v>138</v>
       </c>
       <c r="B182" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
@@ -7003,10 +6999,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B183" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C183" s="3">
         <v>3</v>
@@ -7032,7 +7028,7 @@
         <v>138</v>
       </c>
       <c r="B184" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
@@ -7058,7 +7054,7 @@
         <v>138</v>
       </c>
       <c r="B185" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
@@ -7081,10 +7077,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>231</v>
+      </c>
+      <c r="B186" t="s">
         <v>232</v>
-      </c>
-      <c r="B186" t="s">
-        <v>233</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
@@ -7107,10 +7103,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B187" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C187" s="3">
         <v>3</v>
@@ -7133,10 +7129,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B188" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C188" s="3">
         <v>2</v>
@@ -7156,10 +7152,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" t="s">
         <v>235</v>
-      </c>
-      <c r="B189" t="s">
-        <v>236</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
@@ -7179,10 +7175,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B190" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
@@ -7202,10 +7198,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
@@ -7225,10 +7221,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B192" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
@@ -7248,10 +7244,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B193" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C193" s="3">
         <v>5</v>
@@ -7271,10 +7267,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B194" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C194" s="3">
         <v>5</v>
@@ -7294,10 +7290,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B195" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C195" s="3">
         <v>2</v>
@@ -7317,10 +7313,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B196" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C196" s="3">
         <v>3</v>
@@ -7340,10 +7336,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>243</v>
+      </c>
+      <c r="B197" t="s">
         <v>244</v>
-      </c>
-      <c r="B197" t="s">
-        <v>245</v>
       </c>
       <c r="C197" s="3">
         <v>1</v>
@@ -7363,10 +7359,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B198" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C198" s="3">
         <v>2</v>
@@ -7386,10 +7382,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C199" s="3">
         <v>1</v>
@@ -7409,10 +7405,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B200" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C200" s="3">
         <v>3</v>
@@ -7432,10 +7428,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B201" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C201" s="3">
         <v>3</v>
@@ -7455,10 +7451,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>249</v>
+      </c>
+      <c r="B202" t="s">
         <v>250</v>
-      </c>
-      <c r="B202" t="s">
-        <v>251</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
@@ -7481,10 +7477,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B203" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C203" s="3">
         <v>2</v>
@@ -7504,10 +7500,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B204" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C204" s="3">
         <v>3</v>
@@ -7530,23 +7526,23 @@
         <v>138</v>
       </c>
       <c r="B205" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C205" s="3">
         <v>1</v>
       </c>
-      <c r="D205" s="15">
+      <c r="D205" s="3">
         <f>VLOOKUP(C205,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
-      <c r="F205" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G205" s="16">
+      <c r="F205">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G205">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -7556,23 +7552,23 @@
         <v>138</v>
       </c>
       <c r="B206" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C206" s="3">
         <v>1</v>
       </c>
-      <c r="D206" s="15">
+      <c r="D206" s="3">
         <f>VLOOKUP(C206,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
-      <c r="F206" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G206" s="16">
+      <c r="F206">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G206">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
@@ -7612,7 +7608,7 @@
       </c>
       <c r="B212" s="11">
         <f ca="1">B214+B213</f>
-        <v>125.96875</v>
+        <v>135.265625</v>
       </c>
       <c r="D212" s="7"/>
     </row>
@@ -7622,7 +7618,7 @@
       </c>
       <c r="B213" s="11">
         <f ca="1">(D210-G210)/B220</f>
-        <v>22.96875</v>
+        <v>25.265625</v>
       </c>
       <c r="D213" s="7"/>
     </row>
@@ -7632,7 +7628,7 @@
       </c>
       <c r="B214" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D214" s="7"/>
     </row>
@@ -7651,7 +7647,7 @@
       </c>
       <c r="B216" s="4">
         <f ca="1">B214-B215</f>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D216" s="7"/>
     </row>
@@ -7671,7 +7667,7 @@
       </c>
       <c r="B218" s="12">
         <f ca="1">TODAY()+ (B213*7)</f>
-        <v>45774.78125</v>
+        <v>45843.859375</v>
       </c>
       <c r="D218" s="9"/>
     </row>
@@ -7681,7 +7677,7 @@
       </c>
       <c r="B219" s="11">
         <f ca="1">F210/B216</f>
-        <v>4.9285714285714288</v>
+        <v>4.4805194805194803</v>
       </c>
       <c r="F219" s="10"/>
     </row>
@@ -7691,12 +7687,12 @@
       </c>
       <c r="B220" s="13">
         <f ca="1">G210/B216</f>
-        <v>25.6</v>
+        <v>23.272727272727273</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B221" s="11">
         <f>D210-G210</f>
@@ -7705,7 +7701,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B222" s="14">
         <f>G210/D210</f>
@@ -7725,7 +7721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77214E7E-2154-4807-A446-0B02AF797AAE}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -7740,19 +7736,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7939,7 +7935,7 @@
         <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E108157-6DCB-4D97-8B4D-ECE1A88DA716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40738070-D047-41F3-B0B0-D5F4D6A48BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="264">
   <si>
     <t>Epic</t>
   </si>
@@ -820,6 +820,18 @@
   </si>
   <si>
     <t>Protected Directories</t>
+  </si>
+  <si>
+    <t>Vacation and Leyla Medical Problems</t>
+  </si>
+  <si>
+    <t>Custom Media Manager</t>
+  </si>
+  <si>
+    <t>Media Manager Cut, Copy, Paste Files</t>
+  </si>
+  <si>
+    <t>Media Manager Refactoring</t>
   </si>
 </sst>
 </file>
@@ -2031,8 +2043,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G206" totalsRowShown="0">
-  <autoFilter ref="A1:G206" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G209" totalsRowShown="0">
+  <autoFilter ref="A1:G209" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -2349,11 +2361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5227,13 +5239,16 @@
         <f>VLOOKUP(C113,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
       <c r="F113">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G113">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5605,13 +5620,16 @@
         <f>VLOOKUP(C128,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
       <c r="F128">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -6861,13 +6879,16 @@
         <f>VLOOKUP(C177,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
       <c r="F177">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G177">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6910,13 +6931,16 @@
         <f>VLOOKUP(C179,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
       <c r="F179">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G179">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -7489,13 +7513,16 @@
         <f>VLOOKUP(C203,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E203" t="b">
+        <v>1</v>
+      </c>
       <c r="F203">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G203">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -7573,139 +7600,217 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B210" s="4"/>
-      <c r="C210" s="5">
-        <f>SUM(C2:C209)</f>
-        <v>461</v>
-      </c>
-      <c r="D210" s="5">
-        <f>SUM(D2:D209)</f>
-        <v>2380</v>
-      </c>
-      <c r="F210" s="4">
-        <f>SUM(F2:F209)</f>
-        <v>345</v>
-      </c>
-      <c r="G210" s="4">
-        <f>SUM(G2:G209)</f>
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="6"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="G211" s="4"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B212" s="11">
-        <f ca="1">B214+B213</f>
-        <v>135.265625</v>
-      </c>
-      <c r="D212" s="7"/>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>261</v>
+      </c>
+      <c r="B207" t="s">
+        <v>261</v>
+      </c>
+      <c r="C207" s="3">
+        <v>5</v>
+      </c>
+      <c r="D207" s="3">
+        <f>VLOOKUP(C207,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>5</v>
+      </c>
+      <c r="G207">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>261</v>
+      </c>
+      <c r="B208" t="s">
+        <v>262</v>
+      </c>
+      <c r="C208" s="3">
+        <v>1</v>
+      </c>
+      <c r="D208" s="3">
+        <f>VLOOKUP(C208,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>261</v>
+      </c>
+      <c r="B209" t="s">
+        <v>263</v>
+      </c>
+      <c r="C209" s="3">
+        <v>1</v>
+      </c>
+      <c r="D209" s="3">
+        <f>VLOOKUP(C209,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B213" s="11">
-        <f ca="1">(D210-G210)/B220</f>
-        <v>25.265625</v>
-      </c>
-      <c r="D213" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="B213" s="4"/>
+      <c r="C213" s="5">
+        <f>SUM(C2:C212)</f>
+        <v>468</v>
+      </c>
+      <c r="D213" s="5">
+        <f>SUM(D2:D212)</f>
+        <v>2420</v>
+      </c>
+      <c r="F213" s="4">
+        <f>SUM(F2:F212)</f>
+        <v>364</v>
+      </c>
+      <c r="G213" s="4">
+        <f>SUM(G2:G212)</f>
+        <v>1892</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B214" s="4">
-        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>110</v>
-      </c>
-      <c r="D214" s="7"/>
+      <c r="A214" s="6"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="G214" s="4"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B215" s="4">
-        <v>33</v>
+        <v>107</v>
+      </c>
+      <c r="B215" s="11">
+        <f ca="1">B217+B216</f>
+        <v>135.32558139534885</v>
       </c>
       <c r="D215" s="7"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B216" s="4">
-        <f ca="1">B214-B215</f>
-        <v>77</v>
+        <v>119</v>
+      </c>
+      <c r="B216" s="11">
+        <f ca="1">(D213-G213)/B223</f>
+        <v>22.325581395348838</v>
       </c>
       <c r="D216" s="7"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B217" s="4">
+        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
+        <v>113</v>
+      </c>
+      <c r="D217" s="7"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B218" s="4">
+        <v>33</v>
+      </c>
+      <c r="D218" s="7"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B219" s="4">
+        <f ca="1">B217-B218</f>
+        <v>80</v>
+      </c>
+      <c r="D219" s="7"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B217" s="12">
+      <c r="B220" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D217" s="7"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B218" s="12">
-        <f ca="1">TODAY()+ (B213*7)</f>
-        <v>45843.859375</v>
-      </c>
-      <c r="D218" s="9"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B219" s="11">
-        <f ca="1">F210/B216</f>
-        <v>4.4805194805194803</v>
-      </c>
-      <c r="F219" s="10"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B220" s="13">
-        <f ca="1">G210/B216</f>
-        <v>23.272727272727273</v>
-      </c>
+      <c r="D220" s="7"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B221" s="11">
-        <f>D210-G210</f>
-        <v>588</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B221" s="12">
+        <f ca="1">TODAY()+ (B216*7)</f>
+        <v>45842.279069767443</v>
+      </c>
+      <c r="D221" s="9"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B222" s="11">
+        <f ca="1">F213/B219</f>
+        <v>4.55</v>
+      </c>
+      <c r="F222" s="10"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B223" s="13">
+        <f ca="1">G213/B219</f>
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B224" s="11">
+        <f>D213-G213</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B222" s="14">
-        <f>G210/D210</f>
-        <v>0.75294117647058822</v>
+      <c r="B225" s="14">
+        <f>G213/D213</f>
+        <v>0.78181818181818186</v>
       </c>
     </row>
   </sheetData>
@@ -7719,10 +7824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77214E7E-2154-4807-A446-0B02AF797AAE}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7731,7 +7836,7 @@
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7791,7 +7896,7 @@
         <v>732</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D15" si="0">(C3-C4)*-1</f>
+        <f t="shared" ref="D4:D25" si="0">(C3-C4)*-1</f>
         <v>28</v>
       </c>
     </row>
@@ -7967,6 +8072,209 @@
         <f t="shared" si="0"/>
         <v>-24</v>
       </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>A15+7</f>
+        <v>45621</v>
+      </c>
+      <c r="B16" s="3">
+        <f>B15+1</f>
+        <v>71</v>
+      </c>
+      <c r="C16" s="3">
+        <v>588</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f t="shared" ref="A17:A25" si="1">A16+7</f>
+        <v>45628</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" ref="B17:B25" si="2">B16+1</f>
+        <v>72</v>
+      </c>
+      <c r="C17" s="3">
+        <v>588</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f t="shared" si="1"/>
+        <v>45635</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="C18" s="3">
+        <v>588</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f t="shared" si="1"/>
+        <v>45642</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="C19" s="3">
+        <v>588</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f t="shared" si="1"/>
+        <v>45649</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C20" s="3">
+        <v>588</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f t="shared" si="1"/>
+        <v>45656</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C21" s="3">
+        <v>588</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f t="shared" si="1"/>
+        <v>45663</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C22" s="3">
+        <v>588</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f t="shared" si="1"/>
+        <v>45670</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="C23" s="3">
+        <v>588</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f t="shared" si="1"/>
+        <v>45677</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C24" s="3">
+        <v>588</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f t="shared" si="1"/>
+        <v>45684</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="C25" s="3">
+        <v>528</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40738070-D047-41F3-B0B0-D5F4D6A48BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB09361-C03D-4ADC-BAC2-8CAAF3D54274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="275">
   <si>
     <t>Epic</t>
   </si>
@@ -798,9 +798,6 @@
     <t>Create Code for SMS Queue</t>
   </si>
   <si>
-    <t>Create UI to send and receive SMS Messages and Reply</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -832,6 +829,42 @@
   </si>
   <si>
     <t>Media Manager Refactoring</t>
+  </si>
+  <si>
+    <t>Design send and receive SMS Messages and Reply</t>
+  </si>
+  <si>
+    <t>SMS Table</t>
+  </si>
+  <si>
+    <t>SMS Database Indexes</t>
+  </si>
+  <si>
+    <t>SMS Message Summary</t>
+  </si>
+  <si>
+    <t>SMS Message Detail</t>
+  </si>
+  <si>
+    <t>SMS Controller and Test Harness</t>
+  </si>
+  <si>
+    <t>Bulk SMS</t>
+  </si>
+  <si>
+    <t>SMS Missed Messages</t>
+  </si>
+  <si>
+    <t>Re-Style Summary Page</t>
+  </si>
+  <si>
+    <t>SMS Delete Old Records</t>
+  </si>
+  <si>
+    <t>Fix Publish</t>
+  </si>
+  <si>
+    <t>Shutdown Background Services</t>
   </si>
 </sst>
 </file>
@@ -896,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -924,6 +957,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2043,8 +2080,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G209" totalsRowShown="0">
-  <autoFilter ref="A1:G209" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G221" totalsRowShown="0">
+  <autoFilter ref="A1:G221" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -2361,11 +2398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5230,7 +5267,7 @@
         <v>138</v>
       </c>
       <c r="B113" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C113" s="3">
         <v>5</v>
@@ -5874,13 +5911,16 @@
         <f>VLOOKUP(C138,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
       <c r="F138">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G138">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -6651,13 +6691,16 @@
         <f>VLOOKUP(C168,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E168" t="b">
+        <v>1</v>
+      </c>
       <c r="F168">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G168">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6674,13 +6717,16 @@
         <f>VLOOKUP(C169,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
       <c r="F169">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G169">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -7130,7 +7176,7 @@
         <v>231</v>
       </c>
       <c r="B187" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C187" s="3">
         <v>3</v>
@@ -7527,25 +7573,28 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="B204" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C204" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D204" s="3">
         <f>VLOOKUP(C204,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
       </c>
       <c r="F204">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -7576,59 +7625,59 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="B206" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C206" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D206" s="3">
         <f>VLOOKUP(C206,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G206">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B207" t="s">
         <v>261</v>
       </c>
       <c r="C207" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D207" s="3">
         <f>VLOOKUP(C207,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B208" t="s">
         <v>262</v>
@@ -7654,163 +7703,475 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B209" t="s">
+        <v>250</v>
+      </c>
+      <c r="C209" s="3">
+        <v>1</v>
+      </c>
+      <c r="D209" s="15">
+        <f>VLOOKUP(C209,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
+      </c>
+      <c r="F209" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G209" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>249</v>
+      </c>
+      <c r="B210" t="s">
         <v>263</v>
       </c>
-      <c r="C209" s="3">
-        <v>1</v>
-      </c>
-      <c r="D209" s="3">
-        <f>VLOOKUP(C209,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E209" t="b">
-        <v>1</v>
-      </c>
-      <c r="F209">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G209">
+      <c r="C210" s="3">
+        <v>2</v>
+      </c>
+      <c r="D210" s="15">
+        <f>VLOOKUP(C210,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
+      </c>
+      <c r="F210" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G210" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>249</v>
+      </c>
+      <c r="B211" t="s">
+        <v>264</v>
+      </c>
+      <c r="C211" s="3">
+        <v>1</v>
+      </c>
+      <c r="D211" s="15">
+        <f>VLOOKUP(C211,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E211" t="b">
+        <v>1</v>
+      </c>
+      <c r="F211" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G211" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>249</v>
+      </c>
+      <c r="B212" t="s">
+        <v>265</v>
+      </c>
+      <c r="C212" s="3">
+        <v>1</v>
+      </c>
+      <c r="D212" s="15">
+        <f>VLOOKUP(C212,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E212" t="b">
+        <v>1</v>
+      </c>
+      <c r="F212" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G212" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
+      <c r="A213" t="s">
+        <v>249</v>
+      </c>
+      <c r="B213" t="s">
+        <v>266</v>
+      </c>
+      <c r="C213" s="3">
+        <v>3</v>
+      </c>
+      <c r="D213" s="15">
+        <f>VLOOKUP(C213,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
+      </c>
+      <c r="F213" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G213" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>249</v>
+      </c>
+      <c r="B214" t="s">
+        <v>267</v>
+      </c>
+      <c r="C214" s="3">
+        <v>3</v>
+      </c>
+      <c r="D214" s="15">
+        <f>VLOOKUP(C214,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
+      </c>
+      <c r="F214" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G214" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>249</v>
+      </c>
+      <c r="B215" t="s">
+        <v>268</v>
+      </c>
+      <c r="C215" s="3">
+        <v>3</v>
+      </c>
+      <c r="D215" s="15">
+        <f>VLOOKUP(C215,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E215" t="b">
+        <v>1</v>
+      </c>
+      <c r="F215" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G215" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>249</v>
+      </c>
+      <c r="B216" t="s">
+        <v>269</v>
+      </c>
+      <c r="C216" s="3">
+        <v>3</v>
+      </c>
+      <c r="D216" s="15">
+        <f>VLOOKUP(C216,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E216" t="b">
+        <v>1</v>
+      </c>
+      <c r="F216" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G216" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>249</v>
+      </c>
+      <c r="B217" t="s">
+        <v>270</v>
+      </c>
+      <c r="C217" s="3">
+        <v>2</v>
+      </c>
+      <c r="D217" s="15">
+        <f>VLOOKUP(C217,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E217" t="b">
+        <v>1</v>
+      </c>
+      <c r="F217" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G217" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>249</v>
+      </c>
+      <c r="B218" t="s">
+        <v>271</v>
+      </c>
+      <c r="C218" s="3">
+        <v>3</v>
+      </c>
+      <c r="D218" s="15">
+        <f>VLOOKUP(C218,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E218" t="b">
+        <v>1</v>
+      </c>
+      <c r="F218" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G218" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>249</v>
+      </c>
+      <c r="B219" t="s">
+        <v>272</v>
+      </c>
+      <c r="C219" s="3">
+        <v>1</v>
+      </c>
+      <c r="D219" s="15">
+        <f>VLOOKUP(C219,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E219" t="b">
+        <v>1</v>
+      </c>
+      <c r="F219" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G219" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>138</v>
+      </c>
+      <c r="B220" t="s">
+        <v>273</v>
+      </c>
+      <c r="C220" s="3">
+        <v>3</v>
+      </c>
+      <c r="D220" s="15">
+        <f>VLOOKUP(C220,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
+      </c>
+      <c r="F220" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G220" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>138</v>
+      </c>
+      <c r="B221" t="s">
+        <v>274</v>
+      </c>
+      <c r="C221" s="3">
+        <v>2</v>
+      </c>
+      <c r="D221" s="15">
+        <f>VLOOKUP(C221,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
+      </c>
+      <c r="F221" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G221" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B213" s="4"/>
-      <c r="C213" s="5">
-        <f>SUM(C2:C212)</f>
-        <v>468</v>
-      </c>
-      <c r="D213" s="5">
-        <f>SUM(D2:D212)</f>
-        <v>2420</v>
-      </c>
-      <c r="F213" s="4">
-        <f>SUM(F2:F212)</f>
-        <v>364</v>
-      </c>
-      <c r="G213" s="4">
-        <f>SUM(G2:G212)</f>
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="6"/>
-      <c r="B214" s="4"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="G214" s="4"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
+      <c r="B225" s="4"/>
+      <c r="C225" s="5">
+        <f>SUM(C2:C224)</f>
+        <v>493</v>
+      </c>
+      <c r="D225" s="5">
+        <f>SUM(D2:D224)</f>
+        <v>2540</v>
+      </c>
+      <c r="F225" s="4">
+        <f>SUM(F2:F224)</f>
+        <v>399</v>
+      </c>
+      <c r="G225" s="4">
+        <f>SUM(G2:G224)</f>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="6"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="G226" s="4"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B215" s="11">
-        <f ca="1">B217+B216</f>
-        <v>135.32558139534885</v>
-      </c>
-      <c r="D215" s="7"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
+      <c r="B227" s="11">
+        <f ca="1">B229+B228</f>
+        <v>136.57281553398059</v>
+      </c>
+      <c r="D227" s="7"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B216" s="11">
-        <f ca="1">(D213-G213)/B223</f>
-        <v>22.325581395348838</v>
-      </c>
-      <c r="D216" s="7"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="s">
+      <c r="B228" s="11">
+        <f ca="1">(D225-G225)/B235</f>
+        <v>19.572815533980581</v>
+      </c>
+      <c r="D228" s="7"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B229" s="4">
         <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>113</v>
-      </c>
-      <c r="D217" s="7"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D229" s="7"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B230" s="4">
         <v>33</v>
       </c>
-      <c r="D218" s="7"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="6" t="s">
+      <c r="D230" s="7"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B219" s="4">
-        <f ca="1">B217-B218</f>
-        <v>80</v>
-      </c>
-      <c r="D219" s="7"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
+      <c r="B231" s="4">
+        <f ca="1">B229-B230</f>
+        <v>84</v>
+      </c>
+      <c r="D231" s="7"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B220" s="12">
+      <c r="B232" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D220" s="7"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="s">
+      <c r="D232" s="7"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B221" s="12">
-        <f ca="1">TODAY()+ (B216*7)</f>
-        <v>45842.279069767443</v>
-      </c>
-      <c r="D221" s="9"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
+      <c r="B233" s="12">
+        <f ca="1">TODAY()+ (B228*7)</f>
+        <v>45854.009708737867</v>
+      </c>
+      <c r="D233" s="9"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B222" s="11">
-        <f ca="1">F213/B219</f>
-        <v>4.55</v>
-      </c>
-      <c r="F222" s="10"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="s">
+      <c r="B234" s="11">
+        <f ca="1">F225/B231</f>
+        <v>4.75</v>
+      </c>
+      <c r="F234" s="10"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B223" s="13">
-        <f ca="1">G213/B219</f>
-        <v>23.65</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
+      <c r="B235" s="13">
+        <f ca="1">G225/B231</f>
+        <v>24.523809523809526</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B224" s="11">
-        <f>D213-G213</f>
-        <v>528</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
+      <c r="B236" s="11">
+        <f>D225-G225</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B225" s="14">
-        <f>G213/D213</f>
-        <v>0.78181818181818186</v>
+      <c r="B237" s="14">
+        <f>G225/D225</f>
+        <v>0.8110236220472441</v>
       </c>
     </row>
   </sheetData>
@@ -7824,10 +8185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77214E7E-2154-4807-A446-0B02AF797AAE}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7850,10 +8211,10 @@
         <v>167</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7896,7 +8257,7 @@
         <v>732</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D25" si="0">(C3-C4)*-1</f>
+        <f t="shared" ref="D4:D30" si="0">(C3-C4)*-1</f>
         <v>28</v>
       </c>
     </row>
@@ -8040,7 +8401,7 @@
         <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8090,16 +8451,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" ref="A17:A25" si="1">A16+7</f>
+        <f t="shared" ref="A17:A31" si="1">A16+7</f>
         <v>45628</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ref="B17:B25" si="2">B16+1</f>
+        <f t="shared" ref="B17:B30" si="2">B16+1</f>
         <v>72</v>
       </c>
       <c r="C17" s="3">
@@ -8110,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8130,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8150,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8170,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8190,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8210,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -8230,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8250,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8271,10 +8632,96 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="8">
+        <f t="shared" si="1"/>
+        <v>45691</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C26" s="3">
+        <f>C25-10</f>
+        <v>518</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="8">
+        <f t="shared" si="1"/>
+        <v>45698</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27:C29" si="3">C26-10</f>
+        <v>508</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <f t="shared" si="1"/>
+        <v>45705</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="3"/>
+        <v>498</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <f t="shared" si="1"/>
+        <v>45712</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="3"/>
+        <v>488</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <f t="shared" si="1"/>
+        <v>45719</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="C30" s="3">
+        <v>480</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Design/Estimates.xlsx
+++ b/Documentation/Design/Estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNationalV8\Documentation\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\BedBrigadeNational\Documentation\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB09361-C03D-4ADC-BAC2-8CAAF3D54274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D52EB03-B526-4E68-AAB6-7DE6E87B2742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D27F5AFA-C88C-4A2F-A896-BFED2572A1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="278">
   <si>
     <t>Epic</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Grove City Assembly Instructions</t>
   </si>
   <si>
-    <t>Polaris Assembly Instructions</t>
-  </si>
-  <si>
     <t>Grove City Partners</t>
   </si>
   <si>
@@ -780,9 +777,6 @@
     <t>Manage Newsletters</t>
   </si>
   <si>
-    <t>Volunteer Subscribe to Newsletter</t>
-  </si>
-  <si>
     <t>Subscribe/Unsubscribe to Newsletter Page</t>
   </si>
   <si>
@@ -865,6 +859,21 @@
   </si>
   <si>
     <t>Shutdown Background Services</t>
+  </si>
+  <si>
+    <t>Polaris History</t>
+  </si>
+  <si>
+    <t>Laptop Admin Dialogs</t>
+  </si>
+  <si>
+    <t>Generated Next Events</t>
+  </si>
+  <si>
+    <t>Generated Carousel</t>
+  </si>
+  <si>
+    <t>Val turned in News and Stories feature all at once.</t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1105,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn Down'!$B$2:$B$15</c:f>
+              <c:f>'Burn Down'!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>56</c:v>
                 </c:pt>
@@ -1142,15 +1151,84 @@
                 <c:pt idx="13">
                   <c:v>70</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>93</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down'!$C$2:$C$15</c:f>
+              <c:f>'Burn Down'!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>568</c:v>
                 </c:pt>
@@ -1192,6 +1270,75 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,16 +2189,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2080,8 +2227,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G221" totalsRowShown="0">
-  <autoFilter ref="A1:G221" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}" name="Table1" displayName="Table1" ref="A1:G223" totalsRowShown="0">
+  <autoFilter ref="A1:G223" xr:uid="{20A5C34A-BA74-4618-9527-C8C5A4B15239}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8122BCC0-A9A0-4E8A-97F8-809454E87965}" name="Epic"/>
     <tableColumn id="3" xr3:uid="{62273C57-4035-404E-BD7F-DBE541848AF0}" name="Story"/>
@@ -2398,11 +2545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9D3302-E5F0-4E5C-9EB3-B74DDF37DF9D}">
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B241" sqref="B241"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A220" sqref="A220:XFD220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,13 +2577,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
         <v>105</v>
-      </c>
-      <c r="F1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -2834,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -2860,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2886,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -3510,7 +3657,7 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="3">
         <v>5</v>
@@ -3536,7 +3683,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="3">
         <v>5</v>
@@ -3689,7 +3836,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
@@ -3715,7 +3862,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
@@ -3741,7 +3888,7 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="3">
         <v>2</v>
@@ -3802,13 +3949,16 @@
         <f>VLOOKUP(C54,Points!$A$1:$C$6,3,FALSE)</f>
         <v>32</v>
       </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
       <c r="F54">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3816,7 +3966,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="3">
         <v>2</v>
@@ -3825,13 +3975,16 @@
         <f>VLOOKUP(C55,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
       <c r="F55">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3839,7 +3992,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>273</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
@@ -3848,21 +4001,24 @@
         <f>VLOOKUP(C56,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
       <c r="F56">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
         <v>64</v>
-      </c>
-      <c r="B57" t="s">
-        <v>65</v>
       </c>
       <c r="C57" s="3">
         <v>5</v>
@@ -3885,10 +4041,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="3">
         <v>3</v>
@@ -3911,10 +4067,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="3">
         <v>5</v>
@@ -3937,10 +4093,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="3">
         <v>5</v>
@@ -3963,10 +4119,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
         <v>69</v>
-      </c>
-      <c r="B61" t="s">
-        <v>70</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
@@ -3989,10 +4145,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="3">
         <v>5</v>
@@ -4015,10 +4171,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -4041,10 +4197,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
         <v>72</v>
-      </c>
-      <c r="B64" t="s">
-        <v>73</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -4067,10 +4223,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="3">
         <v>5</v>
@@ -4093,10 +4249,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="3">
         <v>3</v>
@@ -4119,10 +4275,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C67" s="3">
         <v>5</v>
@@ -4145,10 +4301,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
         <v>76</v>
-      </c>
-      <c r="B68" t="s">
-        <v>77</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
@@ -4171,10 +4327,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="3">
         <v>5</v>
@@ -4197,10 +4353,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
         <v>79</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
       </c>
       <c r="C70" s="3">
         <v>3</v>
@@ -4223,10 +4379,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="3">
         <v>3</v>
@@ -4246,10 +4402,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="3">
         <v>5</v>
@@ -4272,10 +4428,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="3">
         <v>5</v>
@@ -4298,10 +4454,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
         <v>84</v>
-      </c>
-      <c r="B74" t="s">
-        <v>85</v>
       </c>
       <c r="C74" s="3">
         <v>3</v>
@@ -4324,10 +4480,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="3">
         <v>3</v>
@@ -4350,10 +4506,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="3">
         <v>3</v>
@@ -4376,10 +4532,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="3">
         <v>3</v>
@@ -4402,10 +4558,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="3">
         <v>2</v>
@@ -4414,21 +4570,24 @@
         <f>VLOOKUP(C78,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
       <c r="F78">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="3">
         <v>2</v>
@@ -4437,21 +4596,24 @@
         <f>VLOOKUP(C79,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
       <c r="F79">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G79">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" s="3">
         <v>3</v>
@@ -4460,21 +4622,24 @@
         <f>VLOOKUP(C80,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
       <c r="F80">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G80">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="3">
         <v>3</v>
@@ -4483,21 +4648,24 @@
         <f>VLOOKUP(C81,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
       <c r="F81">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" t="s">
         <v>127</v>
-      </c>
-      <c r="B82" t="s">
-        <v>128</v>
       </c>
       <c r="C82" s="3">
         <v>3</v>
@@ -4506,21 +4674,24 @@
         <f>VLOOKUP(C82,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
       <c r="F82">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" s="3">
         <v>3</v>
@@ -4529,21 +4700,24 @@
         <f>VLOOKUP(C83,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
       <c r="F83">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G83">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -4552,21 +4726,24 @@
         <f>VLOOKUP(C84,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
       <c r="F84">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
@@ -4575,21 +4752,24 @@
         <f>VLOOKUP(C85,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
       <c r="F85">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" s="3">
         <v>3</v>
@@ -4598,21 +4778,24 @@
         <f>VLOOKUP(C86,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
       <c r="F86">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G86">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="3">
         <v>3</v>
@@ -4621,21 +4804,24 @@
         <f>VLOOKUP(C87,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
       <c r="F87">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G87">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" s="3">
         <v>3</v>
@@ -4644,21 +4830,24 @@
         <f>VLOOKUP(C88,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
       <c r="F88">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G88">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" t="s">
         <v>125</v>
-      </c>
-      <c r="B89" t="s">
-        <v>126</v>
       </c>
       <c r="C89" s="3">
         <v>3</v>
@@ -4667,21 +4856,24 @@
         <f>VLOOKUP(C89,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
       <c r="F89">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G89">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="3">
         <v>3</v>
@@ -4690,21 +4882,24 @@
         <f>VLOOKUP(C90,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
       <c r="F90">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G90">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
@@ -4713,21 +4908,24 @@
         <f>VLOOKUP(C91,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
       <c r="F91">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -4736,21 +4934,24 @@
         <f>VLOOKUP(C92,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
       <c r="F92">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" t="s">
         <v>138</v>
-      </c>
-      <c r="B93" t="s">
-        <v>139</v>
       </c>
       <c r="C93" s="3">
         <v>5</v>
@@ -4773,10 +4974,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -4799,10 +5000,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
@@ -4825,10 +5026,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -4851,10 +5052,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
@@ -4877,10 +5078,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C98" s="3">
         <v>3</v>
@@ -4903,10 +5104,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
@@ -4929,10 +5130,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -4955,10 +5156,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
@@ -4981,10 +5182,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -5007,10 +5208,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
@@ -5033,10 +5234,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
@@ -5059,10 +5260,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
@@ -5085,10 +5286,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -5111,10 +5312,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
@@ -5137,10 +5338,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -5163,10 +5364,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C109" s="3">
         <v>2</v>
@@ -5189,10 +5390,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -5215,10 +5416,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
@@ -5238,10 +5439,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -5264,10 +5465,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C113" s="3">
         <v>5</v>
@@ -5290,10 +5491,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C114" s="3">
         <v>3</v>
@@ -5313,10 +5514,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C115" s="3">
         <v>3</v>
@@ -5339,10 +5540,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
@@ -5365,10 +5566,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
@@ -5391,10 +5592,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C118" s="3">
         <v>2</v>
@@ -5417,10 +5618,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C119" s="3">
         <v>2</v>
@@ -5443,10 +5644,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -5469,10 +5670,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C121" s="3">
         <v>2</v>
@@ -5495,10 +5696,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -5521,10 +5722,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
@@ -5550,7 +5751,7 @@
         <v>56</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C124" s="3">
         <v>3</v>
@@ -5570,10 +5771,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" t="s">
         <v>172</v>
-      </c>
-      <c r="B125" t="s">
-        <v>173</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
@@ -5596,10 +5797,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -5622,10 +5823,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C127" s="3">
         <v>3</v>
@@ -5645,10 +5846,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -5671,10 +5872,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
@@ -5697,10 +5898,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C130" s="3">
         <v>2</v>
@@ -5723,10 +5924,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C131" s="3">
         <v>3</v>
@@ -5772,7 +5973,7 @@
         <v>53</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
@@ -5795,10 +5996,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B134" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C134" s="3">
         <v>5</v>
@@ -5821,10 +6022,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C135" s="3">
         <v>5</v>
@@ -5847,10 +6048,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -5873,10 +6074,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
@@ -5899,10 +6100,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C138" s="3">
         <v>3</v>
@@ -5925,10 +6126,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
@@ -5951,10 +6152,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -5977,10 +6178,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
@@ -6003,10 +6204,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -6029,10 +6230,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B143" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
@@ -6055,10 +6256,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B144" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C144" s="3">
         <v>3</v>
@@ -6081,10 +6282,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B145" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
@@ -6107,10 +6308,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
@@ -6133,10 +6334,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
@@ -6159,10 +6360,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -6185,10 +6386,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B149" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C149" s="3">
         <v>2</v>
@@ -6211,10 +6412,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
@@ -6237,10 +6438,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B151" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C151" s="3">
         <v>5</v>
@@ -6263,10 +6464,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B152" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
@@ -6289,10 +6490,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B153" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
@@ -6315,10 +6516,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B154" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
@@ -6341,10 +6542,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B155" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C155" s="3">
         <v>1</v>
@@ -6367,10 +6568,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B156" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C156" s="3">
         <v>1</v>
@@ -6393,10 +6594,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B157" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C157" s="3">
         <v>1</v>
@@ -6419,10 +6620,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B158" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C158" s="3">
         <v>2</v>
@@ -6445,10 +6646,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C159" s="3">
         <v>1</v>
@@ -6471,10 +6672,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B160" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C160" s="3">
         <v>1</v>
@@ -6497,10 +6698,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C161" s="3">
         <v>1</v>
@@ -6523,10 +6724,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B162" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C162" s="3">
         <v>2</v>
@@ -6549,10 +6750,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C163" s="3">
         <v>2</v>
@@ -6575,10 +6776,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C164" s="3">
         <v>5</v>
@@ -6601,10 +6802,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C165" s="3">
         <v>2</v>
@@ -6627,10 +6828,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C166" s="3">
         <v>2</v>
@@ -6653,10 +6854,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C167" s="3">
         <v>2</v>
@@ -6679,10 +6880,10 @@
     </row>
     <row r="168" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C168" s="3">
         <v>2</v>
@@ -6705,10 +6906,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C169" s="3">
         <v>2</v>
@@ -6731,10 +6932,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B170" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C170" s="3">
         <v>1</v>
@@ -6757,10 +6958,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C171" s="3">
         <v>3</v>
@@ -6783,10 +6984,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C172" s="3">
         <v>2</v>
@@ -6809,10 +7010,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C173" s="3">
         <v>1</v>
@@ -6835,10 +7036,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C174" s="3">
         <v>3</v>
@@ -6861,10 +7062,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C175" s="3">
         <v>3</v>
@@ -6887,10 +7088,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C176" s="3">
         <v>2</v>
@@ -6913,10 +7114,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B177" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C177" s="3">
         <v>2</v>
@@ -6939,10 +7140,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B178" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C178" s="3">
         <v>1</v>
@@ -6965,10 +7166,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B179" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C179" s="3">
         <v>2</v>
@@ -6991,10 +7192,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B180" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C180" s="3">
         <v>3</v>
@@ -7017,10 +7218,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B181" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C181" s="3">
         <v>1</v>
@@ -7043,10 +7244,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B182" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
@@ -7069,10 +7270,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B183" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C183" s="3">
         <v>3</v>
@@ -7095,10 +7296,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B184" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
@@ -7121,10 +7322,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B185" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
@@ -7147,10 +7348,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>230</v>
+      </c>
+      <c r="B186" t="s">
         <v>231</v>
-      </c>
-      <c r="B186" t="s">
-        <v>232</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
@@ -7173,10 +7374,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B187" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C187" s="3">
         <v>3</v>
@@ -7199,10 +7400,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B188" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C188" s="3">
         <v>2</v>
@@ -7222,10 +7423,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>233</v>
+      </c>
+      <c r="B189" t="s">
         <v>234</v>
-      </c>
-      <c r="B189" t="s">
-        <v>235</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
@@ -7245,10 +7446,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B190" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
@@ -7268,10 +7469,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B191" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
@@ -7291,10 +7492,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B192" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
@@ -7314,10 +7515,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B193" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C193" s="3">
         <v>5</v>
@@ -7337,10 +7538,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B194" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C194" s="3">
         <v>5</v>
@@ -7360,10 +7561,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B195" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C195" s="3">
         <v>2</v>
@@ -7383,10 +7584,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B196" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C196" s="3">
         <v>3</v>
@@ -7406,10 +7607,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>242</v>
+      </c>
+      <c r="B197" t="s">
         <v>243</v>
-      </c>
-      <c r="B197" t="s">
-        <v>244</v>
       </c>
       <c r="C197" s="3">
         <v>1</v>
@@ -7418,21 +7619,24 @@
         <f>VLOOKUP(C197,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E197" t="b">
+        <v>1</v>
+      </c>
       <c r="F197">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B198" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C198" s="3">
         <v>2</v>
@@ -7441,44 +7645,50 @@
         <f>VLOOKUP(C198,Points!$A$1:$C$6,3,FALSE)</f>
         <v>8</v>
       </c>
+      <c r="E198" t="b">
+        <v>1</v>
+      </c>
       <c r="F198">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G198">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B199" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C199" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D199" s="3">
         <f>VLOOKUP(C199,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
       </c>
       <c r="F199">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G199">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C200" s="3">
         <v>3</v>
@@ -7487,96 +7697,102 @@
         <f>VLOOKUP(C200,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
+      <c r="E200" t="b">
+        <v>1</v>
+      </c>
       <c r="F200">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G200">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B201" t="s">
         <v>248</v>
       </c>
       <c r="C201" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201" s="3">
         <f>VLOOKUP(C201,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
       </c>
       <c r="F201">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>247</v>
+      </c>
+      <c r="B202" t="s">
         <v>249</v>
       </c>
-      <c r="B202" t="s">
-        <v>250</v>
-      </c>
       <c r="C202" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202" s="3">
         <f>VLOOKUP(C202,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G202">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="B203" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C203" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203" s="3">
         <f>VLOOKUP(C203,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G203">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B204" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
@@ -7599,62 +7815,62 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="B205" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C205" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D205" s="3">
         <f>VLOOKUP(C205,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G205">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B206" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C206" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D206" s="3">
         <f>VLOOKUP(C206,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G206">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>258</v>
+      </c>
+      <c r="B207" t="s">
         <v>260</v>
-      </c>
-      <c r="B207" t="s">
-        <v>261</v>
       </c>
       <c r="C207" s="3">
         <v>1</v>
@@ -7677,10 +7893,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B208" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C208" s="3">
         <v>1</v>
@@ -7703,475 +7919,527 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B209" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C209" s="3">
-        <v>1</v>
-      </c>
-      <c r="D209" s="15">
+        <v>2</v>
+      </c>
+      <c r="D209" s="3">
         <f>VLOOKUP(C209,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
-      <c r="F209" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G209" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+      <c r="F209">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G209">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B210" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C210" s="3">
-        <v>2</v>
-      </c>
-      <c r="D210" s="15">
+        <v>1</v>
+      </c>
+      <c r="D210" s="3">
         <f>VLOOKUP(C210,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
-      <c r="F210" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
-      </c>
-      <c r="G210" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+      <c r="F210">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B211" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C211" s="3">
         <v>1</v>
       </c>
-      <c r="D211" s="15">
+      <c r="D211" s="3">
         <f>VLOOKUP(C211,Points!$A$1:$C$6,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E211" t="b">
         <v>1</v>
       </c>
-      <c r="F211" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G211" s="16">
+      <c r="F211">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G211">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B212" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C212" s="3">
-        <v>1</v>
-      </c>
-      <c r="D212" s="15">
+        <v>3</v>
+      </c>
+      <c r="D212" s="3">
         <f>VLOOKUP(C212,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E212" t="b">
         <v>1</v>
       </c>
-      <c r="F212" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G212" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+      <c r="F212">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G212">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B213" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C213" s="3">
         <v>3</v>
       </c>
-      <c r="D213" s="15">
+      <c r="D213" s="3">
         <f>VLOOKUP(C213,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="E213" t="b">
         <v>1</v>
       </c>
-      <c r="F213" s="16">
+      <c r="F213">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
         <v>3</v>
       </c>
-      <c r="G213" s="16">
+      <c r="G213">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B214" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C214" s="3">
         <v>3</v>
       </c>
-      <c r="D214" s="15">
+      <c r="D214" s="3">
         <f>VLOOKUP(C214,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="E214" t="b">
         <v>1</v>
       </c>
-      <c r="F214" s="16">
+      <c r="F214">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
         <v>3</v>
       </c>
-      <c r="G214" s="16">
+      <c r="G214">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B215" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C215" s="3">
         <v>3</v>
       </c>
-      <c r="D215" s="15">
+      <c r="D215" s="3">
         <f>VLOOKUP(C215,Points!$A$1:$C$6,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="E215" t="b">
         <v>1</v>
       </c>
-      <c r="F215" s="16">
+      <c r="F215">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
         <v>3</v>
       </c>
-      <c r="G215" s="16">
+      <c r="G215">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
         <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B216" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C216" s="3">
-        <v>3</v>
-      </c>
-      <c r="D216" s="15">
+        <v>2</v>
+      </c>
+      <c r="D216" s="3">
         <f>VLOOKUP(C216,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E216" t="b">
         <v>1</v>
       </c>
-      <c r="F216" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
-      </c>
-      <c r="G216" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+      <c r="F216">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G216">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B217" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C217" s="3">
-        <v>2</v>
-      </c>
-      <c r="D217" s="15">
+        <v>3</v>
+      </c>
+      <c r="D217" s="3">
         <f>VLOOKUP(C217,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E217" t="b">
         <v>1</v>
       </c>
-      <c r="F217" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
-      </c>
-      <c r="G217" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
+      <c r="F217">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G217">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B218" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C218" s="3">
-        <v>3</v>
-      </c>
-      <c r="D218" s="15">
+        <v>1</v>
+      </c>
+      <c r="D218" s="3">
         <f>VLOOKUP(C218,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E218" t="b">
         <v>1</v>
       </c>
-      <c r="F218" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
-      </c>
-      <c r="G218" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+      <c r="F218">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C219" s="3">
-        <v>1</v>
-      </c>
-      <c r="D219" s="15">
+        <v>3</v>
+      </c>
+      <c r="D219" s="3">
         <f>VLOOKUP(C219,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E219" t="b">
         <v>1</v>
       </c>
-      <c r="F219" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="G219" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>4</v>
+      <c r="F219">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>3</v>
+      </c>
+      <c r="G219">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B220" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C220" s="3">
-        <v>3</v>
-      </c>
-      <c r="D220" s="15">
+        <v>2</v>
+      </c>
+      <c r="D220" s="3">
         <f>VLOOKUP(C220,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E220" t="b">
         <v>1</v>
       </c>
-      <c r="F220" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>3</v>
-      </c>
-      <c r="G220" s="16">
-        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>16</v>
+      <c r="F220">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="G220">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="B221" t="s">
         <v>274</v>
       </c>
       <c r="C221" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221" s="15">
         <f>VLOOKUP(C221,Points!$A$1:$C$6,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E221" t="b">
         <v>1</v>
       </c>
       <c r="F221" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G221" s="16">
         <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B225" s="4"/>
-      <c r="C225" s="5">
-        <f>SUM(C2:C224)</f>
-        <v>493</v>
-      </c>
-      <c r="D225" s="5">
-        <f>SUM(D2:D224)</f>
-        <v>2540</v>
-      </c>
-      <c r="F225" s="4">
-        <f>SUM(F2:F224)</f>
-        <v>399</v>
-      </c>
-      <c r="G225" s="4">
-        <f>SUM(G2:G224)</f>
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="6"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="5"/>
-      <c r="D226" s="5"/>
-      <c r="G226" s="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>171</v>
+      </c>
+      <c r="B222" t="s">
+        <v>275</v>
+      </c>
+      <c r="C222" s="3">
+        <v>5</v>
+      </c>
+      <c r="D222" s="15">
+        <f>VLOOKUP(C222,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
+      </c>
+      <c r="F222" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>5</v>
+      </c>
+      <c r="G222" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>171</v>
+      </c>
+      <c r="B223" t="s">
+        <v>276</v>
+      </c>
+      <c r="C223" s="3">
+        <v>5</v>
+      </c>
+      <c r="D223" s="15">
+        <f>VLOOKUP(C223,Points!$A$1:$C$6,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
+      </c>
+      <c r="F223" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Points]],0)</f>
+        <v>5</v>
+      </c>
+      <c r="G223" s="16">
+        <f>IF(Table1[[#This Row],[Completed]],Table1[[#This Row],[Estimated Hours]],0)</f>
+        <v>32</v>
+      </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B227" s="11">
-        <f ca="1">B229+B228</f>
-        <v>136.57281553398059</v>
-      </c>
-      <c r="D227" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="B227" s="4"/>
+      <c r="C227" s="5">
+        <f>SUM(C2:C226)</f>
+        <v>503</v>
+      </c>
+      <c r="D227" s="5">
+        <f>SUM(D2:D226)</f>
+        <v>2604</v>
+      </c>
+      <c r="F227" s="4">
+        <f>SUM(F2:F226)</f>
+        <v>463</v>
+      </c>
+      <c r="G227" s="4">
+        <f>SUM(G2:G226)</f>
+        <v>2396</v>
+      </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B228" s="11">
-        <f ca="1">(D225-G225)/B235</f>
-        <v>19.572815533980581</v>
-      </c>
-      <c r="D228" s="7"/>
+      <c r="A228" s="6"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="G228" s="4"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B229" s="4">
-        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
-        <v>117</v>
+        <v>106</v>
+      </c>
+      <c r="B229" s="11">
+        <f ca="1">B231+B230</f>
+        <v>134.07345575959934</v>
       </c>
       <c r="D229" s="7"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B230" s="4">
-        <v>33</v>
+        <v>118</v>
+      </c>
+      <c r="B230" s="11">
+        <f ca="1">(D227-G227)/B237</f>
+        <v>8.0734557595993319</v>
       </c>
       <c r="D230" s="7"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B231" s="4">
-        <f ca="1">B229-B230</f>
-        <v>84</v>
+        <f ca="1">FLOOR(((TODAY()-Variables!B2)/7),1)</f>
+        <v>126</v>
       </c>
       <c r="D231" s="7"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B232" s="12">
+        <v>129</v>
+      </c>
+      <c r="B232" s="4">
+        <v>33</v>
+      </c>
+      <c r="D232" s="7"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B233" s="4">
+        <f ca="1">B231-B232</f>
+        <v>93</v>
+      </c>
+      <c r="D233" s="7"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B234" s="12">
         <f>Variables!B2</f>
         <v>44892</v>
       </c>
-      <c r="D232" s="7"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B233" s="12">
-        <f ca="1">TODAY()+ (B228*7)</f>
-        <v>45854.009708737867</v>
-      </c>
-      <c r="D233" s="9"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B234" s="11">
-        <f ca="1">F225/B231</f>
-        <v>4.75</v>
-      </c>
-      <c r="F234" s="10"/>
+      <c r="D234" s="7"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B235" s="13">
-        <f ca="1">G225/B231</f>
-        <v>24.523809523809526</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B235" s="12">
+        <f ca="1">TODAY()+ (B230*7)</f>
+        <v>45831.514190317197</v>
+      </c>
+      <c r="D235" s="9"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="B236" s="11">
-        <f>D225-G225</f>
-        <v>480</v>
-      </c>
+        <f ca="1">F227/B233</f>
+        <v>4.978494623655914</v>
+      </c>
+      <c r="F236" s="10"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B237" s="13">
+        <f ca="1">G227/B233</f>
+        <v>25.763440860215052</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B237" s="14">
-        <f>G225/D225</f>
-        <v>0.8110236220472441</v>
+      <c r="B238" s="11">
+        <f>D227-G227</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B239" s="14">
+        <f>G227/D227</f>
+        <v>0.92012288786482332</v>
       </c>
     </row>
   </sheetData>
@@ -8185,10 +8453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77214E7E-2154-4807-A446-0B02AF797AAE}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8197,24 +8465,24 @@
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8257,7 +8525,7 @@
         <v>732</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D30" si="0">(C3-C4)*-1</f>
+        <f t="shared" ref="D4:D38" si="0">(C3-C4)*-1</f>
         <v>28</v>
       </c>
     </row>
@@ -8401,7 +8669,7 @@
         <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8451,16 +8719,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" ref="A17:A31" si="1">A16+7</f>
+        <f t="shared" ref="A17:A38" si="1">A16+7</f>
         <v>45628</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ref="B17:B30" si="2">B16+1</f>
+        <f t="shared" ref="B17:B38" si="2">B16+1</f>
         <v>72</v>
       </c>
       <c r="C17" s="3">
@@ -8471,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8491,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8511,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8531,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8551,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8571,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -8591,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8611,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8721,7 +8989,143 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="8">
+        <f t="shared" si="1"/>
+        <v>45726</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="C31" s="3">
+        <v>480</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <f t="shared" si="1"/>
+        <v>45733</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="C32" s="3">
+        <v>480</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <f t="shared" si="1"/>
+        <v>45740</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="C33" s="3">
+        <v>480</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <f t="shared" si="1"/>
+        <v>45747</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C34" s="3">
+        <v>480</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <f t="shared" si="1"/>
+        <v>45754</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="C35" s="3">
+        <v>480</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <f t="shared" si="1"/>
+        <v>45761</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="C36" s="3">
+        <v>480</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <f t="shared" si="1"/>
+        <v>45768</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="C37" s="3">
+        <v>480</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <f t="shared" si="1"/>
+        <v>45775</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="C38" s="3">
+        <v>208</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>-272</v>
+      </c>
+      <c r="E38" t="s">
+        <v>277</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8831,15 +9235,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -8847,7 +9251,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8855,7 +9259,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -8863,7 +9267,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B4)</f>
@@ -8890,15 +9294,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="8">
         <v>44892</v>
